--- a/Resources/1999/Master_1999.xlsx
+++ b/Resources/1999/Master_1999.xlsx
@@ -3726,10 +3726,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN2">
-        <v>32.59668508287293</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO2">
-        <v>95.16129032258065</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="3" spans="1:67">
@@ -3929,10 +3929,10 @@
         <v>15.47085201793722</v>
       </c>
       <c r="BN3">
-        <v>57.18232044198894</v>
+        <v>12.70718232044199</v>
       </c>
       <c r="BO3">
-        <v>166.9354838709677</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="4" spans="1:67">
@@ -4132,10 +4132,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BN4">
-        <v>30.38674033149171</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO4">
-        <v>88.70967741935483</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="5" spans="1:67">
@@ -4335,10 +4335,10 @@
         <v>14.12556053811659</v>
       </c>
       <c r="BN5">
-        <v>52.20994475138121</v>
+        <v>14.3646408839779</v>
       </c>
       <c r="BO5">
-        <v>152.4193548387097</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="6" spans="1:67">
@@ -4532,10 +4532,10 @@
         <v>2.316890881913304</v>
       </c>
       <c r="BN6">
-        <v>8.563535911602209</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:67">
@@ -4735,10 +4735,10 @@
         <v>12.33183856502242</v>
       </c>
       <c r="BN7">
-        <v>45.58011049723756</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BO7">
-        <v>133.0645161290323</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="8" spans="1:67">
@@ -4938,10 +4938,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN8">
-        <v>46.13259668508287</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BO8">
-        <v>134.6774193548387</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="9" spans="1:67">
@@ -5141,10 +5141,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BN9">
-        <v>42.26519337016575</v>
+        <v>10.77348066298342</v>
       </c>
       <c r="BO9">
-        <v>123.3870967741936</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="10" spans="1:67">
@@ -5344,10 +5344,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BN10">
-        <v>35.35911602209944</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BO10">
-        <v>103.2258064516129</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="11" spans="1:67">
@@ -5547,10 +5547,10 @@
         <v>6.87593423019432</v>
       </c>
       <c r="BN11">
-        <v>25.41436464088397</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO11">
-        <v>74.19354838709677</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="12" spans="1:67">
@@ -5750,10 +5750,10 @@
         <v>12.40657698056801</v>
       </c>
       <c r="BN12">
-        <v>45.85635359116022</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BO12">
-        <v>133.8709677419355</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="13" spans="1:67">
@@ -5953,10 +5953,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BN13">
-        <v>35.63535911602209</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO13">
-        <v>104.0322580645161</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="14" spans="1:67">
@@ -6156,10 +6156,10 @@
         <v>16.59192825112108</v>
       </c>
       <c r="BN14">
-        <v>61.32596685082872</v>
+        <v>17.67955801104972</v>
       </c>
       <c r="BO14">
-        <v>179.0322580645161</v>
+        <v>24.19354838709677</v>
       </c>
     </row>
     <row r="15" spans="1:67">
@@ -6359,10 +6359,10 @@
         <v>2.615844544095665</v>
       </c>
       <c r="BN15">
-        <v>9.668508287292816</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO15">
-        <v>28.2258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:67">
@@ -6562,10 +6562,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BN16">
-        <v>35.91160220994475</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO16">
-        <v>104.8387096774193</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="17" spans="1:67">
@@ -6765,10 +6765,10 @@
         <v>8.968609865470851</v>
       </c>
       <c r="BN17">
-        <v>33.14917127071823</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO17">
-        <v>96.77419354838709</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="18" spans="1:67">
@@ -6965,10 +6965,10 @@
         <v>0.9715994020926756</v>
       </c>
       <c r="BN18">
-        <v>3.591160220994475</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO18">
-        <v>10.48387096774194</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="19" spans="1:67">
@@ -7168,10 +7168,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN19">
-        <v>31.76795580110497</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO19">
-        <v>92.74193548387096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:67">
@@ -7371,10 +7371,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN20">
-        <v>31.21546961325967</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO20">
-        <v>91.12903225806453</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="21" spans="1:67">
@@ -7568,10 +7568,10 @@
         <v>-34.82810164424514</v>
       </c>
       <c r="BN21">
-        <v>-128.7292817679558</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO21">
-        <v>-375.8064516129032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:67">
@@ -7771,10 +7771,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BN22">
-        <v>34.53038674033149</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO22">
-        <v>100.8064516129032</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="23" spans="1:67">
@@ -7974,10 +7974,10 @@
         <v>17.26457399103139</v>
       </c>
       <c r="BN23">
-        <v>63.81215469613259</v>
+        <v>18.78453038674033</v>
       </c>
       <c r="BO23">
-        <v>186.2903225806452</v>
+        <v>23.38709677419355</v>
       </c>
     </row>
     <row r="24" spans="1:67">
@@ -8177,10 +8177,10 @@
         <v>13.22869955156951</v>
       </c>
       <c r="BN24">
-        <v>48.89502762430939</v>
+        <v>9.392265193370166</v>
       </c>
       <c r="BO24">
-        <v>142.7419354838709</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="25" spans="1:67">
@@ -8380,10 +8380,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BN25">
-        <v>35.63535911602209</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO25">
-        <v>104.0322580645161</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="26" spans="1:67">
@@ -8583,10 +8583,10 @@
         <v>6.726457399103139</v>
       </c>
       <c r="BN26">
-        <v>24.86187845303867</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO26">
-        <v>72.58064516129032</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="27" spans="1:67">
@@ -8786,10 +8786,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN27">
-        <v>43.92265193370166</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BO27">
-        <v>128.2258064516129</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="28" spans="1:67">
@@ -8989,10 +8989,10 @@
         <v>11.58445440956652</v>
       </c>
       <c r="BN28">
-        <v>42.81767955801104</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO28">
-        <v>125</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="29" spans="1:67">
@@ -9192,10 +9192,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BN29">
-        <v>27.90055248618784</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO29">
-        <v>81.45161290322579</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="30" spans="1:67">
@@ -9389,10 +9389,10 @@
         <v>-1.121076233183856</v>
       </c>
       <c r="BN30">
-        <v>-4.143646408839778</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO30">
-        <v>-12.09677419354839</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="31" spans="1:67">
@@ -9592,10 +9592,10 @@
         <v>6.203288490284006</v>
       </c>
       <c r="BN31">
-        <v>22.92817679558011</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO31">
-        <v>66.93548387096774</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="32" spans="1:67">
@@ -9792,10 +9792,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BN32">
-        <v>30.11049723756906</v>
+        <v>0</v>
       </c>
       <c r="BO32">
-        <v>87.90322580645162</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="33" spans="1:67">
@@ -9995,10 +9995,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BN33">
-        <v>38.95027624309392</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BO33">
-        <v>113.7096774193548</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="34" spans="1:67">
@@ -10198,10 +10198,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BN34">
-        <v>40.88397790055249</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BO34">
-        <v>119.3548387096774</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="35" spans="1:67">
@@ -10401,10 +10401,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BN35">
-        <v>41.71270718232044</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO35">
-        <v>121.7741935483871</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="36" spans="1:67">
@@ -10604,10 +10604,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN36">
-        <v>46.13259668508287</v>
+        <v>12.98342541436464</v>
       </c>
       <c r="BO36">
-        <v>134.6774193548387</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:67">
@@ -10807,10 +10807,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BN37">
-        <v>26.24309392265193</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO37">
-        <v>76.61290322580645</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="38" spans="1:67">
@@ -11010,10 +11010,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BN38">
-        <v>42.26519337016575</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO38">
-        <v>123.3870967741936</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="39" spans="1:67">
@@ -11186,10 +11186,7 @@
         <v>0</v>
       </c>
       <c r="BN39">
-        <v>0</v>
-      </c>
-      <c r="BO39">
-        <v>0</v>
+        <v>-16.85082872928177</v>
       </c>
     </row>
     <row r="40" spans="1:67">
@@ -11389,10 +11386,10 @@
         <v>5.23168908819133</v>
       </c>
       <c r="BN40">
-        <v>19.33701657458563</v>
+        <v>-2.209944751381215</v>
       </c>
       <c r="BO40">
-        <v>56.4516129032258</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="41" spans="1:67">
@@ -11592,10 +11589,10 @@
         <v>3.736920777279521</v>
       </c>
       <c r="BN41">
-        <v>13.81215469613259</v>
+        <v>0</v>
       </c>
       <c r="BO41">
-        <v>40.32258064516129</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="42" spans="1:67">
@@ -11795,10 +11792,10 @@
         <v>5.381165919282511</v>
       </c>
       <c r="BN42">
-        <v>19.88950276243094</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO42">
-        <v>58.06451612903226</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="43" spans="1:67">
@@ -11998,10 +11995,10 @@
         <v>14.64872944693572</v>
       </c>
       <c r="BN43">
-        <v>54.14364640883977</v>
+        <v>11.60220994475138</v>
       </c>
       <c r="BO43">
-        <v>158.0645161290323</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="44" spans="1:67">
@@ -12201,10 +12198,10 @@
         <v>14.57399103139013</v>
       </c>
       <c r="BN44">
-        <v>53.86740331491713</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="BO44">
-        <v>157.258064516129</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="45" spans="1:67">
@@ -12404,10 +12401,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BN45">
-        <v>32.04419889502762</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO45">
-        <v>93.54838709677419</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="46" spans="1:67">
@@ -12607,10 +12604,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN46">
-        <v>38.39779005524861</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BO46">
-        <v>112.0967741935484</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="47" spans="1:67">
@@ -12810,10 +12807,10 @@
         <v>5.455904334828101</v>
       </c>
       <c r="BN47">
-        <v>20.16574585635359</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO47">
-        <v>58.87096774193547</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="48" spans="1:67">
@@ -13010,10 +13007,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BN48">
-        <v>43.64640883977901</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BO48">
-        <v>127.4193548387097</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="49" spans="1:67">
@@ -13213,10 +13210,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BN49">
-        <v>34.80662983425414</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BO49">
-        <v>101.6129032258064</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="50" spans="1:67">
@@ -13416,10 +13413,10 @@
         <v>4.633781763826607</v>
       </c>
       <c r="BN50">
-        <v>17.12707182320442</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO50">
-        <v>50</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="51" spans="1:67">
@@ -13619,10 +13616,10 @@
         <v>14.12556053811659</v>
       </c>
       <c r="BN51">
-        <v>52.20994475138121</v>
+        <v>14.3646408839779</v>
       </c>
       <c r="BO51">
-        <v>152.4193548387097</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="52" spans="1:67">
@@ -13822,10 +13819,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BN52">
-        <v>33.42541436464088</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BO52">
-        <v>97.58064516129032</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="53" spans="1:67">
@@ -14025,10 +14022,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BN53">
-        <v>33.70165745856353</v>
+        <v>8.011049723756905</v>
       </c>
       <c r="BO53">
-        <v>98.38709677419354</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="54" spans="1:67">
@@ -14228,10 +14225,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BN54">
-        <v>26.51933701657459</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO54">
-        <v>77.41935483870968</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="55" spans="1:67">
@@ -14431,10 +14428,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BN55">
-        <v>34.80662983425414</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO55">
-        <v>101.6129032258064</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="56" spans="1:67">
@@ -14634,10 +14631,10 @@
         <v>0.4484304932735425</v>
       </c>
       <c r="BN56">
-        <v>1.657458563535912</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO56">
-        <v>4.838709677419355</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="57" spans="1:67">
@@ -14837,10 +14834,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BN57">
-        <v>34.80662983425414</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO57">
-        <v>101.6129032258064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:67">
@@ -15040,10 +15037,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BN58">
-        <v>28.17679558011049</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO58">
-        <v>82.25806451612902</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="59" spans="1:67">
@@ -15240,10 +15237,10 @@
         <v>13.15396113602392</v>
       </c>
       <c r="BN59">
-        <v>48.61878453038674</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BO59">
-        <v>141.9354838709677</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="60" spans="1:67">
@@ -15443,10 +15440,10 @@
         <v>13.52765321375187</v>
       </c>
       <c r="BN60">
-        <v>50</v>
+        <v>11.87845303867403</v>
       </c>
       <c r="BO60">
-        <v>145.9677419354839</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="61" spans="1:67">
@@ -15646,10 +15643,10 @@
         <v>6.651718983557549</v>
       </c>
       <c r="BN61">
-        <v>24.58563535911602</v>
+        <v>0</v>
       </c>
       <c r="BO61">
-        <v>71.7741935483871</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="62" spans="1:67">
@@ -15849,10 +15846,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN62">
-        <v>32.59668508287293</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO62">
-        <v>95.16129032258065</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="63" spans="1:67">
@@ -16052,10 +16049,10 @@
         <v>3.811659192825111</v>
       </c>
       <c r="BN63">
-        <v>14.08839779005525</v>
+        <v>-3.314917127071823</v>
       </c>
       <c r="BO63">
-        <v>41.12903225806451</v>
+        <v>-8.870967741935484</v>
       </c>
     </row>
     <row r="64" spans="1:67">
@@ -16255,10 +16252,10 @@
         <v>14.64872944693572</v>
       </c>
       <c r="BN64">
-        <v>54.14364640883977</v>
+        <v>13.81215469613259</v>
       </c>
       <c r="BO64">
-        <v>158.0645161290323</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="65" spans="1:67">
@@ -16458,10 +16455,10 @@
         <v>17.26457399103139</v>
       </c>
       <c r="BN65">
-        <v>63.81215469613259</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO65">
-        <v>186.2903225806452</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="66" spans="1:67">
@@ -16661,10 +16658,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BN66">
-        <v>40.05524861878452</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO66">
-        <v>116.9354838709677</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="67" spans="1:67">
@@ -16861,10 +16858,10 @@
         <v>6.053811659192824</v>
       </c>
       <c r="BN67">
-        <v>22.3756906077348</v>
+        <v>0</v>
       </c>
       <c r="BO67">
-        <v>65.32258064516128</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="68" spans="1:67">
@@ -17064,10 +17061,10 @@
         <v>11.50971599402093</v>
       </c>
       <c r="BN68">
-        <v>42.54143646408839</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO68">
-        <v>124.1935483870968</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="69" spans="1:67">
@@ -17267,10 +17264,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN69">
-        <v>32.59668508287293</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO69">
-        <v>95.16129032258065</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="70" spans="1:67">
@@ -17470,10 +17467,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BN70">
-        <v>24.30939226519337</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO70">
-        <v>70.96774193548387</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="71" spans="1:67">
@@ -17673,10 +17670,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BN71">
-        <v>25.96685082872928</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO71">
-        <v>75.80645161290323</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="72" spans="1:67">
@@ -17876,10 +17873,10 @@
         <v>8.295964125560538</v>
       </c>
       <c r="BN72">
-        <v>30.66298342541436</v>
+        <v>8.011049723756905</v>
       </c>
       <c r="BO72">
-        <v>89.51612903225806</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="73" spans="1:67">
@@ -18079,10 +18076,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BN73">
-        <v>46.68508287292817</v>
+        <v>11.60220994475138</v>
       </c>
       <c r="BO73">
-        <v>136.2903225806452</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="74" spans="1:67">
@@ -18282,10 +18279,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN74">
-        <v>31.21546961325967</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO74">
-        <v>91.12903225806453</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="75" spans="1:67">
@@ -18485,10 +18482,10 @@
         <v>13.07922272047833</v>
       </c>
       <c r="BN75">
-        <v>48.34254143646409</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO75">
-        <v>141.1290322580645</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="76" spans="1:67">
@@ -18685,10 +18682,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BN76">
-        <v>26.51933701657459</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO76">
-        <v>77.41935483870968</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="77" spans="1:67">
@@ -18888,10 +18885,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BN77">
-        <v>43.0939226519337</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BO77">
-        <v>125.8064516129032</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="78" spans="1:67">
@@ -19091,10 +19088,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BN78">
-        <v>40.88397790055249</v>
+        <v>7.458563535911603</v>
       </c>
       <c r="BO78">
-        <v>119.3548387096774</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="79" spans="1:67">
@@ -19291,10 +19288,10 @@
         <v>-2.466367713004484</v>
       </c>
       <c r="BN79">
-        <v>-9.116022099447513</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO79">
-        <v>-26.61290322580645</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="80" spans="1:67">
@@ -19494,10 +19491,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BN80">
-        <v>31.49171270718232</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO80">
-        <v>91.93548387096774</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="81" spans="1:67">
@@ -19697,10 +19694,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BN81">
-        <v>33.70165745856353</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO81">
-        <v>98.38709677419354</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="82" spans="1:67">
@@ -19900,10 +19897,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BN82">
-        <v>27.90055248618784</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BO82">
-        <v>81.45161290322579</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="83" spans="1:67">
@@ -20103,10 +20100,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BN83">
-        <v>33.97790055248619</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO83">
-        <v>99.19354838709677</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="84" spans="1:67">
@@ -20306,10 +20303,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BN84">
-        <v>41.71270718232044</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO84">
-        <v>121.7741935483871</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="85" spans="1:67">
@@ -20509,10 +20506,10 @@
         <v>12.10762331838565</v>
       </c>
       <c r="BN85">
-        <v>44.75138121546961</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO85">
-        <v>130.6451612903226</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="86" spans="1:67">
@@ -20709,10 +20706,10 @@
         <v>0.3736920777279522</v>
       </c>
       <c r="BN86">
-        <v>1.38121546961326</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO86">
-        <v>4.032258064516129</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="87" spans="1:67">
@@ -20912,10 +20909,10 @@
         <v>5.530642750373691</v>
       </c>
       <c r="BN87">
-        <v>20.44198895027624</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO87">
-        <v>59.67741935483871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:67">
@@ -21115,10 +21112,10 @@
         <v>13.97608370702541</v>
       </c>
       <c r="BN88">
-        <v>51.6574585635359</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO88">
-        <v>150.8064516129032</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="89" spans="1:67">
@@ -21318,10 +21315,10 @@
         <v>6.502242152466367</v>
       </c>
       <c r="BN89">
-        <v>24.03314917127071</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO89">
-        <v>70.16129032258064</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="90" spans="1:67">
@@ -21518,10 +21515,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN90">
-        <v>32.59668508287293</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BO90">
-        <v>95.16129032258065</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="91" spans="1:67">
@@ -21721,10 +21718,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BN91">
-        <v>44.47513812154696</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO91">
-        <v>129.8387096774194</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="92" spans="1:67">
@@ -21924,10 +21921,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BN92">
-        <v>37.56906077348066</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO92">
-        <v>109.6774193548387</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="93" spans="1:67">
@@ -22124,10 +22121,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN93">
-        <v>46.13259668508287</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BO93">
-        <v>134.6774193548387</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="94" spans="1:67">
@@ -22324,10 +22321,10 @@
         <v>25.71001494768311</v>
       </c>
       <c r="BN94">
-        <v>95.02762430939225</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO94">
-        <v>277.4193548387096</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="95" spans="1:67">
@@ -22524,10 +22521,10 @@
         <v>12.40657698056801</v>
       </c>
       <c r="BN95">
-        <v>45.85635359116022</v>
+        <v>12.43093922651934</v>
       </c>
       <c r="BO95">
-        <v>133.8709677419355</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="96" spans="1:67">
@@ -22727,10 +22724,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BN96">
-        <v>30.11049723756906</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO96">
-        <v>87.90322580645162</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="97" spans="1:67">
@@ -22927,10 +22924,10 @@
         <v>-2.316890881913304</v>
       </c>
       <c r="BN97">
-        <v>-8.563535911602209</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO97">
-        <v>-25</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="98" spans="1:67">
@@ -23130,10 +23127,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BN98">
-        <v>35.63535911602209</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO98">
-        <v>104.0322580645161</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="99" spans="1:67">
@@ -23330,10 +23327,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BN99">
-        <v>29.2817679558011</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO99">
-        <v>85.48387096774192</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="100" spans="1:67">
@@ -23530,10 +23527,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BN100">
-        <v>41.43646408839778</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BO100">
-        <v>120.9677419354839</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="101" spans="1:67">
@@ -23733,10 +23730,10 @@
         <v>6.352765321375187</v>
       </c>
       <c r="BN101">
-        <v>23.48066298342541</v>
+        <v>0</v>
       </c>
       <c r="BO101">
-        <v>68.54838709677419</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="102" spans="1:67">
@@ -23936,10 +23933,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BN102">
-        <v>33.97790055248619</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO102">
-        <v>99.19354838709677</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="103" spans="1:67">
@@ -24139,10 +24136,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BN103">
-        <v>43.64640883977901</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BO103">
-        <v>127.4193548387097</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="104" spans="1:67">
@@ -24342,10 +24339,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BN104">
-        <v>32.04419889502762</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO104">
-        <v>93.54838709677419</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="105" spans="1:67">
@@ -24545,10 +24542,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN105">
-        <v>31.76795580110497</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO105">
-        <v>92.74193548387096</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="106" spans="1:67">
@@ -24748,10 +24745,10 @@
         <v>13.45291479820628</v>
       </c>
       <c r="BN106">
-        <v>49.72375690607734</v>
+        <v>14.3646408839779</v>
       </c>
       <c r="BO106">
-        <v>145.1612903225806</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="107" spans="1:67">
@@ -24948,10 +24945,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN107">
-        <v>37.84530386740331</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO107">
-        <v>110.4838709677419</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="108" spans="1:67">
@@ -25151,10 +25148,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN108">
-        <v>31.76795580110497</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO108">
-        <v>92.74193548387096</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="109" spans="1:67">
@@ -25354,10 +25351,10 @@
         <v>4.932735426008968</v>
       </c>
       <c r="BN109">
-        <v>18.23204419889503</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO109">
-        <v>53.2258064516129</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="110" spans="1:67">
@@ -25554,10 +25551,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BN110">
-        <v>26.51933701657459</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BO110">
-        <v>77.41935483870968</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="111" spans="1:67">
@@ -25757,10 +25754,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BN111">
-        <v>41.71270718232044</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="BO111">
-        <v>121.7741935483871</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="112" spans="1:67">
@@ -25960,10 +25957,10 @@
         <v>17.33931240657698</v>
       </c>
       <c r="BN112">
-        <v>64.08839779005524</v>
+        <v>24.03314917127071</v>
       </c>
       <c r="BO112">
-        <v>187.0967741935484</v>
+        <v>27.41935483870968</v>
       </c>
     </row>
     <row r="113" spans="1:67">
@@ -26163,10 +26160,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BN113">
-        <v>33.70165745856353</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO113">
-        <v>98.38709677419354</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="114" spans="1:67">
@@ -26366,10 +26363,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BN114">
-        <v>32.32044198895027</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BO114">
-        <v>94.35483870967741</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="115" spans="1:67">
@@ -26569,10 +26566,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BN115">
-        <v>40.05524861878452</v>
+        <v>12.43093922651934</v>
       </c>
       <c r="BO115">
-        <v>116.9354838709677</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="116" spans="1:67">
@@ -26772,10 +26769,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BN116">
-        <v>34.80662983425414</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BO116">
-        <v>101.6129032258064</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="117" spans="1:67">
@@ -26975,10 +26972,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN117">
-        <v>36.1878453038674</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BO117">
-        <v>105.6451612903226</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="118" spans="1:67">
@@ -27178,10 +27175,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN118">
-        <v>32.59668508287293</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO118">
-        <v>95.16129032258065</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="119" spans="1:67">
@@ -27381,10 +27378,10 @@
         <v>7.847533632286995</v>
       </c>
       <c r="BN119">
-        <v>29.00552486187845</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO119">
-        <v>84.67741935483872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:67">
@@ -27584,10 +27581,10 @@
         <v>14.49925261584454</v>
       </c>
       <c r="BN120">
-        <v>53.59116022099447</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO120">
-        <v>156.4516129032258</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="121" spans="1:67">
@@ -27784,10 +27781,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BN121">
-        <v>39.22651933701657</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO121">
-        <v>114.516129032258</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="122" spans="1:67">
@@ -27984,10 +27981,10 @@
         <v>-1.71898355754858</v>
       </c>
       <c r="BN122">
-        <v>-6.353591160220994</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO122">
-        <v>-18.54838709677419</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="123" spans="1:67">
@@ -28187,10 +28184,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BN123">
-        <v>30.38674033149171</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO123">
-        <v>88.70967741935483</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="124" spans="1:67">
@@ -28390,10 +28387,10 @@
         <v>14.34977578475336</v>
       </c>
       <c r="BN124">
-        <v>53.03867403314917</v>
+        <v>14.91712707182321</v>
       </c>
       <c r="BO124">
-        <v>154.8387096774194</v>
+        <v>19.35483870967742</v>
       </c>
     </row>
     <row r="125" spans="1:67">
@@ -28593,10 +28590,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BN125">
-        <v>33.42541436464088</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO125">
-        <v>97.58064516129032</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="126" spans="1:67">
@@ -28796,10 +28793,10 @@
         <v>13.97608370702541</v>
       </c>
       <c r="BN126">
-        <v>51.6574585635359</v>
+        <v>12.15469613259669</v>
       </c>
       <c r="BO126">
-        <v>150.8064516129032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:67">
@@ -28999,10 +28996,10 @@
         <v>4.708520179372197</v>
       </c>
       <c r="BN127">
-        <v>17.40331491712707</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO127">
-        <v>50.80645161290322</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="128" spans="1:67">
@@ -29202,10 +29199,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BN128">
-        <v>37.56906077348066</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO128">
-        <v>109.6774193548387</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="129" spans="1:67">
@@ -29402,10 +29399,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BN129">
-        <v>33.97790055248619</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO129">
-        <v>99.19354838709677</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="130" spans="1:67">
@@ -29602,10 +29599,10 @@
         <v>6.801195814648729</v>
       </c>
       <c r="BN130">
-        <v>25.13812154696132</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO130">
-        <v>73.38709677419354</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="131" spans="1:67">
@@ -29805,10 +29802,10 @@
         <v>13.82660687593423</v>
       </c>
       <c r="BN131">
-        <v>51.10497237569061</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BO131">
-        <v>149.1935483870968</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="132" spans="1:67">
@@ -30008,10 +30005,10 @@
         <v>16.74140508221225</v>
       </c>
       <c r="BN132">
-        <v>61.87845303867402</v>
+        <v>14.91712707182321</v>
       </c>
       <c r="BO132">
-        <v>180.6451612903226</v>
+        <v>28.2258064516129</v>
       </c>
     </row>
     <row r="133" spans="1:67">
@@ -30211,10 +30208,10 @@
         <v>4.857997010463378</v>
       </c>
       <c r="BN133">
-        <v>17.95580110497237</v>
+        <v>0</v>
       </c>
       <c r="BO133">
-        <v>52.41935483870967</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="134" spans="1:67">
@@ -30411,10 +30408,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BN134">
-        <v>37.56906077348066</v>
+        <v>8.011049723756905</v>
       </c>
       <c r="BO134">
-        <v>109.6774193548387</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="135" spans="1:67">
@@ -30614,10 +30611,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BN135">
-        <v>35.91160220994475</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO135">
-        <v>104.8387096774193</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="136" spans="1:67">
@@ -30817,10 +30814,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BN136">
-        <v>27.90055248618784</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO136">
-        <v>81.45161290322579</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="137" spans="1:67">
@@ -31017,10 +31014,10 @@
         <v>6.352765321375187</v>
       </c>
       <c r="BN137">
-        <v>23.48066298342541</v>
+        <v>0</v>
       </c>
       <c r="BO137">
-        <v>68.54838709677419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:67">
@@ -31220,10 +31217,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BN138">
-        <v>47.23756906077348</v>
+        <v>12.98342541436464</v>
       </c>
       <c r="BO138">
-        <v>137.9032258064516</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="139" spans="1:67">
@@ -31423,10 +31420,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BN139">
-        <v>40.88397790055249</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO139">
-        <v>119.3548387096774</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="140" spans="1:67">
@@ -31626,10 +31623,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN140">
-        <v>43.92265193370166</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BO140">
-        <v>128.2258064516129</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="141" spans="1:67">
@@ -31826,10 +31823,10 @@
         <v>12.70553064275037</v>
       </c>
       <c r="BN141">
-        <v>46.96132596685082</v>
+        <v>16.29834254143647</v>
       </c>
       <c r="BO141">
-        <v>137.0967741935484</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="142" spans="1:67">
@@ -32023,10 +32020,10 @@
         <v>13.52765321375187</v>
       </c>
       <c r="BN142">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BO142">
-        <v>145.9677419354839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:67">
@@ -32226,10 +32223,10 @@
         <v>4.932735426008968</v>
       </c>
       <c r="BN143">
-        <v>18.23204419889503</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO143">
-        <v>53.2258064516129</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="144" spans="1:67">
@@ -32429,10 +32426,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BN144">
-        <v>36.74033149171271</v>
+        <v>11.32596685082873</v>
       </c>
       <c r="BO144">
-        <v>107.258064516129</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="145" spans="1:67">
@@ -32626,10 +32623,10 @@
         <v>-3.43796711509716</v>
       </c>
       <c r="BN145">
-        <v>-12.70718232044199</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO145">
-        <v>-37.09677419354838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:67">
@@ -32829,10 +32826,10 @@
         <v>3.58744394618834</v>
       </c>
       <c r="BN146">
-        <v>13.25966850828729</v>
+        <v>-1.933701657458563</v>
       </c>
       <c r="BO146">
-        <v>38.70967741935484</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="147" spans="1:67">
@@ -33032,10 +33029,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BN147">
-        <v>34.53038674033149</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO147">
-        <v>100.8064516129032</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="148" spans="1:67">
@@ -33229,10 +33226,10 @@
         <v>-14.72346786248131</v>
       </c>
       <c r="BN148">
-        <v>-54.41988950276242</v>
+        <v>0</v>
       </c>
       <c r="BO148">
-        <v>-158.8709677419355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:67">
@@ -33432,10 +33429,10 @@
         <v>14.94768310911808</v>
       </c>
       <c r="BN149">
-        <v>55.24861878453038</v>
+        <v>14.91712707182321</v>
       </c>
       <c r="BO149">
-        <v>161.2903225806452</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="150" spans="1:67">
@@ -33632,10 +33629,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BN150">
-        <v>25.96685082872928</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BO150">
-        <v>75.80645161290323</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="151" spans="1:67">
@@ -33835,10 +33832,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN151">
-        <v>46.13259668508287</v>
+        <v>13.81215469613259</v>
       </c>
       <c r="BO151">
-        <v>134.6774193548387</v>
+        <v>22.58064516129032</v>
       </c>
     </row>
     <row r="152" spans="1:67">
@@ -34038,10 +34035,10 @@
         <v>14.050822122571</v>
       </c>
       <c r="BN152">
-        <v>51.93370165745856</v>
+        <v>14.91712707182321</v>
       </c>
       <c r="BO152">
-        <v>151.6129032258065</v>
+        <v>17.74193548387097</v>
       </c>
     </row>
     <row r="153" spans="1:67">
@@ -34241,10 +34238,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BN153">
-        <v>35.35911602209944</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BO153">
-        <v>103.2258064516129</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="154" spans="1:67">
@@ -34444,10 +34441,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BN154">
-        <v>40.60773480662983</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO154">
-        <v>118.5483870967742</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="155" spans="1:67">
@@ -34647,10 +34644,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BN155">
-        <v>35.91160220994475</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO155">
-        <v>104.8387096774193</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="156" spans="1:67">
@@ -34850,10 +34847,10 @@
         <v>4.783258594917788</v>
       </c>
       <c r="BN156">
-        <v>17.67955801104972</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO156">
-        <v>51.61290322580645</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="157" spans="1:67">
@@ -35050,10 +35047,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BN157">
-        <v>44.47513812154696</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO157">
-        <v>129.8387096774194</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="158" spans="1:67">
@@ -35253,10 +35250,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BN158">
-        <v>30.38674033149171</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO158">
-        <v>88.70967741935483</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="159" spans="1:67">
@@ -35456,10 +35453,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BN159">
-        <v>38.67403314917127</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BO159">
-        <v>112.9032258064516</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="160" spans="1:67">
@@ -35659,10 +35656,10 @@
         <v>5.381165919282511</v>
       </c>
       <c r="BN160">
-        <v>19.88950276243094</v>
+        <v>0</v>
       </c>
       <c r="BO160">
-        <v>58.06451612903226</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="161" spans="1:67">
@@ -35862,10 +35859,10 @@
         <v>11.95814648729447</v>
       </c>
       <c r="BN161">
-        <v>44.19889502762431</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BO161">
-        <v>129.0322580645161</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="162" spans="1:67">
@@ -36065,10 +36062,10 @@
         <v>7.399103139013452</v>
       </c>
       <c r="BN162">
-        <v>27.34806629834254</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO162">
-        <v>79.83870967741935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:67">
@@ -36268,10 +36265,10 @@
         <v>6.726457399103139</v>
       </c>
       <c r="BN163">
-        <v>24.86187845303867</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO163">
-        <v>72.58064516129032</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="164" spans="1:67">
@@ -36471,10 +36468,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BN164">
-        <v>33.97790055248619</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO164">
-        <v>99.19354838709677</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="165" spans="1:67">
@@ -36671,10 +36668,10 @@
         <v>4.185351270553063</v>
       </c>
       <c r="BN165">
-        <v>15.4696132596685</v>
+        <v>0</v>
       </c>
       <c r="BO165">
-        <v>45.16129032258064</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="166" spans="1:67">
@@ -36874,10 +36871,10 @@
         <v>5.082212257100148</v>
       </c>
       <c r="BN166">
-        <v>18.78453038674033</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO166">
-        <v>54.83870967741935</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="167" spans="1:67">
@@ -37077,10 +37074,10 @@
         <v>17.86248131539611</v>
       </c>
       <c r="BN167">
-        <v>66.02209944751381</v>
+        <v>20.16574585635359</v>
       </c>
       <c r="BO167">
-        <v>192.7419354838709</v>
+        <v>30.64516129032258</v>
       </c>
     </row>
     <row r="168" spans="1:67">
@@ -37277,10 +37274,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BN168">
-        <v>33.97790055248619</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO168">
-        <v>99.19354838709677</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="169" spans="1:67">
@@ -37480,10 +37477,10 @@
         <v>2.989536621823617</v>
       </c>
       <c r="BN169">
-        <v>11.04972375690608</v>
+        <v>0</v>
       </c>
       <c r="BO169">
-        <v>32.25806451612903</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="170" spans="1:67">
@@ -37683,10 +37680,10 @@
         <v>3.288490284005979</v>
       </c>
       <c r="BN170">
-        <v>12.15469613259669</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO170">
-        <v>35.48387096774194</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="171" spans="1:67">
@@ -37886,10 +37883,10 @@
         <v>13.3034379671151</v>
       </c>
       <c r="BN171">
-        <v>49.17127071823204</v>
+        <v>14.64088397790055</v>
       </c>
       <c r="BO171">
-        <v>143.5483870967742</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="172" spans="1:67">
@@ -38089,10 +38086,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BN172">
-        <v>37.29281767955801</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO172">
-        <v>108.8709677419355</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="173" spans="1:67">
@@ -38292,10 +38289,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN173">
-        <v>36.1878453038674</v>
+        <v>8.011049723756905</v>
       </c>
       <c r="BO173">
-        <v>105.6451612903226</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="174" spans="1:67">
@@ -38495,10 +38492,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BN174">
-        <v>47.23756906077348</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BO174">
-        <v>137.9032258064516</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="175" spans="1:67">
@@ -38698,10 +38695,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BN175">
-        <v>38.95027624309392</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO175">
-        <v>113.7096774193548</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="176" spans="1:67">
@@ -38901,10 +38898,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN176">
-        <v>46.13259668508287</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BO176">
-        <v>134.6774193548387</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="177" spans="1:67">
@@ -39104,10 +39101,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN177">
-        <v>38.39779005524861</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BO177">
-        <v>112.0967741935484</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="178" spans="1:67">
@@ -39304,10 +39301,10 @@
         <v>13.07922272047833</v>
       </c>
       <c r="BN178">
-        <v>48.34254143646409</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO178">
-        <v>141.1290322580645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:67">
@@ -39507,10 +39504,10 @@
         <v>16.59192825112108</v>
       </c>
       <c r="BN179">
-        <v>61.32596685082872</v>
+        <v>19.88950276243094</v>
       </c>
       <c r="BO179">
-        <v>179.0322580645161</v>
+        <v>26.61290322580645</v>
       </c>
     </row>
     <row r="180" spans="1:67">
@@ -39710,10 +39707,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN180">
-        <v>39.77900552486188</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO180">
-        <v>116.1290322580645</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="181" spans="1:67">
@@ -39913,10 +39910,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BN181">
-        <v>34.53038674033149</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BO181">
-        <v>100.8064516129032</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="182" spans="1:67">
@@ -40116,10 +40113,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN182">
-        <v>36.1878453038674</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BO182">
-        <v>105.6451612903226</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="183" spans="1:67">
@@ -40319,10 +40316,10 @@
         <v>13.37817638266069</v>
       </c>
       <c r="BN183">
-        <v>49.44751381215469</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BO183">
-        <v>144.3548387096774</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="184" spans="1:67">
@@ -40522,10 +40519,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BN184">
-        <v>32.04419889502762</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO184">
-        <v>93.54838709677419</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="185" spans="1:67">
@@ -40725,10 +40722,10 @@
         <v>15.39611360239163</v>
       </c>
       <c r="BN185">
-        <v>56.9060773480663</v>
+        <v>0</v>
       </c>
       <c r="BO185">
-        <v>166.1290322580645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:67">
@@ -40925,10 +40922,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN186">
-        <v>31.76795580110497</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO186">
-        <v>92.74193548387096</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="187" spans="1:67">
@@ -41128,10 +41125,10 @@
         <v>12.40657698056801</v>
       </c>
       <c r="BN187">
-        <v>45.85635359116022</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO187">
-        <v>133.8709677419355</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="188" spans="1:67">
@@ -41331,10 +41328,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BN188">
-        <v>29.2817679558011</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO188">
-        <v>85.48387096774192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:67">
@@ -41534,10 +41531,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BN189">
-        <v>38.67403314917127</v>
+        <v>10.77348066298342</v>
       </c>
       <c r="BO189">
-        <v>112.9032258064516</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="190" spans="1:67">
@@ -41734,10 +41731,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BN190">
-        <v>28.17679558011049</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO190">
-        <v>82.25806451612902</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="191" spans="1:67">
@@ -41934,10 +41931,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BN191">
-        <v>40.05524861878452</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO191">
-        <v>116.9354838709677</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="192" spans="1:67">
@@ -42137,10 +42134,10 @@
         <v>10.9118086696562</v>
       </c>
       <c r="BN192">
-        <v>40.33149171270718</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BO192">
-        <v>117.7419354838709</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="193" spans="1:67">
@@ -42340,10 +42337,10 @@
         <v>4.857997010463378</v>
       </c>
       <c r="BN193">
-        <v>17.95580110497237</v>
+        <v>-1.104972375690608</v>
       </c>
       <c r="BO193">
-        <v>52.41935483870967</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="194" spans="1:67">
@@ -42543,10 +42540,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN194">
-        <v>37.84530386740331</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO194">
-        <v>110.4838709677419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:67">
@@ -42746,10 +42743,10 @@
         <v>13.82660687593423</v>
       </c>
       <c r="BN195">
-        <v>51.10497237569061</v>
+        <v>16.57458563535911</v>
       </c>
       <c r="BO195">
-        <v>149.1935483870968</v>
+        <v>24.19354838709677</v>
       </c>
     </row>
     <row r="196" spans="1:67">
@@ -42949,10 +42946,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BN196">
-        <v>34.25414364640883</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO196">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:67">
@@ -43152,10 +43149,10 @@
         <v>14.12556053811659</v>
       </c>
       <c r="BN197">
-        <v>52.20994475138121</v>
+        <v>0</v>
       </c>
       <c r="BO197">
-        <v>152.4193548387097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:67">
@@ -43352,10 +43349,10 @@
         <v>7.324364723467862</v>
       </c>
       <c r="BN198">
-        <v>27.07182320441989</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO198">
-        <v>79.03225806451614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:67">
@@ -43555,10 +43552,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BN199">
-        <v>33.70165745856353</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO199">
-        <v>98.38709677419354</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="200" spans="1:67">
@@ -43758,10 +43755,10 @@
         <v>17.63826606875934</v>
       </c>
       <c r="BN200">
-        <v>65.19337016574586</v>
+        <v>17.40331491712707</v>
       </c>
       <c r="BO200">
-        <v>190.3225806451613</v>
+        <v>20.16129032258064</v>
       </c>
     </row>
     <row r="201" spans="1:67">
@@ -43955,10 +43952,10 @@
         <v>-11.36023916292974</v>
       </c>
       <c r="BN201">
-        <v>-41.98895027624309</v>
+        <v>0</v>
       </c>
       <c r="BO201">
-        <v>-122.5806451612903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:67">
@@ -44158,10 +44155,10 @@
         <v>7.399103139013452</v>
       </c>
       <c r="BN202">
-        <v>27.34806629834254</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO202">
-        <v>79.83870967741935</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="203" spans="1:67">
@@ -44361,10 +44358,10 @@
         <v>5.530642750373691</v>
       </c>
       <c r="BN203">
-        <v>20.44198895027624</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO203">
-        <v>59.67741935483871</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="204" spans="1:67">
@@ -44564,10 +44561,10 @@
         <v>16.81614349775785</v>
       </c>
       <c r="BN204">
-        <v>62.15469613259668</v>
+        <v>22.3756906077348</v>
       </c>
       <c r="BO204">
-        <v>181.4516129032258</v>
+        <v>33.06451612903226</v>
       </c>
     </row>
     <row r="205" spans="1:67">
@@ -44764,10 +44761,10 @@
         <v>-1.420029895366218</v>
       </c>
       <c r="BN205">
-        <v>-5.248618784530386</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO205">
-        <v>-15.32258064516129</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="206" spans="1:67">
@@ -44964,10 +44961,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BN206">
-        <v>37.56906077348066</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO206">
-        <v>109.6774193548387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:67">
@@ -45167,10 +45164,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BN207">
-        <v>37.29281767955801</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO207">
-        <v>108.8709677419355</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="208" spans="1:67">
@@ -45370,10 +45367,10 @@
         <v>4.932735426008968</v>
       </c>
       <c r="BN208">
-        <v>18.23204419889503</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO208">
-        <v>53.2258064516129</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="209" spans="1:67">
@@ -45573,10 +45570,10 @@
         <v>12.40657698056801</v>
       </c>
       <c r="BN209">
-        <v>45.85635359116022</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BO209">
-        <v>133.8709677419355</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="210" spans="1:67">
@@ -45776,10 +45773,10 @@
         <v>1.79372197309417</v>
       </c>
       <c r="BN210">
-        <v>6.629834254143646</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO210">
-        <v>19.35483870967742</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="211" spans="1:67">
@@ -45979,10 +45976,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BN211">
-        <v>35.35911602209944</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO211">
-        <v>103.2258064516129</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="212" spans="1:67">
@@ -46182,10 +46179,10 @@
         <v>13.90134529147982</v>
       </c>
       <c r="BN212">
-        <v>51.38121546961326</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BO212">
-        <v>150</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="213" spans="1:67">
@@ -46385,10 +46382,10 @@
         <v>10.9118086696562</v>
       </c>
       <c r="BN213">
-        <v>40.33149171270718</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO213">
-        <v>117.7419354838709</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="214" spans="1:67">
@@ -46588,10 +46585,10 @@
         <v>14.12556053811659</v>
       </c>
       <c r="BN214">
-        <v>52.20994475138121</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO214">
-        <v>152.4193548387097</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="215" spans="1:67">
@@ -46788,10 +46785,10 @@
         <v>5.23168908819133</v>
       </c>
       <c r="BN215">
-        <v>19.33701657458563</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO215">
-        <v>56.4516129032258</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="216" spans="1:67">
@@ -46988,10 +46985,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BN216">
-        <v>24.30939226519337</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO216">
-        <v>70.96774193548387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:67">
@@ -47191,10 +47188,10 @@
         <v>6.651718983557549</v>
       </c>
       <c r="BN217">
-        <v>24.58563535911602</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO217">
-        <v>71.7741935483871</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="218" spans="1:67">
@@ -47394,10 +47391,10 @@
         <v>6.801195814648729</v>
       </c>
       <c r="BN218">
-        <v>25.13812154696132</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO218">
-        <v>73.38709677419354</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="219" spans="1:67">
@@ -47597,10 +47594,10 @@
         <v>8.968609865470851</v>
       </c>
       <c r="BN219">
-        <v>33.14917127071823</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO219">
-        <v>96.77419354838709</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="220" spans="1:67">
@@ -47800,10 +47797,10 @@
         <v>3.363228699551569</v>
       </c>
       <c r="BN220">
-        <v>12.43093922651934</v>
+        <v>-1.104972375690608</v>
       </c>
       <c r="BO220">
-        <v>36.29032258064516</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="221" spans="1:67">
@@ -48000,10 +47997,10 @@
         <v>20.32884902840059</v>
       </c>
       <c r="BN221">
-        <v>75.13812154696133</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO221">
-        <v>219.3548387096774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:67">
@@ -48203,10 +48200,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BN222">
-        <v>43.0939226519337</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BO222">
-        <v>125.8064516129032</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="223" spans="1:67">
@@ -48403,10 +48400,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BN223">
-        <v>37.29281767955801</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO223">
-        <v>108.8709677419355</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="224" spans="1:67">
@@ -48606,10 +48603,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN224">
-        <v>32.59668508287293</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO224">
-        <v>95.16129032258065</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="225" spans="1:67">
@@ -48809,10 +48806,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BN225">
-        <v>30.93922651933701</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO225">
-        <v>90.32258064516128</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="226" spans="1:67">
@@ -49012,10 +49009,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BN226">
-        <v>35.35911602209944</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO226">
-        <v>103.2258064516129</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="227" spans="1:67">
@@ -49215,10 +49212,10 @@
         <v>11.50971599402093</v>
       </c>
       <c r="BN227">
-        <v>42.54143646408839</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BO227">
-        <v>124.1935483870968</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="228" spans="1:67">
@@ -49418,10 +49415,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BN228">
-        <v>37.01657458563536</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO228">
-        <v>108.0645161290323</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="229" spans="1:67">
@@ -49618,10 +49615,10 @@
         <v>-0.2989536621823617</v>
       </c>
       <c r="BN229">
-        <v>-1.104972375690608</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO229">
-        <v>-3.225806451612903</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="230" spans="1:67">
@@ -49818,10 +49815,10 @@
         <v>1.121076233183856</v>
       </c>
       <c r="BN230">
-        <v>4.143646408839778</v>
+        <v>0</v>
       </c>
       <c r="BO230">
-        <v>12.09677419354839</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="231" spans="1:67">
@@ -50021,10 +50018,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BN231">
-        <v>28.17679558011049</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BO231">
-        <v>82.25806451612902</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="232" spans="1:67">
@@ -50224,10 +50221,10 @@
         <v>19.13303437967115</v>
       </c>
       <c r="BN232">
-        <v>70.71823204419888</v>
+        <v>26.51933701657459</v>
       </c>
       <c r="BO232">
-        <v>206.4516129032258</v>
+        <v>33.06451612903226</v>
       </c>
     </row>
     <row r="233" spans="1:67">
@@ -50427,10 +50424,10 @@
         <v>1.64424514200299</v>
       </c>
       <c r="BN233">
-        <v>6.077348066298343</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO233">
-        <v>17.74193548387097</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="234" spans="1:67">
@@ -50630,10 +50627,10 @@
         <v>11.50971599402093</v>
       </c>
       <c r="BN234">
-        <v>42.54143646408839</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO234">
-        <v>124.1935483870968</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="235" spans="1:67">
@@ -50833,10 +50830,10 @@
         <v>15.54559043348281</v>
       </c>
       <c r="BN235">
-        <v>57.4585635359116</v>
+        <v>14.64088397790055</v>
       </c>
       <c r="BO235">
-        <v>167.741935483871</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="236" spans="1:67">
@@ -51033,10 +51030,10 @@
         <v>5.829596412556053</v>
       </c>
       <c r="BN236">
-        <v>21.54696132596685</v>
+        <v>0</v>
       </c>
       <c r="BO236">
-        <v>62.90322580645162</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="237" spans="1:67">
@@ -51236,10 +51233,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BN237">
-        <v>46.68508287292817</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO237">
-        <v>136.2903225806452</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="238" spans="1:67">
@@ -51439,10 +51436,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BN238">
-        <v>32.04419889502762</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO238">
-        <v>93.54838709677419</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="239" spans="1:67">
@@ -51642,10 +51639,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BN239">
-        <v>41.71270718232044</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO239">
-        <v>121.7741935483871</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="240" spans="1:67">
@@ -51845,10 +51842,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN240">
-        <v>43.92265193370166</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO240">
-        <v>128.2258064516129</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="241" spans="1:67">
@@ -52048,10 +52045,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BN241">
-        <v>34.80662983425414</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO241">
-        <v>101.6129032258064</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="242" spans="1:67">
@@ -52251,10 +52248,10 @@
         <v>5.381165919282511</v>
       </c>
       <c r="BN242">
-        <v>19.88950276243094</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO242">
-        <v>58.06451612903226</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="243" spans="1:67">
@@ -52448,10 +52445,10 @@
         <v>23.69207772795217</v>
       </c>
       <c r="BN243">
-        <v>87.56906077348066</v>
+        <v>0</v>
       </c>
       <c r="BO243">
-        <v>255.6451612903226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:67">
@@ -52651,10 +52648,10 @@
         <v>6.651718983557549</v>
       </c>
       <c r="BN244">
-        <v>24.58563535911602</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO244">
-        <v>71.7741935483871</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="245" spans="1:67">
@@ -52854,10 +52851,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BN245">
-        <v>37.56906077348066</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO245">
-        <v>109.6774193548387</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="246" spans="1:67">
@@ -53054,10 +53051,10 @@
         <v>15.76980568011958</v>
       </c>
       <c r="BN246">
-        <v>58.28729281767956</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO246">
-        <v>170.1612903225806</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="247" spans="1:67">
@@ -53257,10 +53254,10 @@
         <v>16.21823617339312</v>
       </c>
       <c r="BN247">
-        <v>59.94475138121547</v>
+        <v>11.60220994475138</v>
       </c>
       <c r="BO247">
-        <v>175</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="248" spans="1:67">
@@ -53460,10 +53457,10 @@
         <v>15.39611360239163</v>
       </c>
       <c r="BN248">
-        <v>56.9060773480663</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO248">
-        <v>166.1290322580645</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="249" spans="1:67">
@@ -53660,10 +53657,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BN249">
-        <v>26.24309392265193</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO249">
-        <v>76.61290322580645</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="250" spans="1:67">
@@ -53863,10 +53860,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BN250">
-        <v>30.38674033149171</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO250">
-        <v>88.70967741935483</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="251" spans="1:67">
@@ -54066,10 +54063,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BN251">
-        <v>33.70165745856353</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO251">
-        <v>98.38709677419354</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="252" spans="1:67">
@@ -54269,10 +54266,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BN252">
-        <v>31.49171270718232</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO252">
-        <v>91.93548387096774</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="253" spans="1:67">
@@ -54472,10 +54469,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN253">
-        <v>31.21546961325967</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO253">
-        <v>91.12903225806453</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="254" spans="1:67">
@@ -54675,10 +54672,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BN254">
-        <v>37.29281767955801</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BO254">
-        <v>108.8709677419355</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="255" spans="1:67">
@@ -54878,10 +54875,10 @@
         <v>-2.092675635276532</v>
       </c>
       <c r="BN255">
-        <v>-7.734806629834252</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO255">
-        <v>-22.58064516129032</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="256" spans="1:67">
@@ -55078,10 +55075,10 @@
         <v>2.914798206278026</v>
       </c>
       <c r="BN256">
-        <v>10.77348066298342</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO256">
-        <v>31.45161290322581</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="257" spans="1:67">
@@ -55281,10 +55278,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN257">
-        <v>36.1878453038674</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO257">
-        <v>105.6451612903226</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="258" spans="1:67">
@@ -55484,10 +55481,10 @@
         <v>15.84454409566517</v>
       </c>
       <c r="BN258">
-        <v>58.5635359116022</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BO258">
-        <v>170.9677419354838</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="259" spans="1:67">
@@ -55681,10 +55678,10 @@
         <v>6.203288490284006</v>
       </c>
       <c r="BN259">
-        <v>22.92817679558011</v>
+        <v>0</v>
       </c>
       <c r="BO259">
-        <v>66.93548387096774</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="260" spans="1:67">
@@ -55884,10 +55881,10 @@
         <v>13.97608370702541</v>
       </c>
       <c r="BN260">
-        <v>51.6574585635359</v>
+        <v>17.67955801104972</v>
       </c>
       <c r="BO260">
-        <v>150.8064516129032</v>
+        <v>20.16129032258064</v>
       </c>
     </row>
     <row r="261" spans="1:67">
@@ -56087,10 +56084,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BN261">
-        <v>35.91160220994475</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO261">
-        <v>104.8387096774193</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="262" spans="1:67">
@@ -56290,10 +56287,10 @@
         <v>5.007473841554559</v>
       </c>
       <c r="BN262">
-        <v>18.50828729281768</v>
+        <v>0</v>
       </c>
       <c r="BO262">
-        <v>54.03225806451613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:67">
@@ -56493,10 +56490,10 @@
         <v>7.24962630792227</v>
       </c>
       <c r="BN263">
-        <v>26.79558011049724</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO263">
-        <v>78.2258064516129</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="264" spans="1:67">
@@ -56696,10 +56693,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BN264">
-        <v>38.95027624309392</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO264">
-        <v>113.7096774193548</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="265" spans="1:67">
@@ -56899,10 +56896,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BN265">
-        <v>33.70165745856353</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO265">
-        <v>98.38709677419354</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="266" spans="1:67">
@@ -57099,10 +57096,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BN266">
-        <v>27.62430939226519</v>
+        <v>0</v>
       </c>
       <c r="BO266">
-        <v>80.64516129032258</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="267" spans="1:67">
@@ -57302,10 +57299,10 @@
         <v>6.801195814648729</v>
       </c>
       <c r="BN267">
-        <v>25.13812154696132</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BO267">
-        <v>73.38709677419354</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="268" spans="1:67">
@@ -57502,10 +57499,10 @@
         <v>26.68161434977578</v>
       </c>
       <c r="BN268">
-        <v>98.61878453038673</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO268">
-        <v>287.9032258064516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:67">
@@ -57705,10 +57702,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BN269">
-        <v>42.26519337016575</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO269">
-        <v>123.3870967741936</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="270" spans="1:67">
@@ -57908,10 +57905,10 @@
         <v>18.38565022421525</v>
       </c>
       <c r="BN270">
-        <v>67.95580110497238</v>
+        <v>21.8232044198895</v>
       </c>
       <c r="BO270">
-        <v>198.3870967741935</v>
+        <v>24.19354838709677</v>
       </c>
     </row>
     <row r="271" spans="1:67">
@@ -58111,10 +58108,10 @@
         <v>13.52765321375187</v>
       </c>
       <c r="BN271">
-        <v>50</v>
+        <v>11.32596685082873</v>
       </c>
       <c r="BO271">
-        <v>145.9677419354839</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="272" spans="1:67">
@@ -58314,10 +58311,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BN272">
-        <v>33.97790055248619</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO272">
-        <v>99.19354838709677</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="273" spans="1:67">
@@ -58511,10 +58508,10 @@
         <v>-67.71300448430492</v>
       </c>
       <c r="BN273">
-        <v>-250.2762430939226</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO273">
-        <v>-730.6451612903226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:67">
@@ -58714,10 +58711,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BN274">
-        <v>39.50276243093923</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO274">
-        <v>115.3225806451613</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="275" spans="1:67">
@@ -58917,10 +58914,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BN275">
-        <v>26.51933701657459</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO275">
-        <v>77.41935483870968</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="276" spans="1:67">
@@ -59117,10 +59114,10 @@
         <v>14.050822122571</v>
       </c>
       <c r="BN276">
-        <v>51.93370165745856</v>
+        <v>21.8232044198895</v>
       </c>
       <c r="BO276">
-        <v>151.6129032258065</v>
+        <v>24.19354838709677</v>
       </c>
     </row>
     <row r="277" spans="1:67">
@@ -59317,10 +59314,10 @@
         <v>2.914798206278026</v>
       </c>
       <c r="BN277">
-        <v>10.77348066298342</v>
+        <v>0</v>
       </c>
       <c r="BO277">
-        <v>31.45161290322581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:67">
@@ -59520,10 +59517,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BN278">
-        <v>30.11049723756906</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BO278">
-        <v>87.90322580645162</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="279" spans="1:67">
@@ -59723,10 +59720,10 @@
         <v>12.70553064275037</v>
       </c>
       <c r="BN279">
-        <v>46.96132596685082</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BO279">
-        <v>137.0967741935484</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="280" spans="1:67">
@@ -59923,10 +59920,10 @@
         <v>2.615844544095665</v>
       </c>
       <c r="BN280">
-        <v>9.668508287292816</v>
+        <v>0</v>
       </c>
       <c r="BO280">
-        <v>28.2258064516129</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="281" spans="1:67">
@@ -60126,10 +60123,10 @@
         <v>6.87593423019432</v>
       </c>
       <c r="BN281">
-        <v>25.41436464088397</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO281">
-        <v>74.19354838709677</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="282" spans="1:67">
@@ -60329,10 +60326,10 @@
         <v>5.680119581464872</v>
       </c>
       <c r="BN282">
-        <v>20.99447513812154</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO282">
-        <v>61.29032258064515</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="283" spans="1:67">
@@ -60532,10 +60529,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BN283">
-        <v>35.35911602209944</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO283">
-        <v>103.2258064516129</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="284" spans="1:67">
@@ -60735,10 +60732,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BN284">
-        <v>36.74033149171271</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO284">
-        <v>107.258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:67">
@@ -60938,10 +60935,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BN285">
-        <v>37.56906077348066</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO285">
-        <v>109.6774193548387</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="286" spans="1:67">
@@ -61141,10 +61138,10 @@
         <v>22.86995515695067</v>
       </c>
       <c r="BN286">
-        <v>84.53038674033149</v>
+        <v>24.86187845303867</v>
       </c>
       <c r="BO286">
-        <v>246.7741935483871</v>
+        <v>29.03225806451613</v>
       </c>
     </row>
     <row r="287" spans="1:67">
@@ -61344,10 +61341,10 @@
         <v>8.071748878923767</v>
       </c>
       <c r="BN287">
-        <v>29.83425414364641</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BO287">
-        <v>87.09677419354838</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="288" spans="1:67">
@@ -61547,10 +61544,10 @@
         <v>17.26457399103139</v>
       </c>
       <c r="BN288">
-        <v>63.81215469613259</v>
+        <v>17.95580110497237</v>
       </c>
       <c r="BO288">
-        <v>186.2903225806452</v>
+        <v>17.74193548387097</v>
       </c>
     </row>
     <row r="289" spans="1:67">
@@ -61747,10 +61744,10 @@
         <v>2.017937219730942</v>
       </c>
       <c r="BN289">
-        <v>7.458563535911603</v>
+        <v>0</v>
       </c>
       <c r="BO289">
-        <v>21.7741935483871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:67">
@@ -61947,10 +61944,10 @@
         <v>2.765321375186846</v>
       </c>
       <c r="BN290">
-        <v>10.22099447513812</v>
+        <v>0</v>
       </c>
       <c r="BO290">
-        <v>29.83870967741936</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="291" spans="1:67">
@@ -62147,10 +62144,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN291">
-        <v>32.59668508287293</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO291">
-        <v>95.16129032258065</v>
+        <v>-8.064516129032258</v>
       </c>
     </row>
     <row r="292" spans="1:67">
@@ -62347,10 +62344,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BN292">
-        <v>35.35911602209944</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BO292">
-        <v>103.2258064516129</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="293" spans="1:67">
@@ -62550,10 +62547,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BN293">
-        <v>35.35911602209944</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO293">
-        <v>103.2258064516129</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="294" spans="1:67">
@@ -62753,10 +62750,10 @@
         <v>8.071748878923767</v>
       </c>
       <c r="BN294">
-        <v>29.83425414364641</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO294">
-        <v>87.09677419354838</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="295" spans="1:67">
@@ -62956,10 +62953,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BN295">
-        <v>32.87292817679558</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO295">
-        <v>95.96774193548387</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="296" spans="1:67">
@@ -63159,10 +63156,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BN296">
-        <v>47.23756906077348</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO296">
-        <v>137.9032258064516</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="297" spans="1:67">
@@ -63356,10 +63353,10 @@
         <v>23.09417040358744</v>
       </c>
       <c r="BN297">
-        <v>85.35911602209943</v>
+        <v>0</v>
       </c>
       <c r="BO297">
-        <v>249.1935483870967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:67">
@@ -63559,10 +63556,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BN298">
-        <v>26.24309392265193</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO298">
-        <v>76.61290322580645</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="299" spans="1:67">
@@ -63762,10 +63759,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BN299">
-        <v>40.05524861878452</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO299">
-        <v>116.9354838709677</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="300" spans="1:67">
@@ -63965,10 +63962,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BN300">
-        <v>39.50276243093923</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO300">
-        <v>115.3225806451613</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="301" spans="1:67">
@@ -64168,10 +64165,10 @@
         <v>17.26457399103139</v>
       </c>
       <c r="BN301">
-        <v>63.81215469613259</v>
+        <v>19.88950276243094</v>
       </c>
       <c r="BO301">
-        <v>186.2903225806452</v>
+        <v>30.64516129032258</v>
       </c>
     </row>
     <row r="302" spans="1:67">
@@ -64371,10 +64368,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BN302">
-        <v>32.32044198895027</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO302">
-        <v>94.35483870967741</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="303" spans="1:67">
@@ -64571,10 +64568,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BN303">
-        <v>32.32044198895027</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BO303">
-        <v>94.35483870967741</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="304" spans="1:67">
@@ -64774,10 +64771,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BN304">
-        <v>33.42541436464088</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO304">
-        <v>97.58064516129032</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="305" spans="1:67">
@@ -64977,10 +64974,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN305">
-        <v>31.76795580110497</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO305">
-        <v>92.74193548387096</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="306" spans="1:67">
@@ -65180,10 +65177,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BN306">
-        <v>26.51933701657459</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO306">
-        <v>77.41935483870968</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="307" spans="1:67">
@@ -65383,10 +65380,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN307">
-        <v>39.77900552486188</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO307">
-        <v>116.1290322580645</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="308" spans="1:67">
@@ -65586,10 +65583,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN308">
-        <v>39.77900552486188</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO308">
-        <v>116.1290322580645</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="309" spans="1:67">
@@ -65789,10 +65786,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BN309">
-        <v>42.26519337016575</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO309">
-        <v>123.3870967741936</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="310" spans="1:67">
@@ -65992,10 +65989,10 @@
         <v>14.34977578475336</v>
       </c>
       <c r="BN310">
-        <v>53.03867403314917</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BO310">
-        <v>154.8387096774194</v>
+        <v>18.54838709677419</v>
       </c>
     </row>
     <row r="311" spans="1:67">
@@ -66195,10 +66192,10 @@
         <v>12.55605381165919</v>
       </c>
       <c r="BN311">
-        <v>46.40883977900553</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BO311">
-        <v>135.483870967742</v>
+        <v>22.58064516129032</v>
       </c>
     </row>
     <row r="312" spans="1:67">
@@ -66395,10 +66392,10 @@
         <v>13.45291479820628</v>
       </c>
       <c r="BN312">
-        <v>49.72375690607734</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO312">
-        <v>145.1612903225806</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="313" spans="1:67">
@@ -66598,10 +66595,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN313">
-        <v>32.59668508287293</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BO313">
-        <v>95.16129032258065</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="314" spans="1:67">
@@ -66801,10 +66798,10 @@
         <v>-6.352765321375187</v>
       </c>
       <c r="BN314">
-        <v>-23.48066298342541</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO314">
-        <v>-68.54838709677419</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="315" spans="1:67">
@@ -67004,10 +67001,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BN315">
-        <v>46.68508287292817</v>
+        <v>13.81215469613259</v>
       </c>
       <c r="BO315">
-        <v>136.2903225806452</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="316" spans="1:67">
@@ -67207,10 +67204,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BN316">
-        <v>37.56906077348066</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO316">
-        <v>109.6774193548387</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="317" spans="1:67">
@@ -67410,10 +67407,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BN317">
-        <v>41.43646408839778</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO317">
-        <v>120.9677419354839</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="318" spans="1:67">
@@ -67610,10 +67607,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BN318">
-        <v>46.68508287292817</v>
+        <v>14.91712707182321</v>
       </c>
       <c r="BO318">
-        <v>136.2903225806452</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="319" spans="1:67">
@@ -67813,10 +67810,10 @@
         <v>8.295964125560538</v>
       </c>
       <c r="BN319">
-        <v>30.66298342541436</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO319">
-        <v>89.51612903225806</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="320" spans="1:67">
@@ -68016,10 +68013,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BN320">
-        <v>28.7292817679558</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO320">
-        <v>83.87096774193549</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="321" spans="1:67">
@@ -68219,10 +68216,10 @@
         <v>5.082212257100148</v>
       </c>
       <c r="BN321">
-        <v>18.78453038674033</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO321">
-        <v>54.83870967741935</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="322" spans="1:67">
@@ -68419,10 +68416,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BN322">
-        <v>34.53038674033149</v>
+        <v>7.458563535911603</v>
       </c>
       <c r="BO322">
-        <v>100.8064516129032</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="323" spans="1:67">
@@ -68622,10 +68619,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN323">
-        <v>37.84530386740331</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BO323">
-        <v>110.4838709677419</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="324" spans="1:67">
@@ -68825,10 +68822,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BN324">
-        <v>31.49171270718232</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO324">
-        <v>91.93548387096774</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="325" spans="1:67">
@@ -69028,10 +69025,10 @@
         <v>0.5231689088191329</v>
       </c>
       <c r="BN325">
-        <v>1.933701657458563</v>
+        <v>-1.933701657458563</v>
       </c>
       <c r="BO325">
-        <v>5.64516129032258</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="326" spans="1:67">
@@ -69231,10 +69228,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BN326">
-        <v>41.98895027624309</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO326">
-        <v>122.5806451612903</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="327" spans="1:67">
@@ -69434,10 +69431,10 @@
         <v>7.997010463378175</v>
       </c>
       <c r="BN327">
-        <v>29.55801104972375</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO327">
-        <v>86.29032258064515</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="328" spans="1:67">
@@ -69637,10 +69634,10 @@
         <v>11.58445440956652</v>
       </c>
       <c r="BN328">
-        <v>42.81767955801104</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO328">
-        <v>125</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="329" spans="1:67">
@@ -69840,10 +69837,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN329">
-        <v>37.84530386740331</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BO329">
-        <v>110.4838709677419</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="330" spans="1:67">
@@ -70040,10 +70037,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN330">
-        <v>32.59668508287293</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO330">
-        <v>95.16129032258065</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="331" spans="1:67">
@@ -70240,10 +70237,10 @@
         <v>7.24962630792227</v>
       </c>
       <c r="BN331">
-        <v>26.79558011049724</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO331">
-        <v>78.2258064516129</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="332" spans="1:67">
@@ -70443,10 +70440,10 @@
         <v>13.67713004484305</v>
       </c>
       <c r="BN332">
-        <v>50.5524861878453</v>
+        <v>14.64088397790055</v>
       </c>
       <c r="BO332">
-        <v>147.5806451612903</v>
+        <v>17.74193548387097</v>
       </c>
     </row>
     <row r="333" spans="1:67">
@@ -70646,10 +70643,10 @@
         <v>18.60986547085201</v>
       </c>
       <c r="BN333">
-        <v>68.78453038674031</v>
+        <v>23.20441988950276</v>
       </c>
       <c r="BO333">
-        <v>200.8064516129032</v>
+        <v>29.83870967741936</v>
       </c>
     </row>
     <row r="334" spans="1:67">
@@ -70849,10 +70846,10 @@
         <v>14.72346786248131</v>
       </c>
       <c r="BN334">
-        <v>54.41988950276242</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BO334">
-        <v>158.8709677419355</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="335" spans="1:67">
@@ -71052,10 +71049,10 @@
         <v>7.997010463378175</v>
       </c>
       <c r="BN335">
-        <v>29.55801104972375</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO335">
-        <v>86.29032258064515</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="336" spans="1:67">
@@ -71255,10 +71252,10 @@
         <v>5.979073243647234</v>
       </c>
       <c r="BN336">
-        <v>22.09944751381216</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO336">
-        <v>64.51612903225806</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="337" spans="1:67">
@@ -71455,10 +71452,10 @@
         <v>17.41405082212257</v>
       </c>
       <c r="BN337">
-        <v>64.3646408839779</v>
+        <v>0</v>
       </c>
       <c r="BO337">
-        <v>187.9032258064516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:67">
@@ -71658,10 +71655,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BN338">
-        <v>40.60773480662983</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO338">
-        <v>118.5483870967742</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="339" spans="1:67">
@@ -71861,10 +71858,10 @@
         <v>6.801195814648729</v>
       </c>
       <c r="BN339">
-        <v>25.13812154696132</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO339">
-        <v>73.38709677419354</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="340" spans="1:67">
@@ -72064,10 +72061,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN340">
-        <v>39.77900552486188</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO340">
-        <v>116.1290322580645</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="341" spans="1:67">
@@ -72267,10 +72264,10 @@
         <v>14.72346786248131</v>
       </c>
       <c r="BN341">
-        <v>54.41988950276242</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO341">
-        <v>158.8709677419355</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="342" spans="1:67">
@@ -72470,10 +72467,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BN342">
-        <v>38.95027624309392</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BO342">
-        <v>113.7096774193548</v>
+        <v>18.54838709677419</v>
       </c>
     </row>
     <row r="343" spans="1:67">
@@ -72673,10 +72670,10 @@
         <v>15.24663677130044</v>
       </c>
       <c r="BN343">
-        <v>56.35359116022099</v>
+        <v>16.02209944751381</v>
       </c>
       <c r="BO343">
-        <v>164.516129032258</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="344" spans="1:67">
@@ -72873,10 +72870,10 @@
         <v>7.997010463378175</v>
       </c>
       <c r="BN344">
-        <v>29.55801104972375</v>
+        <v>0</v>
       </c>
       <c r="BO344">
-        <v>86.29032258064515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:67">
@@ -73073,10 +73070,10 @@
         <v>1.420029895366218</v>
       </c>
       <c r="BN345">
-        <v>5.248618784530386</v>
+        <v>0</v>
       </c>
       <c r="BO345">
-        <v>15.32258064516129</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="346" spans="1:67">
@@ -73273,10 +73270,10 @@
         <v>0.5231689088191329</v>
       </c>
       <c r="BN346">
-        <v>1.933701657458563</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO346">
-        <v>5.64516129032258</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="347" spans="1:67">
@@ -73476,10 +73473,10 @@
         <v>13.75186846038864</v>
       </c>
       <c r="BN347">
-        <v>50.82872928176795</v>
+        <v>16.02209944751381</v>
       </c>
       <c r="BO347">
-        <v>148.3870967741935</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="348" spans="1:67">
@@ -73679,10 +73676,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BN348">
-        <v>27.90055248618784</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO348">
-        <v>81.45161290322579</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="349" spans="1:67">
@@ -73882,10 +73879,10 @@
         <v>8.295964125560538</v>
       </c>
       <c r="BN349">
-        <v>30.66298342541436</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO349">
-        <v>89.51612903225806</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="350" spans="1:67">
@@ -74082,10 +74079,10 @@
         <v>0.3736920777279522</v>
       </c>
       <c r="BN350">
-        <v>1.38121546961326</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO350">
-        <v>4.032258064516129</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="351" spans="1:67">
@@ -74282,10 +74279,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BN351">
-        <v>33.42541436464088</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO351">
-        <v>97.58064516129032</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="352" spans="1:67">
@@ -74479,10 +74476,10 @@
         <v>-8.66965620328849</v>
       </c>
       <c r="BN352">
-        <v>-32.04419889502762</v>
+        <v>0</v>
       </c>
       <c r="BO352">
-        <v>-93.54838709677419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:67">
@@ -74676,10 +74673,10 @@
         <v>-11.13602391629297</v>
       </c>
       <c r="BN353">
-        <v>-41.16022099447514</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO353">
-        <v>-120.1612903225807</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="354" spans="1:67">
@@ -74879,10 +74876,10 @@
         <v>6.502242152466367</v>
       </c>
       <c r="BN354">
-        <v>24.03314917127071</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO354">
-        <v>70.16129032258064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:67">
@@ -75079,10 +75076,10 @@
         <v>-5.381165919282511</v>
       </c>
       <c r="BN355">
-        <v>-19.88950276243094</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO355">
-        <v>-58.06451612903226</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="356" spans="1:67">
@@ -75282,10 +75279,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BN356">
-        <v>37.01657458563536</v>
+        <v>8.011049723756905</v>
       </c>
       <c r="BO356">
-        <v>108.0645161290323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:67">
@@ -75485,10 +75482,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BN357">
-        <v>30.11049723756906</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO357">
-        <v>87.90322580645162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:67">
@@ -75685,10 +75682,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BN358">
-        <v>36.46408839779005</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO358">
-        <v>106.4516129032258</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="359" spans="1:67">
@@ -75885,10 +75882,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN359">
-        <v>31.21546961325967</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO359">
-        <v>91.12903225806453</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="360" spans="1:67">
@@ -76088,10 +76085,10 @@
         <v>5.30642750373692</v>
       </c>
       <c r="BN360">
-        <v>19.61325966850828</v>
+        <v>-1.38121546961326</v>
       </c>
       <c r="BO360">
-        <v>57.25806451612902</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="361" spans="1:67">
@@ -76291,10 +76288,10 @@
         <v>12.40657698056801</v>
       </c>
       <c r="BN361">
-        <v>45.85635359116022</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BO361">
-        <v>133.8709677419355</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="362" spans="1:67">
@@ -76494,10 +76491,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BN362">
-        <v>39.50276243093923</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO362">
-        <v>115.3225806451613</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="363" spans="1:67">
@@ -76697,10 +76694,10 @@
         <v>13.37817638266069</v>
       </c>
       <c r="BN363">
-        <v>49.44751381215469</v>
+        <v>12.15469613259669</v>
       </c>
       <c r="BO363">
-        <v>144.3548387096774</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="364" spans="1:67">
@@ -76900,10 +76897,10 @@
         <v>15.09715994020926</v>
       </c>
       <c r="BN364">
-        <v>55.80110497237568</v>
+        <v>9.392265193370166</v>
       </c>
       <c r="BO364">
-        <v>162.9032258064516</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="365" spans="1:67">
@@ -77103,10 +77100,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BN365">
-        <v>35.63535911602209</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BO365">
-        <v>104.0322580645161</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="366" spans="1:67">
@@ -77303,10 +77300,10 @@
         <v>7.324364723467862</v>
       </c>
       <c r="BN366">
-        <v>27.07182320441989</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO366">
-        <v>79.03225806451614</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="367" spans="1:67">
@@ -77506,10 +77503,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN367">
-        <v>46.13259668508287</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO367">
-        <v>134.6774193548387</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="368" spans="1:67">
@@ -77706,10 +77703,10 @@
         <v>7.24962630792227</v>
       </c>
       <c r="BN368">
-        <v>26.79558011049724</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO368">
-        <v>78.2258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:67">
@@ -77909,10 +77906,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BN369">
-        <v>41.98895027624309</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO369">
-        <v>122.5806451612903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:67">
@@ -78112,10 +78109,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN370">
-        <v>38.39779005524861</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO370">
-        <v>112.0967741935484</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="371" spans="1:67">
@@ -78315,10 +78312,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN371">
-        <v>31.21546961325967</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO371">
-        <v>91.12903225806453</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="372" spans="1:67">
@@ -78515,10 +78512,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BN372">
-        <v>24.30939226519337</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO372">
-        <v>70.96774193548387</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="373" spans="1:67">
@@ -78718,10 +78715,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BN373">
-        <v>27.62430939226519</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO373">
-        <v>80.64516129032258</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="374" spans="1:67">
@@ -78921,10 +78918,10 @@
         <v>16.3677130044843</v>
       </c>
       <c r="BN374">
-        <v>60.49723756906077</v>
+        <v>17.67955801104972</v>
       </c>
       <c r="BO374">
-        <v>176.6129032258064</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="375" spans="1:67">
@@ -79124,10 +79121,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BN375">
-        <v>37.29281767955801</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO375">
-        <v>108.8709677419355</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="376" spans="1:67">
@@ -79327,10 +79324,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BN376">
-        <v>40.60773480662983</v>
+        <v>9.94475138121547</v>
       </c>
       <c r="BO376">
-        <v>118.5483870967742</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="377" spans="1:67">
@@ -79530,10 +79527,10 @@
         <v>13.45291479820628</v>
       </c>
       <c r="BN377">
-        <v>49.72375690607734</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BO377">
-        <v>145.1612903225806</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="378" spans="1:67">
@@ -79733,10 +79730,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BN378">
-        <v>40.60773480662983</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BO378">
-        <v>118.5483870967742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:67">
@@ -79936,10 +79933,10 @@
         <v>15.09715994020926</v>
       </c>
       <c r="BN379">
-        <v>55.80110497237568</v>
+        <v>11.32596685082873</v>
       </c>
       <c r="BO379">
-        <v>162.9032258064516</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="380" spans="1:67">
@@ -80139,10 +80136,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BN380">
-        <v>33.42541436464088</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO380">
-        <v>97.58064516129032</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="381" spans="1:67">
@@ -80336,10 +80333,10 @@
         <v>-6.576980568011958</v>
       </c>
       <c r="BN381">
-        <v>-24.30939226519337</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO381">
-        <v>-70.96774193548387</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="382" spans="1:67">
@@ -80539,10 +80536,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BN382">
-        <v>30.38674033149171</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO382">
-        <v>88.70967741935483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:67">
@@ -80742,10 +80739,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BN383">
-        <v>26.24309392265193</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO383">
-        <v>76.61290322580645</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="384" spans="1:67">
@@ -80945,10 +80942,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BN384">
-        <v>41.98895027624309</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO384">
-        <v>122.5806451612903</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="385" spans="1:67">
@@ -81148,10 +81145,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN385">
-        <v>37.84530386740331</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BO385">
-        <v>110.4838709677419</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="386" spans="1:67">
@@ -81351,10 +81348,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN386">
-        <v>36.1878453038674</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BO386">
-        <v>105.6451612903226</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="387" spans="1:67">
@@ -81554,10 +81551,10 @@
         <v>11.95814648729447</v>
       </c>
       <c r="BN387">
-        <v>44.19889502762431</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO387">
-        <v>129.0322580645161</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="388" spans="1:67">
@@ -81757,10 +81754,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BN388">
-        <v>41.43646408839778</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BO388">
-        <v>120.9677419354839</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="389" spans="1:67">
@@ -81960,10 +81957,10 @@
         <v>12.70553064275037</v>
       </c>
       <c r="BN389">
-        <v>46.96132596685082</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BO389">
-        <v>137.0967741935484</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="390" spans="1:67">
@@ -82163,10 +82160,10 @@
         <v>15.54559043348281</v>
       </c>
       <c r="BN390">
-        <v>57.4585635359116</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BO390">
-        <v>167.741935483871</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="391" spans="1:67">
@@ -82366,10 +82363,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN391">
-        <v>46.13259668508287</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO391">
-        <v>134.6774193548387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:67">
@@ -82569,10 +82566,10 @@
         <v>14.64872944693572</v>
       </c>
       <c r="BN392">
-        <v>54.14364640883977</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BO392">
-        <v>158.0645161290323</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="393" spans="1:67">
@@ -82769,10 +82766,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BN393">
-        <v>37.29281767955801</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO393">
-        <v>108.8709677419355</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="394" spans="1:67">
@@ -82972,10 +82969,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BN394">
-        <v>36.74033149171271</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO394">
-        <v>107.258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:67">
@@ -83175,10 +83172,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BN395">
-        <v>28.17679558011049</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO395">
-        <v>82.25806451612902</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="396" spans="1:67">
@@ -83372,10 +83369,10 @@
         <v>7.997010463378175</v>
       </c>
       <c r="BN396">
-        <v>29.55801104972375</v>
+        <v>0</v>
       </c>
       <c r="BO396">
-        <v>86.29032258064515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:67">
@@ -83575,10 +83572,10 @@
         <v>12.70553064275037</v>
       </c>
       <c r="BN397">
-        <v>46.96132596685082</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO397">
-        <v>137.0967741935484</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="398" spans="1:67">
@@ -83778,10 +83775,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BN398">
-        <v>34.80662983425414</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO398">
-        <v>101.6129032258064</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="399" spans="1:67">
@@ -83978,10 +83975,10 @@
         <v>12.10762331838565</v>
       </c>
       <c r="BN399">
-        <v>44.75138121546961</v>
+        <v>9.94475138121547</v>
       </c>
       <c r="BO399">
-        <v>130.6451612903226</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="400" spans="1:67">
@@ -84178,10 +84175,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN400">
-        <v>43.92265193370166</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BO400">
-        <v>128.2258064516129</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="401" spans="1:67">
@@ -84381,10 +84378,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN401">
-        <v>46.13259668508287</v>
+        <v>13.81215469613259</v>
       </c>
       <c r="BO401">
-        <v>134.6774193548387</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="402" spans="1:67">
@@ -84584,10 +84581,10 @@
         <v>5.156950672645739</v>
       </c>
       <c r="BN402">
-        <v>19.06077348066298</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO402">
-        <v>55.64516129032258</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="403" spans="1:67">
@@ -84787,10 +84784,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BN403">
-        <v>36.46408839779005</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BO403">
-        <v>106.4516129032258</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="404" spans="1:67">
@@ -84990,10 +84987,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BN404">
-        <v>26.24309392265193</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO404">
-        <v>76.61290322580645</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="405" spans="1:67">
@@ -85187,10 +85184,10 @@
         <v>1.420029895366218</v>
       </c>
       <c r="BN405">
-        <v>5.248618784530386</v>
+        <v>0</v>
       </c>
       <c r="BO405">
-        <v>15.32258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:67">
@@ -85387,10 +85384,10 @@
         <v>12.70553064275037</v>
       </c>
       <c r="BN406">
-        <v>46.96132596685082</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BO406">
-        <v>137.0967741935484</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="407" spans="1:67">
@@ -85590,10 +85587,10 @@
         <v>14.57399103139013</v>
       </c>
       <c r="BN407">
-        <v>53.86740331491713</v>
+        <v>9.94475138121547</v>
       </c>
       <c r="BO407">
-        <v>157.258064516129</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="408" spans="1:67">
@@ -85793,10 +85790,10 @@
         <v>19.65620328849028</v>
       </c>
       <c r="BN408">
-        <v>72.65193370165746</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO408">
-        <v>212.0967741935484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:67">
@@ -85996,10 +85993,10 @@
         <v>5.23168908819133</v>
       </c>
       <c r="BN409">
-        <v>19.33701657458563</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO409">
-        <v>56.4516129032258</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="410" spans="1:67">
@@ -86199,10 +86196,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BN410">
-        <v>46.68508287292817</v>
+        <v>13.25966850828729</v>
       </c>
       <c r="BO410">
-        <v>136.2903225806452</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="411" spans="1:67">
@@ -86402,10 +86399,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN411">
-        <v>31.76795580110497</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO411">
-        <v>92.74193548387096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:67">
@@ -86602,10 +86599,10 @@
         <v>4.857997010463378</v>
       </c>
       <c r="BN412">
-        <v>17.95580110497237</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO412">
-        <v>52.41935483870967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:67">
@@ -86805,10 +86802,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BN413">
-        <v>35.35911602209944</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO413">
-        <v>103.2258064516129</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="414" spans="1:67">
@@ -87005,10 +87002,10 @@
         <v>56.87593423019431</v>
       </c>
       <c r="BN414">
-        <v>210.2209944751381</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO414">
-        <v>613.7096774193548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:67">
@@ -87205,10 +87202,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BN415">
-        <v>25.96685082872928</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO415">
-        <v>75.80645161290323</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="416" spans="1:67">
@@ -87408,10 +87405,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BN416">
-        <v>43.64640883977901</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BO416">
-        <v>127.4193548387097</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="417" spans="1:67">
@@ -87611,10 +87608,10 @@
         <v>11.50971599402093</v>
       </c>
       <c r="BN417">
-        <v>42.54143646408839</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO417">
-        <v>124.1935483870968</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="418" spans="1:67">
@@ -87811,10 +87808,10 @@
         <v>-11.06128550074738</v>
       </c>
       <c r="BN418">
-        <v>-40.88397790055249</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO418">
-        <v>-119.3548387096774</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="419" spans="1:67">
@@ -88014,10 +88011,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BN419">
-        <v>41.98895027624309</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO419">
-        <v>122.5806451612903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:67">
@@ -88217,10 +88214,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BN420">
-        <v>28.7292817679558</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO420">
-        <v>83.87096774193549</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="421" spans="1:67">
@@ -88402,10 +88399,7 @@
         <v>18.23617339312406</v>
       </c>
       <c r="BN421">
-        <v>67.40331491712706</v>
-      </c>
-      <c r="BO421">
-        <v>196.7741935483871</v>
+        <v>12.70718232044199</v>
       </c>
     </row>
     <row r="422" spans="1:67">
@@ -88605,10 +88599,10 @@
         <v>7.997010463378175</v>
       </c>
       <c r="BN422">
-        <v>29.55801104972375</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO422">
-        <v>86.29032258064515</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="423" spans="1:67">
@@ -88805,10 +88799,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BN423">
-        <v>33.70165745856353</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO423">
-        <v>98.38709677419354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:67">
@@ -89005,10 +88999,10 @@
         <v>5.530642750373691</v>
       </c>
       <c r="BN424">
-        <v>20.44198895027624</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO424">
-        <v>59.67741935483871</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="425" spans="1:67">
@@ -89208,10 +89202,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BN425">
-        <v>35.35911602209944</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BO425">
-        <v>103.2258064516129</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="426" spans="1:67">
@@ -89411,10 +89405,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BN426">
-        <v>40.05524861878452</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO426">
-        <v>116.9354838709677</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="427" spans="1:67">
@@ -89611,10 +89605,10 @@
         <v>13.60239162929746</v>
       </c>
       <c r="BN427">
-        <v>50.27624309392264</v>
+        <v>13.25966850828729</v>
       </c>
       <c r="BO427">
-        <v>146.7741935483871</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="428" spans="1:67">
@@ -89808,10 +89802,10 @@
         <v>-4.857997010463378</v>
       </c>
       <c r="BN428">
-        <v>-17.95580110497237</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO428">
-        <v>-52.41935483870967</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="429" spans="1:67">
@@ -90008,10 +90002,10 @@
         <v>-5.680119581464872</v>
       </c>
       <c r="BN429">
-        <v>-20.99447513812154</v>
+        <v>0</v>
       </c>
       <c r="BO429">
-        <v>-61.29032258064515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:67">
@@ -90208,10 +90202,10 @@
         <v>5.455904334828101</v>
       </c>
       <c r="BN430">
-        <v>20.16574585635359</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO430">
-        <v>58.87096774193547</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="431" spans="1:67">
@@ -90408,10 +90402,10 @@
         <v>25.26158445440957</v>
       </c>
       <c r="BN431">
-        <v>93.37016574585634</v>
+        <v>0</v>
       </c>
       <c r="BO431">
-        <v>272.5806451612903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:67">
@@ -90608,10 +90602,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BN432">
-        <v>24.30939226519337</v>
+        <v>0</v>
       </c>
       <c r="BO432">
-        <v>70.96774193548387</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="433" spans="1:67">
@@ -90811,10 +90805,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BN433">
-        <v>45.02762430939226</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BO433">
-        <v>131.4516129032258</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="434" spans="1:67">
@@ -91014,10 +91008,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BN434">
-        <v>40.60773480662983</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BO434">
-        <v>118.5483870967742</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="435" spans="1:67">
@@ -91217,10 +91211,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BN435">
-        <v>43.0939226519337</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BO435">
-        <v>125.8064516129032</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="436" spans="1:67">
@@ -91414,10 +91408,10 @@
         <v>3.139013452914798</v>
       </c>
       <c r="BN436">
-        <v>11.60220994475138</v>
+        <v>0</v>
       </c>
       <c r="BO436">
-        <v>33.87096774193549</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="437" spans="1:67">
@@ -91590,10 +91584,7 @@
         <v>-3.213751868460388</v>
       </c>
       <c r="BN437">
-        <v>-11.87845303867403</v>
-      </c>
-      <c r="BO437">
-        <v>-34.6774193548387</v>
+        <v>-32.59668508287293</v>
       </c>
     </row>
     <row r="438" spans="1:67">
@@ -91790,10 +91781,10 @@
         <v>-10.83707025411061</v>
       </c>
       <c r="BN438">
-        <v>-40.05524861878452</v>
+        <v>0</v>
       </c>
       <c r="BO438">
-        <v>-116.9354838709677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:67">
@@ -91993,10 +91984,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BN439">
-        <v>38.95027624309392</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO439">
-        <v>113.7096774193548</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="440" spans="1:67">
@@ -92196,10 +92187,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BN440">
-        <v>40.60773480662983</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO440">
-        <v>118.5483870967742</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="441" spans="1:67">
@@ -92399,10 +92390,10 @@
         <v>23.3931240657698</v>
       </c>
       <c r="BN441">
-        <v>86.46408839779005</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO441">
-        <v>252.4193548387097</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/1999/Master_1999.xlsx
+++ b/Resources/1999/Master_1999.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="506">
   <si>
     <t>PID</t>
   </si>
@@ -208,16 +208,10 @@
     <t>2ndRK</t>
   </si>
   <si>
-    <t>BPercentile_x</t>
-  </si>
-  <si>
-    <t>APercentile_x</t>
-  </si>
-  <si>
-    <t>BPercentile_y</t>
-  </si>
-  <si>
-    <t>APercentile_y</t>
+    <t>BPercentile</t>
+  </si>
+  <si>
+    <t>APercentile</t>
   </si>
   <si>
     <t>abdulta01</t>
@@ -1895,13 +1889,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ208"/>
+  <dimension ref="A1:BO208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:67">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2100,31 +2094,25 @@
       <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:67">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:69">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E2">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G2">
         <v>1411000</v>
@@ -2304,36 +2292,30 @@
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>159.4</v>
+        <v>55.2657004830918</v>
       </c>
       <c r="BO2">
-        <v>275.4</v>
-      </c>
-      <c r="BP2">
-        <v>55.2657004830918</v>
-      </c>
-      <c r="BQ2">
         <v>34.58937198067633</v>
       </c>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:67">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E3">
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G3">
         <v>1273000</v>
@@ -2513,36 +2495,30 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>139</v>
+        <v>59.80676328502415</v>
       </c>
       <c r="BO3">
-        <v>117.4</v>
-      </c>
-      <c r="BP3">
-        <v>59.80676328502415</v>
-      </c>
-      <c r="BQ3">
         <v>73.04347826086955</v>
       </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:67">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E4">
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G4">
         <v>5845000</v>
@@ -2722,36 +2698,30 @@
         <v>0</v>
       </c>
       <c r="BN4">
-        <v>137.4</v>
+        <v>61.35265700483091</v>
       </c>
       <c r="BO4">
-        <v>147.6</v>
-      </c>
-      <c r="BP4">
-        <v>61.35265700483091</v>
-      </c>
-      <c r="BQ4">
         <v>65.79710144927535</v>
       </c>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:67">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E5">
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G5">
         <v>3200000</v>
@@ -2931,36 +2901,30 @@
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>101.6</v>
+        <v>73.42995169082126</v>
       </c>
       <c r="BO5">
-        <v>129.6</v>
-      </c>
-      <c r="BP5">
-        <v>73.42995169082126</v>
-      </c>
-      <c r="BQ5">
         <v>70.53140096618358</v>
       </c>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:67">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E6">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G6">
         <v>1300000</v>
@@ -3140,36 +3104,30 @@
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>201</v>
+        <v>40.57971014492754</v>
       </c>
       <c r="BO6">
-        <v>183.8</v>
-      </c>
-      <c r="BP6">
-        <v>40.57971014492754</v>
-      </c>
-      <c r="BQ6">
         <v>55.2657004830918</v>
       </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:67">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E7">
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G7">
         <v>985200</v>
@@ -3349,36 +3307,30 @@
         <v>0</v>
       </c>
       <c r="BN7">
-        <v>258.8</v>
+        <v>28.79227053140097</v>
       </c>
       <c r="BO7">
-        <v>314.4</v>
-      </c>
-      <c r="BP7">
-        <v>28.79227053140097</v>
-      </c>
-      <c r="BQ7">
         <v>22.80193236714976</v>
       </c>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:67">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G8">
         <v>2900000</v>
@@ -3558,36 +3510,30 @@
         <v>0</v>
       </c>
       <c r="BN8">
-        <v>103.8</v>
+        <v>69.56521739130434</v>
       </c>
       <c r="BO8">
-        <v>37.8</v>
-      </c>
-      <c r="BP8">
-        <v>69.56521739130434</v>
-      </c>
-      <c r="BQ8">
         <v>94.20289855072464</v>
       </c>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:67">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E9">
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G9">
         <v>725000</v>
@@ -3767,36 +3713,30 @@
         <v>0</v>
       </c>
       <c r="BN9">
-        <v>306</v>
+        <v>12.56038647342995</v>
       </c>
       <c r="BO9">
-        <v>357</v>
-      </c>
-      <c r="BP9">
-        <v>12.56038647342995</v>
-      </c>
-      <c r="BQ9">
         <v>12.07729468599034</v>
       </c>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:67">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E10">
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G10">
         <v>5000000</v>
@@ -3976,27 +3916,21 @@
         <v>0</v>
       </c>
       <c r="BN10">
-        <v>108.8</v>
+        <v>67.6328502415459</v>
       </c>
       <c r="BO10">
-        <v>231.2</v>
-      </c>
-      <c r="BP10">
-        <v>67.6328502415459</v>
-      </c>
-      <c r="BQ10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:67">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -4005,7 +3939,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G11">
         <v>850000</v>
@@ -4185,36 +4119,30 @@
         <v>0</v>
       </c>
       <c r="BN11">
-        <v>241.2</v>
+        <v>29.7584541062802</v>
       </c>
       <c r="BO11">
-        <v>244</v>
-      </c>
-      <c r="BP11">
-        <v>29.7584541062802</v>
-      </c>
-      <c r="BQ11">
         <v>40.57971014492754</v>
       </c>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:67">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E12">
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G12">
         <v>3500000</v>
@@ -4394,36 +4322,30 @@
         <v>0</v>
       </c>
       <c r="BN12">
-        <v>165.2</v>
+        <v>52.36714975845411</v>
       </c>
       <c r="BO12">
-        <v>103.2</v>
-      </c>
-      <c r="BP12">
-        <v>52.36714975845411</v>
-      </c>
-      <c r="BQ12">
         <v>78.64734299516908</v>
       </c>
     </row>
-    <row r="13" spans="1:69">
+    <row r="13" spans="1:67">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E13">
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G13">
         <v>3600000</v>
@@ -4603,36 +4525,30 @@
         <v>0</v>
       </c>
       <c r="BN13">
-        <v>116</v>
+        <v>68.01932367149759</v>
       </c>
       <c r="BO13">
-        <v>196.6</v>
-      </c>
-      <c r="BP13">
-        <v>68.01932367149759</v>
-      </c>
-      <c r="BQ13">
         <v>52.36714975845411</v>
       </c>
     </row>
-    <row r="14" spans="1:69">
+    <row r="14" spans="1:67">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E14">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G14">
         <v>600000</v>
@@ -4812,36 +4728,30 @@
         <v>0</v>
       </c>
       <c r="BN14">
-        <v>185</v>
+        <v>43.57487922705315</v>
       </c>
       <c r="BO14">
-        <v>133.6</v>
-      </c>
-      <c r="BP14">
-        <v>43.57487922705315</v>
-      </c>
-      <c r="BQ14">
         <v>69.66183574879227</v>
       </c>
     </row>
-    <row r="15" spans="1:69">
+    <row r="15" spans="1:67">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E15">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G15">
         <v>2238000</v>
@@ -5021,36 +4931,30 @@
         <v>0</v>
       </c>
       <c r="BN15">
-        <v>145.4</v>
+        <v>56.71497584541063</v>
       </c>
       <c r="BO15">
-        <v>152.6</v>
-      </c>
-      <c r="BP15">
-        <v>56.71497584541063</v>
-      </c>
-      <c r="BQ15">
         <v>65.70048309178745</v>
       </c>
     </row>
-    <row r="16" spans="1:69">
+    <row r="16" spans="1:67">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E16">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G16">
         <v>540000</v>
@@ -5230,36 +5134,30 @@
         <v>0</v>
       </c>
       <c r="BN16">
-        <v>288</v>
+        <v>20.19323671497584</v>
       </c>
       <c r="BO16">
-        <v>319.4</v>
-      </c>
-      <c r="BP16">
-        <v>20.19323671497584</v>
-      </c>
-      <c r="BQ16">
         <v>22.41545893719806</v>
       </c>
     </row>
-    <row r="17" spans="1:69">
+    <row r="17" spans="1:67">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E17">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G17">
         <v>2742000</v>
@@ -5439,36 +5337,30 @@
         <v>0</v>
       </c>
       <c r="BN17">
-        <v>122.2</v>
+        <v>65.60386473429952</v>
       </c>
       <c r="BO17">
-        <v>148.2</v>
-      </c>
-      <c r="BP17">
-        <v>65.60386473429952</v>
-      </c>
-      <c r="BQ17">
         <v>65.41062801932367</v>
       </c>
     </row>
-    <row r="18" spans="1:69">
+    <row r="18" spans="1:67">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E18">
         <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G18">
         <v>3600000</v>
@@ -5648,36 +5540,30 @@
         <v>0</v>
       </c>
       <c r="BN18">
-        <v>96.40000000000001</v>
+        <v>74.78260869565217</v>
       </c>
       <c r="BO18">
-        <v>128.6</v>
-      </c>
-      <c r="BP18">
-        <v>74.78260869565217</v>
-      </c>
-      <c r="BQ18">
         <v>70.53140096618358</v>
       </c>
     </row>
-    <row r="19" spans="1:69">
+    <row r="19" spans="1:67">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E19">
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G19">
         <v>2800000</v>
@@ -5857,36 +5743,30 @@
         <v>0</v>
       </c>
       <c r="BN19">
-        <v>199.8</v>
+        <v>45.12077294685991</v>
       </c>
       <c r="BO19">
-        <v>179.4</v>
-      </c>
-      <c r="BP19">
-        <v>45.12077294685991</v>
-      </c>
-      <c r="BQ19">
         <v>57.77777777777777</v>
       </c>
     </row>
-    <row r="20" spans="1:69">
+    <row r="20" spans="1:67">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E20">
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G20">
         <v>687240</v>
@@ -6066,36 +5946,30 @@
         <v>0</v>
       </c>
       <c r="BN20">
-        <v>239.4</v>
+        <v>35.36231884057971</v>
       </c>
       <c r="BO20">
-        <v>341.2</v>
-      </c>
-      <c r="BP20">
-        <v>35.36231884057971</v>
-      </c>
-      <c r="BQ20">
         <v>18.55072463768116</v>
       </c>
     </row>
-    <row r="21" spans="1:69">
+    <row r="21" spans="1:67">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E21">
         <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G21">
         <v>507000</v>
@@ -6275,36 +6149,30 @@
         <v>0</v>
       </c>
       <c r="BN21">
-        <v>244.6</v>
+        <v>30.53140096618358</v>
       </c>
       <c r="BO21">
-        <v>386</v>
-      </c>
-      <c r="BP21">
-        <v>30.53140096618358</v>
-      </c>
-      <c r="BQ21">
         <v>6.570048309178745</v>
       </c>
     </row>
-    <row r="22" spans="1:69">
+    <row r="22" spans="1:67">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E22">
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G22">
         <v>6750000</v>
@@ -6484,27 +6352,21 @@
         <v>0</v>
       </c>
       <c r="BN22">
-        <v>124.4</v>
+        <v>61.35265700483091</v>
       </c>
       <c r="BO22">
-        <v>115.8</v>
-      </c>
-      <c r="BP22">
-        <v>61.35265700483091</v>
-      </c>
-      <c r="BQ22">
         <v>75.45893719806763</v>
       </c>
     </row>
-    <row r="23" spans="1:69">
+    <row r="23" spans="1:67">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
@@ -6513,7 +6375,7 @@
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G23">
         <v>4480000</v>
@@ -6690,36 +6552,30 @@
         <v>0</v>
       </c>
       <c r="BN23">
-        <v>201.2</v>
+        <v>60.28985507246377</v>
       </c>
       <c r="BO23">
-        <v>117.4</v>
-      </c>
-      <c r="BP23">
-        <v>60.28985507246377</v>
-      </c>
-      <c r="BQ23">
         <v>75.26570048309179</v>
       </c>
     </row>
-    <row r="24" spans="1:69">
+    <row r="24" spans="1:67">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E24">
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G24">
         <v>1320000</v>
@@ -6899,36 +6755,30 @@
         <v>0</v>
       </c>
       <c r="BN24">
-        <v>127.2</v>
+        <v>63.47826086956522</v>
       </c>
       <c r="BO24">
-        <v>251</v>
-      </c>
-      <c r="BP24">
-        <v>63.47826086956522</v>
-      </c>
-      <c r="BQ24">
         <v>35.45893719806764</v>
       </c>
     </row>
-    <row r="25" spans="1:69">
+    <row r="25" spans="1:67">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E25">
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G25">
         <v>1319000</v>
@@ -7108,27 +6958,21 @@
         <v>0</v>
       </c>
       <c r="BN25">
-        <v>47</v>
+        <v>85.50724637681159</v>
       </c>
       <c r="BO25">
-        <v>60.6</v>
-      </c>
-      <c r="BP25">
-        <v>85.50724637681159</v>
-      </c>
-      <c r="BQ25">
         <v>89.08212560386474</v>
       </c>
     </row>
-    <row r="26" spans="1:69">
+    <row r="26" spans="1:67">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
@@ -7137,7 +6981,7 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G26">
         <v>2050000</v>
@@ -7317,36 +7161,30 @@
         <v>0</v>
       </c>
       <c r="BN26">
-        <v>154.8</v>
+        <v>55.3623188405797</v>
       </c>
       <c r="BO26">
-        <v>259.6</v>
-      </c>
-      <c r="BP26">
-        <v>55.3623188405797</v>
-      </c>
-      <c r="BQ26">
         <v>38.26086956521739</v>
       </c>
     </row>
-    <row r="27" spans="1:69">
+    <row r="27" spans="1:67">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D27" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E27">
         <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G27">
         <v>850000</v>
@@ -7526,36 +7364,30 @@
         <v>0</v>
       </c>
       <c r="BN27">
-        <v>211.2</v>
+        <v>40.96618357487923</v>
       </c>
       <c r="BO27">
-        <v>177.4</v>
-      </c>
-      <c r="BP27">
-        <v>40.96618357487923</v>
-      </c>
-      <c r="BQ27">
         <v>58.06763285024154</v>
       </c>
     </row>
-    <row r="28" spans="1:69">
+    <row r="28" spans="1:67">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D28" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E28">
         <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G28">
         <v>1000000</v>
@@ -7735,36 +7567,30 @@
         <v>0</v>
       </c>
       <c r="BN28">
-        <v>156.8</v>
+        <v>55.84541062801932</v>
       </c>
       <c r="BO28">
-        <v>238.8</v>
-      </c>
-      <c r="BP28">
-        <v>55.84541062801932</v>
-      </c>
-      <c r="BQ28">
         <v>40.57971014492754</v>
       </c>
     </row>
-    <row r="29" spans="1:69">
+    <row r="29" spans="1:67">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D29" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G29">
         <v>537500</v>
@@ -7944,27 +7770,21 @@
         <v>0</v>
       </c>
       <c r="BN29">
-        <v>272.6</v>
+        <v>23.18840579710145</v>
       </c>
       <c r="BO29">
-        <v>195</v>
-      </c>
-      <c r="BP29">
-        <v>23.18840579710145</v>
-      </c>
-      <c r="BQ29">
         <v>51.59420289855072</v>
       </c>
     </row>
-    <row r="30" spans="1:69">
+    <row r="30" spans="1:67">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
@@ -7973,7 +7793,7 @@
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G30">
         <v>3675000</v>
@@ -8153,36 +7973,30 @@
         <v>0</v>
       </c>
       <c r="BN30">
-        <v>184.4</v>
+        <v>47.72946859903382</v>
       </c>
       <c r="BO30">
-        <v>300.8</v>
-      </c>
-      <c r="BP30">
-        <v>47.72946859903382</v>
-      </c>
-      <c r="BQ30">
         <v>26.3768115942029</v>
       </c>
     </row>
-    <row r="31" spans="1:69">
+    <row r="31" spans="1:67">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D31" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E31">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G31">
         <v>3164000</v>
@@ -8359,36 +8173,30 @@
         <v>0</v>
       </c>
       <c r="BN31">
-        <v>224.8</v>
+        <v>56.61835748792271</v>
       </c>
       <c r="BO31">
-        <v>117.4</v>
-      </c>
-      <c r="BP31">
-        <v>56.61835748792271</v>
-      </c>
-      <c r="BQ31">
         <v>74.39613526570048</v>
       </c>
     </row>
-    <row r="32" spans="1:69">
+    <row r="32" spans="1:67">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D32" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E32">
         <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G32">
         <v>287500</v>
@@ -8568,36 +8376,30 @@
         <v>0</v>
       </c>
       <c r="BN32">
-        <v>247.6</v>
+        <v>27.72946859903381</v>
       </c>
       <c r="BO32">
-        <v>357.8</v>
-      </c>
-      <c r="BP32">
-        <v>27.72946859903381</v>
-      </c>
-      <c r="BQ32">
         <v>14.39613526570048</v>
       </c>
     </row>
-    <row r="33" spans="1:69">
+    <row r="33" spans="1:67">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D33" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E33">
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G33">
         <v>750000</v>
@@ -8777,36 +8579,30 @@
         <v>0</v>
       </c>
       <c r="BN33">
-        <v>161</v>
+        <v>55.07246376811595</v>
       </c>
       <c r="BO33">
-        <v>201.2</v>
-      </c>
-      <c r="BP33">
-        <v>55.07246376811595</v>
-      </c>
-      <c r="BQ33">
         <v>52.36714975845411</v>
       </c>
     </row>
-    <row r="34" spans="1:69">
+    <row r="34" spans="1:67">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D34" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E34">
         <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G34">
         <v>2800000</v>
@@ -8986,36 +8782,30 @@
         <v>0</v>
       </c>
       <c r="BN34">
-        <v>154.4</v>
+        <v>57.00483091787439</v>
       </c>
       <c r="BO34">
-        <v>288.4</v>
-      </c>
-      <c r="BP34">
-        <v>57.00483091787439</v>
-      </c>
-      <c r="BQ34">
         <v>29.7584541062802</v>
       </c>
     </row>
-    <row r="35" spans="1:69">
+    <row r="35" spans="1:67">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D35" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E35">
         <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G35">
         <v>4000000</v>
@@ -9195,36 +8985,30 @@
         <v>0</v>
       </c>
       <c r="BN35">
-        <v>182.2</v>
+        <v>47.53623188405797</v>
       </c>
       <c r="BO35">
-        <v>344.4</v>
-      </c>
-      <c r="BP35">
-        <v>47.53623188405797</v>
-      </c>
-      <c r="BQ35">
         <v>15.65217391304348</v>
       </c>
     </row>
-    <row r="36" spans="1:69">
+    <row r="36" spans="1:67">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D36" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E36">
         <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G36">
         <v>3640000</v>
@@ -9404,36 +9188,30 @@
         <v>0</v>
       </c>
       <c r="BN36">
-        <v>192.4</v>
+        <v>46.76328502415459</v>
       </c>
       <c r="BO36">
-        <v>200.6</v>
-      </c>
-      <c r="BP36">
-        <v>46.76328502415459</v>
-      </c>
-      <c r="BQ36">
         <v>51.20772946859904</v>
       </c>
     </row>
-    <row r="37" spans="1:69">
+    <row r="37" spans="1:67">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E37">
         <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G37">
         <v>1000000</v>
@@ -9613,36 +9391,30 @@
         <v>0</v>
       </c>
       <c r="BN37">
-        <v>218.6</v>
+        <v>35.16908212560386</v>
       </c>
       <c r="BO37">
-        <v>311</v>
-      </c>
-      <c r="BP37">
-        <v>35.16908212560386</v>
-      </c>
-      <c r="BQ37">
         <v>22.51207729468599</v>
       </c>
     </row>
-    <row r="38" spans="1:69">
+    <row r="38" spans="1:67">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D38" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E38">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G38">
         <v>2000000</v>
@@ -9822,36 +9594,30 @@
         <v>0</v>
       </c>
       <c r="BN38">
-        <v>156</v>
+        <v>56.32850241545894</v>
       </c>
       <c r="BO38">
-        <v>183</v>
-      </c>
-      <c r="BP38">
-        <v>56.32850241545894</v>
-      </c>
-      <c r="BQ38">
         <v>56.23188405797102</v>
       </c>
     </row>
-    <row r="39" spans="1:69">
+    <row r="39" spans="1:67">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E39">
         <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G39">
         <v>2400000</v>
@@ -10031,27 +9797,21 @@
         <v>0</v>
       </c>
       <c r="BN39">
-        <v>216.6</v>
+        <v>38.35748792270532</v>
       </c>
       <c r="BO39">
-        <v>227.2</v>
-      </c>
-      <c r="BP39">
-        <v>38.35748792270532</v>
-      </c>
-      <c r="BQ39">
         <v>43.09178743961353</v>
       </c>
     </row>
-    <row r="40" spans="1:69">
+    <row r="40" spans="1:67">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -10060,7 +9820,7 @@
         <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G40">
         <v>350000</v>
@@ -10240,27 +10000,21 @@
         <v>0</v>
       </c>
       <c r="BN40">
-        <v>259.2</v>
+        <v>29.7584541062802</v>
       </c>
       <c r="BO40">
-        <v>253.2</v>
-      </c>
-      <c r="BP40">
-        <v>29.7584541062802</v>
-      </c>
-      <c r="BQ40">
         <v>39.51690821256039</v>
       </c>
     </row>
-    <row r="41" spans="1:69">
+    <row r="41" spans="1:67">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -10269,7 +10023,7 @@
         <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G41">
         <v>1150000</v>
@@ -10449,27 +10203,21 @@
         <v>0</v>
       </c>
       <c r="BN41">
-        <v>162.2</v>
+        <v>53.42995169082126</v>
       </c>
       <c r="BO41">
-        <v>138.8</v>
-      </c>
-      <c r="BP41">
-        <v>53.42995169082126</v>
-      </c>
-      <c r="BQ41">
         <v>67.2463768115942</v>
       </c>
     </row>
-    <row r="42" spans="1:69">
+    <row r="42" spans="1:67">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -10478,7 +10226,7 @@
         <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G42">
         <v>1544000</v>
@@ -10658,36 +10406,30 @@
         <v>0</v>
       </c>
       <c r="BN42">
-        <v>284</v>
+        <v>23.47826086956522</v>
       </c>
       <c r="BO42">
-        <v>300.8</v>
-      </c>
-      <c r="BP42">
-        <v>23.47826086956522</v>
-      </c>
-      <c r="BQ42">
         <v>25.99033816425121</v>
       </c>
     </row>
-    <row r="43" spans="1:69">
+    <row r="43" spans="1:67">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D43" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E43">
         <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G43">
         <v>1000000</v>
@@ -10867,36 +10609,30 @@
         <v>0</v>
       </c>
       <c r="BN43">
-        <v>203.6</v>
+        <v>40.77294685990339</v>
       </c>
       <c r="BO43">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="BP43">
-        <v>40.77294685990339</v>
-      </c>
-      <c r="BQ43">
         <v>85.21739130434783</v>
       </c>
     </row>
-    <row r="44" spans="1:69">
+    <row r="44" spans="1:67">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D44" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E44">
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G44">
         <v>550000</v>
@@ -11076,36 +10812,30 @@
         <v>0</v>
       </c>
       <c r="BN44">
-        <v>221</v>
+        <v>33.91304347826087</v>
       </c>
       <c r="BO44">
-        <v>270.2</v>
-      </c>
-      <c r="BP44">
-        <v>33.91304347826087</v>
-      </c>
-      <c r="BQ44">
         <v>31.88405797101449</v>
       </c>
     </row>
-    <row r="45" spans="1:69">
+    <row r="45" spans="1:67">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E45">
         <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G45">
         <v>1538000</v>
@@ -11282,36 +11012,30 @@
         <v>0</v>
       </c>
       <c r="BN45">
-        <v>207</v>
+        <v>58.16425120772946</v>
       </c>
       <c r="BO45">
-        <v>261.4</v>
-      </c>
-      <c r="BP45">
-        <v>58.16425120772946</v>
-      </c>
-      <c r="BQ45">
         <v>33.91304347826087</v>
       </c>
     </row>
-    <row r="46" spans="1:69">
+    <row r="46" spans="1:67">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D46" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E46">
         <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G46">
         <v>287500</v>
@@ -11491,36 +11215,30 @@
         <v>0</v>
       </c>
       <c r="BN46">
-        <v>222.2</v>
+        <v>39.51690821256039</v>
       </c>
       <c r="BO46">
-        <v>227.6</v>
-      </c>
-      <c r="BP46">
-        <v>39.51690821256039</v>
-      </c>
-      <c r="BQ46">
         <v>47.82608695652174</v>
       </c>
     </row>
-    <row r="47" spans="1:69">
+    <row r="47" spans="1:67">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D47" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E47">
         <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G47">
         <v>645000</v>
@@ -11700,36 +11418,30 @@
         <v>0</v>
       </c>
       <c r="BN47">
-        <v>237.6</v>
+        <v>33.04347826086957</v>
       </c>
       <c r="BO47">
-        <v>249.4</v>
-      </c>
-      <c r="BP47">
-        <v>33.04347826086957</v>
-      </c>
-      <c r="BQ47">
         <v>37.77777777777778</v>
       </c>
     </row>
-    <row r="48" spans="1:69">
+    <row r="48" spans="1:67">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D48" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E48">
         <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G48">
         <v>1750000</v>
@@ -11906,36 +11618,30 @@
         <v>0</v>
       </c>
       <c r="BN48">
-        <v>333.8</v>
+        <v>32.17391304347826</v>
       </c>
       <c r="BO48">
-        <v>231.6</v>
-      </c>
-      <c r="BP48">
-        <v>32.17391304347826</v>
-      </c>
-      <c r="BQ48">
         <v>42.89855072463768</v>
       </c>
     </row>
-    <row r="49" spans="1:69">
+    <row r="49" spans="1:67">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D49" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E49">
         <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G49">
         <v>1750000</v>
@@ -12115,36 +11821,30 @@
         <v>0</v>
       </c>
       <c r="BN49">
-        <v>214.8</v>
+        <v>38.74396135265701</v>
       </c>
       <c r="BO49">
-        <v>269.8</v>
-      </c>
-      <c r="BP49">
-        <v>38.74396135265701</v>
-      </c>
-      <c r="BQ49">
         <v>32.27053140096618</v>
       </c>
     </row>
-    <row r="50" spans="1:69">
+    <row r="50" spans="1:67">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D50" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E50">
         <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G50">
         <v>4860000</v>
@@ -12324,36 +12024,30 @@
         <v>0</v>
       </c>
       <c r="BN50">
-        <v>120.2</v>
+        <v>63.38164251207728</v>
       </c>
       <c r="BO50">
-        <v>121</v>
-      </c>
-      <c r="BP50">
-        <v>63.38164251207728</v>
-      </c>
-      <c r="BQ50">
         <v>71.59420289855072</v>
       </c>
     </row>
-    <row r="51" spans="1:69">
+    <row r="51" spans="1:67">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D51" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E51">
         <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G51">
         <v>1131000</v>
@@ -12533,36 +12227,30 @@
         <v>0</v>
       </c>
       <c r="BN51">
-        <v>222.8</v>
+        <v>36.13526570048309</v>
       </c>
       <c r="BO51">
-        <v>281</v>
-      </c>
-      <c r="BP51">
-        <v>36.13526570048309</v>
-      </c>
-      <c r="BQ51">
         <v>31.98067632850242</v>
       </c>
     </row>
-    <row r="52" spans="1:69">
+    <row r="52" spans="1:67">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D52" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E52">
         <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G52">
         <v>949600</v>
@@ -12742,36 +12430,30 @@
         <v>1</v>
       </c>
       <c r="BN52">
-        <v>206.6</v>
+        <v>41.73913043478261</v>
       </c>
       <c r="BO52">
-        <v>217.2</v>
-      </c>
-      <c r="BP52">
-        <v>41.73913043478261</v>
-      </c>
-      <c r="BQ52">
         <v>45.70048309178743</v>
       </c>
     </row>
-    <row r="53" spans="1:69">
+    <row r="53" spans="1:67">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D53" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E53">
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G53">
         <v>8300000</v>
@@ -12951,36 +12633,30 @@
         <v>0</v>
       </c>
       <c r="BN53">
-        <v>58.2</v>
+        <v>81.44927536231884</v>
       </c>
       <c r="BO53">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="BP53">
-        <v>81.44927536231884</v>
-      </c>
-      <c r="BQ53">
         <v>80.77294685990337</v>
       </c>
     </row>
-    <row r="54" spans="1:69">
+    <row r="54" spans="1:67">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D54" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E54">
         <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G54">
         <v>1050000</v>
@@ -13157,36 +12833,30 @@
         <v>1</v>
       </c>
       <c r="BN54">
-        <v>304.2</v>
+        <v>35.7487922705314</v>
       </c>
       <c r="BO54">
-        <v>189.8</v>
-      </c>
-      <c r="BP54">
-        <v>35.7487922705314</v>
-      </c>
-      <c r="BQ54">
         <v>55.7487922705314</v>
       </c>
     </row>
-    <row r="55" spans="1:69">
+    <row r="55" spans="1:67">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D55" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E55">
         <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G55">
         <v>2200000</v>
@@ -13366,36 +13036,30 @@
         <v>0</v>
       </c>
       <c r="BN55">
-        <v>188.2</v>
+        <v>45.89371980676329</v>
       </c>
       <c r="BO55">
-        <v>322.8</v>
-      </c>
-      <c r="BP55">
-        <v>45.89371980676329</v>
-      </c>
-      <c r="BQ55">
         <v>20.77294685990338</v>
       </c>
     </row>
-    <row r="56" spans="1:69">
+    <row r="56" spans="1:67">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D56" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E56">
         <v>24</v>
       </c>
       <c r="F56" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G56">
         <v>857000</v>
@@ -13575,36 +13239,30 @@
         <v>0</v>
       </c>
       <c r="BN56">
-        <v>287.4</v>
+        <v>21.15942028985507</v>
       </c>
       <c r="BO56">
-        <v>357</v>
-      </c>
-      <c r="BP56">
-        <v>21.15942028985507</v>
-      </c>
-      <c r="BQ56">
         <v>14.00966183574879</v>
       </c>
     </row>
-    <row r="57" spans="1:69">
+    <row r="57" spans="1:67">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D57" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E57">
         <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G57">
         <v>850000</v>
@@ -13784,36 +13442,30 @@
         <v>0</v>
       </c>
       <c r="BN57">
-        <v>243.6</v>
+        <v>30.82125603864734</v>
       </c>
       <c r="BO57">
-        <v>239.8</v>
-      </c>
-      <c r="BP57">
-        <v>30.82125603864734</v>
-      </c>
-      <c r="BQ57">
         <v>39.90338164251207</v>
       </c>
     </row>
-    <row r="58" spans="1:69">
+    <row r="58" spans="1:67">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D58" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E58">
         <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G58">
         <v>1400000</v>
@@ -13993,27 +13645,21 @@
         <v>0</v>
       </c>
       <c r="BN58">
-        <v>224.4</v>
+        <v>37.48792270531401</v>
       </c>
       <c r="BO58">
-        <v>241.6</v>
-      </c>
-      <c r="BP58">
-        <v>37.48792270531401</v>
-      </c>
-      <c r="BQ58">
         <v>41.93236714975846</v>
       </c>
     </row>
-    <row r="59" spans="1:69">
+    <row r="59" spans="1:67">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D59" t="s">
         <v>29</v>
@@ -14022,7 +13668,7 @@
         <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G59">
         <v>1750000</v>
@@ -14202,27 +13848,21 @@
         <v>0</v>
       </c>
       <c r="BN59">
-        <v>182.4</v>
+        <v>50.43478260869565</v>
       </c>
       <c r="BO59">
-        <v>257</v>
-      </c>
-      <c r="BP59">
-        <v>50.43478260869565</v>
-      </c>
-      <c r="BQ59">
         <v>37.97101449275362</v>
       </c>
     </row>
-    <row r="60" spans="1:69">
+    <row r="60" spans="1:67">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D60" t="s">
         <v>29</v>
@@ -14231,7 +13871,7 @@
         <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G60">
         <v>4000000</v>
@@ -14411,36 +14051,30 @@
         <v>0</v>
       </c>
       <c r="BN60">
-        <v>231.8</v>
+        <v>34.20289855072463</v>
       </c>
       <c r="BO60">
-        <v>211.2</v>
-      </c>
-      <c r="BP60">
-        <v>34.20289855072463</v>
-      </c>
-      <c r="BQ60">
         <v>47.72946859903382</v>
       </c>
     </row>
-    <row r="61" spans="1:69">
+    <row r="61" spans="1:67">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D61" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E61">
         <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G61">
         <v>6000000</v>
@@ -14620,36 +14254,30 @@
         <v>0</v>
       </c>
       <c r="BN61">
-        <v>79</v>
+        <v>78.45410628019323</v>
       </c>
       <c r="BO61">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="BP61">
-        <v>78.45410628019323</v>
-      </c>
-      <c r="BQ61">
         <v>83.38164251207729</v>
       </c>
     </row>
-    <row r="62" spans="1:69">
+    <row r="62" spans="1:67">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D62" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E62">
         <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G62">
         <v>795000</v>
@@ -14829,27 +14457,21 @@
         <v>0</v>
       </c>
       <c r="BN62">
-        <v>196.6</v>
+        <v>44.15458937198068</v>
       </c>
       <c r="BO62">
-        <v>248.2</v>
-      </c>
-      <c r="BP62">
-        <v>44.15458937198068</v>
-      </c>
-      <c r="BQ62">
         <v>37.10144927536232</v>
       </c>
     </row>
-    <row r="63" spans="1:69">
+    <row r="63" spans="1:67">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -14858,7 +14480,7 @@
         <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G63">
         <v>1485000</v>
@@ -15038,27 +14660,21 @@
         <v>0</v>
       </c>
       <c r="BN63">
-        <v>160</v>
+        <v>55.07246376811595</v>
       </c>
       <c r="BO63">
-        <v>134.8</v>
-      </c>
-      <c r="BP63">
-        <v>55.07246376811595</v>
-      </c>
-      <c r="BQ63">
         <v>71.78743961352657</v>
       </c>
     </row>
-    <row r="64" spans="1:69">
+    <row r="64" spans="1:67">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D64" t="s">
         <v>29</v>
@@ -15067,7 +14683,7 @@
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G64">
         <v>588000</v>
@@ -15247,36 +14863,30 @@
         <v>0</v>
       </c>
       <c r="BN64">
-        <v>295.2</v>
+        <v>18.64734299516908</v>
       </c>
       <c r="BO64">
-        <v>358</v>
-      </c>
-      <c r="BP64">
-        <v>18.64734299516908</v>
-      </c>
-      <c r="BQ64">
         <v>13.04347826086956</v>
       </c>
     </row>
-    <row r="65" spans="1:69">
+    <row r="65" spans="1:67">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D65" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E65">
         <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G65">
         <v>1750000</v>
@@ -15456,36 +15066,30 @@
         <v>0</v>
       </c>
       <c r="BN65">
-        <v>201.6</v>
+        <v>43.09178743961353</v>
       </c>
       <c r="BO65">
-        <v>166.4</v>
-      </c>
-      <c r="BP65">
-        <v>43.09178743961353</v>
-      </c>
-      <c r="BQ65">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:69">
+    <row r="66" spans="1:67">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D66" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E66">
         <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G66">
         <v>1701000</v>
@@ -15662,36 +15266,30 @@
         <v>0</v>
       </c>
       <c r="BN66">
-        <v>253.6</v>
+        <v>49.75845410628019</v>
       </c>
       <c r="BO66">
-        <v>270.6</v>
-      </c>
-      <c r="BP66">
-        <v>49.75845410628019</v>
-      </c>
-      <c r="BQ66">
         <v>32.27053140096618</v>
       </c>
     </row>
-    <row r="67" spans="1:69">
+    <row r="67" spans="1:67">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D67" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E67">
         <v>24</v>
       </c>
       <c r="F67" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G67">
         <v>1461000</v>
@@ -15868,27 +15466,21 @@
         <v>0</v>
       </c>
       <c r="BN67">
-        <v>319.2</v>
+        <v>35.16908212560386</v>
       </c>
       <c r="BO67">
-        <v>309.2</v>
-      </c>
-      <c r="BP67">
-        <v>35.16908212560386</v>
-      </c>
-      <c r="BQ67">
         <v>25.70048309178744</v>
       </c>
     </row>
-    <row r="68" spans="1:69">
+    <row r="68" spans="1:67">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
@@ -15897,7 +15489,7 @@
         <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G68">
         <v>14000000</v>
@@ -16077,36 +15669,30 @@
         <v>0</v>
       </c>
       <c r="BN68">
-        <v>19</v>
+        <v>92.7536231884058</v>
       </c>
       <c r="BO68">
-        <v>71.8</v>
-      </c>
-      <c r="BP68">
-        <v>92.7536231884058</v>
-      </c>
-      <c r="BQ68">
         <v>85.21739130434783</v>
       </c>
     </row>
-    <row r="69" spans="1:69">
+    <row r="69" spans="1:67">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D69" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E69">
         <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G69">
         <v>2160000</v>
@@ -16283,27 +15869,21 @@
         <v>0</v>
       </c>
       <c r="BN69">
-        <v>251</v>
+        <v>50.33816425120773</v>
       </c>
       <c r="BO69">
-        <v>187.2</v>
-      </c>
-      <c r="BP69">
-        <v>50.33816425120773</v>
-      </c>
-      <c r="BQ69">
         <v>56.03864734299518</v>
       </c>
     </row>
-    <row r="70" spans="1:69">
+    <row r="70" spans="1:67">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D70" t="s">
         <v>29</v>
@@ -16312,7 +15892,7 @@
         <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G70">
         <v>740000</v>
@@ -16492,36 +16072,30 @@
         <v>0</v>
       </c>
       <c r="BN70">
-        <v>296.2</v>
+        <v>17.19806763285024</v>
       </c>
       <c r="BO70">
-        <v>215</v>
-      </c>
-      <c r="BP70">
-        <v>17.19806763285024</v>
-      </c>
-      <c r="BQ70">
         <v>51.59420289855072</v>
       </c>
     </row>
-    <row r="71" spans="1:69">
+    <row r="71" spans="1:67">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D71" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E71">
         <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G71">
         <v>6800000</v>
@@ -16701,36 +16275,30 @@
         <v>0</v>
       </c>
       <c r="BN71">
-        <v>110</v>
+        <v>67.2463768115942</v>
       </c>
       <c r="BO71">
-        <v>98</v>
-      </c>
-      <c r="BP71">
-        <v>67.2463768115942</v>
-      </c>
-      <c r="BQ71">
         <v>79.80676328502415</v>
       </c>
     </row>
-    <row r="72" spans="1:69">
+    <row r="72" spans="1:67">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D72" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E72">
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G72">
         <v>5000000</v>
@@ -16910,27 +16478,21 @@
         <v>0</v>
       </c>
       <c r="BN72">
-        <v>82.2</v>
+        <v>75.94202898550724</v>
       </c>
       <c r="BO72">
-        <v>193.4</v>
-      </c>
-      <c r="BP72">
-        <v>75.94202898550724</v>
-      </c>
-      <c r="BQ72">
         <v>53.14009661835749</v>
       </c>
     </row>
-    <row r="73" spans="1:69">
+    <row r="73" spans="1:67">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D73" t="s">
         <v>29</v>
@@ -16939,7 +16501,7 @@
         <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G73">
         <v>3244000</v>
@@ -17119,27 +16681,21 @@
         <v>0</v>
       </c>
       <c r="BN73">
-        <v>188</v>
+        <v>44.05797101449275</v>
       </c>
       <c r="BO73">
-        <v>179.6</v>
-      </c>
-      <c r="BP73">
-        <v>44.05797101449275</v>
-      </c>
-      <c r="BQ73">
         <v>61.15942028985507</v>
       </c>
     </row>
-    <row r="74" spans="1:69">
+    <row r="74" spans="1:67">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D74" t="s">
         <v>29</v>
@@ -17148,7 +16704,7 @@
         <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G74">
         <v>1000000</v>
@@ -17328,27 +16884,21 @@
         <v>0</v>
       </c>
       <c r="BN74">
-        <v>265.8</v>
+        <v>25.31400966183575</v>
       </c>
       <c r="BO74">
-        <v>372.6</v>
-      </c>
-      <c r="BP74">
-        <v>25.31400966183575</v>
-      </c>
-      <c r="BQ74">
         <v>9.661835748792271</v>
       </c>
     </row>
-    <row r="75" spans="1:69">
+    <row r="75" spans="1:67">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D75" t="s">
         <v>29</v>
@@ -17357,7 +16907,7 @@
         <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G75">
         <v>7843000</v>
@@ -17537,36 +17087,30 @@
         <v>0</v>
       </c>
       <c r="BN75">
-        <v>100</v>
+        <v>70.53140096618358</v>
       </c>
       <c r="BO75">
-        <v>211.4</v>
-      </c>
-      <c r="BP75">
-        <v>70.53140096618358</v>
-      </c>
-      <c r="BQ75">
         <v>49.85507246376812</v>
       </c>
     </row>
-    <row r="76" spans="1:69">
+    <row r="76" spans="1:67">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D76" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E76">
         <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G76">
         <v>832440</v>
@@ -17746,27 +17290,21 @@
         <v>0</v>
       </c>
       <c r="BN76">
-        <v>326</v>
+        <v>10.82125603864734</v>
       </c>
       <c r="BO76">
-        <v>328.4</v>
-      </c>
-      <c r="BP76">
-        <v>10.82125603864734</v>
-      </c>
-      <c r="BQ76">
         <v>20.48309178743962</v>
       </c>
     </row>
-    <row r="77" spans="1:69">
+    <row r="77" spans="1:67">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D77" t="s">
         <v>29</v>
@@ -17775,7 +17313,7 @@
         <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G77">
         <v>5125088</v>
@@ -17955,27 +17493,21 @@
         <v>0</v>
       </c>
       <c r="BN77">
-        <v>221</v>
+        <v>33.23671497584541</v>
       </c>
       <c r="BO77">
-        <v>304.8</v>
-      </c>
-      <c r="BP77">
-        <v>33.23671497584541</v>
-      </c>
-      <c r="BQ77">
         <v>26.08695652173913</v>
       </c>
     </row>
-    <row r="78" spans="1:69">
+    <row r="78" spans="1:67">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D78" t="s">
         <v>29</v>
@@ -17984,7 +17516,7 @@
         <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G78">
         <v>7800000</v>
@@ -18164,36 +17696,30 @@
         <v>0</v>
       </c>
       <c r="BN78">
-        <v>59.6</v>
+        <v>81.64251207729468</v>
       </c>
       <c r="BO78">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="BP78">
-        <v>81.64251207729468</v>
-      </c>
-      <c r="BQ78">
         <v>88.79227053140097</v>
       </c>
     </row>
-    <row r="79" spans="1:69">
+    <row r="79" spans="1:67">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D79" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E79">
         <v>27</v>
       </c>
       <c r="F79" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G79">
         <v>8505000</v>
@@ -18373,36 +17899,30 @@
         <v>0</v>
       </c>
       <c r="BN79">
-        <v>52.6</v>
+        <v>83.67149758454106</v>
       </c>
       <c r="BO79">
-        <v>115.8</v>
-      </c>
-      <c r="BP79">
-        <v>83.67149758454106</v>
-      </c>
-      <c r="BQ79">
         <v>74.00966183574879</v>
       </c>
     </row>
-    <row r="80" spans="1:69">
+    <row r="80" spans="1:67">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D80" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E80">
         <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G80">
         <v>5600000</v>
@@ -18582,36 +18102,30 @@
         <v>0</v>
       </c>
       <c r="BN80">
-        <v>121</v>
+        <v>64.92753623188406</v>
       </c>
       <c r="BO80">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="BP80">
-        <v>64.92753623188406</v>
-      </c>
-      <c r="BQ80">
         <v>85.70048309178743</v>
       </c>
     </row>
-    <row r="81" spans="1:69">
+    <row r="81" spans="1:67">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D81" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E81">
         <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G81">
         <v>1000000</v>
@@ -18791,36 +18305,30 @@
         <v>0</v>
       </c>
       <c r="BN81">
-        <v>187.8</v>
+        <v>45.89371980676329</v>
       </c>
       <c r="BO81">
-        <v>234.2</v>
-      </c>
-      <c r="BP81">
-        <v>45.89371980676329</v>
-      </c>
-      <c r="BQ81">
         <v>42.51207729468599</v>
       </c>
     </row>
-    <row r="82" spans="1:69">
+    <row r="82" spans="1:67">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D82" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E82">
         <v>35</v>
       </c>
       <c r="F82" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G82">
         <v>5280000</v>
@@ -19000,36 +18508,30 @@
         <v>0</v>
       </c>
       <c r="BN82">
-        <v>60.4</v>
+        <v>80.96618357487922</v>
       </c>
       <c r="BO82">
-        <v>200.6</v>
-      </c>
-      <c r="BP82">
-        <v>80.96618357487922</v>
-      </c>
-      <c r="BQ82">
         <v>49.95169082125604</v>
       </c>
     </row>
-    <row r="83" spans="1:69">
+    <row r="83" spans="1:67">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D83" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E83">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G83">
         <v>900000</v>
@@ -19209,36 +18711,30 @@
         <v>0</v>
       </c>
       <c r="BN83">
-        <v>219.4</v>
+        <v>37.48792270531401</v>
       </c>
       <c r="BO83">
-        <v>174</v>
-      </c>
-      <c r="BP83">
-        <v>37.48792270531401</v>
-      </c>
-      <c r="BQ83">
         <v>58.45410628019324</v>
       </c>
     </row>
-    <row r="84" spans="1:69">
+    <row r="84" spans="1:67">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C84" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D84" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E84">
         <v>28</v>
       </c>
       <c r="F84" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G84">
         <v>1680000</v>
@@ -19418,36 +18914,30 @@
         <v>0</v>
       </c>
       <c r="BN84">
-        <v>253.8</v>
+        <v>25.99033816425121</v>
       </c>
       <c r="BO84">
-        <v>290</v>
-      </c>
-      <c r="BP84">
-        <v>25.99033816425121</v>
-      </c>
-      <c r="BQ84">
         <v>28.98550724637681</v>
       </c>
     </row>
-    <row r="85" spans="1:69">
+    <row r="85" spans="1:67">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C85" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D85" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E85">
         <v>26</v>
       </c>
       <c r="F85" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G85">
         <v>4725000</v>
@@ -19627,36 +19117,30 @@
         <v>0</v>
       </c>
       <c r="BN85">
-        <v>131.6</v>
+        <v>61.93236714975845</v>
       </c>
       <c r="BO85">
-        <v>143</v>
-      </c>
-      <c r="BP85">
-        <v>61.93236714975845</v>
-      </c>
-      <c r="BQ85">
         <v>65.9903381642512</v>
       </c>
     </row>
-    <row r="86" spans="1:69">
+    <row r="86" spans="1:67">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C86" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D86" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E86">
         <v>23</v>
       </c>
       <c r="F86" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G86">
         <v>250000</v>
@@ -19836,27 +19320,21 @@
         <v>0</v>
       </c>
       <c r="BN86">
-        <v>109.4</v>
+        <v>66.37681159420291</v>
       </c>
       <c r="BO86">
-        <v>294.2</v>
-      </c>
-      <c r="BP86">
-        <v>66.37681159420291</v>
-      </c>
-      <c r="BQ86">
         <v>27.43961352657005</v>
       </c>
     </row>
-    <row r="87" spans="1:69">
+    <row r="87" spans="1:67">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C87" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D87" t="s">
         <v>29</v>
@@ -19865,7 +19343,7 @@
         <v>24</v>
       </c>
       <c r="F87" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G87">
         <v>425000</v>
@@ -20045,36 +19523,30 @@
         <v>0</v>
       </c>
       <c r="BN87">
-        <v>270.2</v>
+        <v>24.73429951690822</v>
       </c>
       <c r="BO87">
-        <v>237.4</v>
-      </c>
-      <c r="BP87">
-        <v>24.73429951690822</v>
-      </c>
-      <c r="BQ87">
         <v>45.99033816425121</v>
       </c>
     </row>
-    <row r="88" spans="1:69">
+    <row r="88" spans="1:67">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C88" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D88" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E88">
         <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G88">
         <v>3455000</v>
@@ -20254,27 +19726,21 @@
         <v>0</v>
       </c>
       <c r="BN88">
-        <v>112.4</v>
+        <v>68.01932367149759</v>
       </c>
       <c r="BO88">
-        <v>74.2</v>
-      </c>
-      <c r="BP88">
-        <v>68.01932367149759</v>
-      </c>
-      <c r="BQ88">
         <v>85.99033816425121</v>
       </c>
     </row>
-    <row r="89" spans="1:69">
+    <row r="89" spans="1:67">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C89" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D89" t="s">
         <v>29</v>
@@ -20283,7 +19749,7 @@
         <v>28</v>
       </c>
       <c r="F89" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G89">
         <v>5000000</v>
@@ -20463,36 +19929,30 @@
         <v>0</v>
       </c>
       <c r="BN89">
-        <v>135.6</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="BO89">
-        <v>169.6</v>
-      </c>
-      <c r="BP89">
-        <v>57.77777777777777</v>
-      </c>
-      <c r="BQ89">
         <v>60.38647342995169</v>
       </c>
     </row>
-    <row r="90" spans="1:69">
+    <row r="90" spans="1:67">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C90" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D90" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E90">
         <v>27</v>
       </c>
       <c r="F90" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G90">
         <v>7000000</v>
@@ -20672,36 +20132,30 @@
         <v>0</v>
       </c>
       <c r="BN90">
-        <v>158.4</v>
+        <v>54.00966183574879</v>
       </c>
       <c r="BO90">
-        <v>164.4</v>
-      </c>
-      <c r="BP90">
-        <v>54.00966183574879</v>
-      </c>
-      <c r="BQ90">
         <v>60.57971014492753</v>
       </c>
     </row>
-    <row r="91" spans="1:69">
+    <row r="91" spans="1:67">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C91" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D91" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E91">
         <v>25</v>
       </c>
       <c r="F91" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G91">
         <v>13125000</v>
@@ -20881,36 +20335,30 @@
         <v>0</v>
       </c>
       <c r="BN91">
-        <v>67</v>
+        <v>80.38647342995169</v>
       </c>
       <c r="BO91">
-        <v>119</v>
-      </c>
-      <c r="BP91">
-        <v>80.38647342995169</v>
-      </c>
-      <c r="BQ91">
         <v>72.7536231884058</v>
       </c>
     </row>
-    <row r="92" spans="1:69">
+    <row r="92" spans="1:67">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C92" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D92" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E92">
         <v>22</v>
       </c>
       <c r="F92" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G92">
         <v>287500</v>
@@ -21090,36 +20538,30 @@
         <v>0</v>
       </c>
       <c r="BN92">
-        <v>224.8</v>
+        <v>38.16425120772946</v>
       </c>
       <c r="BO92">
-        <v>251</v>
-      </c>
-      <c r="BP92">
-        <v>38.16425120772946</v>
-      </c>
-      <c r="BQ92">
         <v>39.90338164251207</v>
       </c>
     </row>
-    <row r="93" spans="1:69">
+    <row r="93" spans="1:67">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C93" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D93" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E93">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G93">
         <v>1330000</v>
@@ -21299,36 +20741,30 @@
         <v>0</v>
       </c>
       <c r="BN93">
-        <v>154.6</v>
+        <v>58.35748792270531</v>
       </c>
       <c r="BO93">
-        <v>136.4</v>
-      </c>
-      <c r="BP93">
-        <v>58.35748792270531</v>
-      </c>
-      <c r="BQ93">
         <v>67.53623188405797</v>
       </c>
     </row>
-    <row r="94" spans="1:69">
+    <row r="94" spans="1:67">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C94" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D94" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E94">
         <v>28</v>
       </c>
       <c r="F94" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G94">
         <v>2050000</v>
@@ -21508,36 +20944,30 @@
         <v>0</v>
       </c>
       <c r="BN94">
-        <v>117</v>
+        <v>66.37681159420291</v>
       </c>
       <c r="BO94">
-        <v>158.4</v>
-      </c>
-      <c r="BP94">
-        <v>66.37681159420291</v>
-      </c>
-      <c r="BQ94">
         <v>63.96135265700483</v>
       </c>
     </row>
-    <row r="95" spans="1:69">
+    <row r="95" spans="1:67">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C95" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D95" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E95">
         <v>25</v>
       </c>
       <c r="F95" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G95">
         <v>799200</v>
@@ -21717,36 +21147,30 @@
         <v>0</v>
       </c>
       <c r="BN95">
-        <v>189.4</v>
+        <v>48.21256038647343</v>
       </c>
       <c r="BO95">
-        <v>216.4</v>
-      </c>
-      <c r="BP95">
-        <v>48.21256038647343</v>
-      </c>
-      <c r="BQ95">
         <v>45.70048309178743</v>
       </c>
     </row>
-    <row r="96" spans="1:69">
+    <row r="96" spans="1:67">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C96" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D96" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E96">
         <v>22</v>
       </c>
       <c r="F96" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G96">
         <v>1940000</v>
@@ -21926,36 +21350,30 @@
         <v>1</v>
       </c>
       <c r="BN96">
-        <v>168</v>
+        <v>55.3623188405797</v>
       </c>
       <c r="BO96">
-        <v>158.4</v>
-      </c>
-      <c r="BP96">
-        <v>55.3623188405797</v>
-      </c>
-      <c r="BQ96">
         <v>61.93236714975845</v>
       </c>
     </row>
-    <row r="97" spans="1:69">
+    <row r="97" spans="1:67">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C97" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D97" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E97">
         <v>24</v>
       </c>
       <c r="F97" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G97">
         <v>1000000</v>
@@ -22135,36 +21553,30 @@
         <v>0</v>
       </c>
       <c r="BN97">
-        <v>236.2</v>
+        <v>34.20289855072463</v>
       </c>
       <c r="BO97">
-        <v>280.4</v>
-      </c>
-      <c r="BP97">
-        <v>34.20289855072463</v>
-      </c>
-      <c r="BQ97">
         <v>29.3719806763285</v>
       </c>
     </row>
-    <row r="98" spans="1:69">
+    <row r="98" spans="1:67">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C98" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D98" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E98">
         <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G98">
         <v>2594000</v>
@@ -22341,27 +21753,21 @@
         <v>0</v>
       </c>
       <c r="BN98">
-        <v>234.4</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="BO98">
-        <v>163.6</v>
-      </c>
-      <c r="BP98">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="BQ98">
         <v>61.54589371980676</v>
       </c>
     </row>
-    <row r="99" spans="1:69">
+    <row r="99" spans="1:67">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C99" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D99" t="s">
         <v>29</v>
@@ -22370,7 +21776,7 @@
         <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G99">
         <v>10186000</v>
@@ -22550,36 +21956,30 @@
         <v>0</v>
       </c>
       <c r="BN99">
-        <v>147.8</v>
+        <v>57.29468599033816</v>
       </c>
       <c r="BO99">
-        <v>115.2</v>
-      </c>
-      <c r="BP99">
-        <v>57.29468599033816</v>
-      </c>
-      <c r="BQ99">
         <v>75.55555555555556</v>
       </c>
     </row>
-    <row r="100" spans="1:69">
+    <row r="100" spans="1:67">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D100" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E100">
         <v>23</v>
       </c>
       <c r="F100" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G100">
         <v>287500</v>
@@ -22759,27 +22159,21 @@
         <v>0</v>
       </c>
       <c r="BN100">
-        <v>251.8</v>
+        <v>27.05314009661836</v>
       </c>
       <c r="BO100">
-        <v>374</v>
-      </c>
-      <c r="BP100">
-        <v>27.05314009661836</v>
-      </c>
-      <c r="BQ100">
         <v>9.565217391304348</v>
       </c>
     </row>
-    <row r="101" spans="1:69">
+    <row r="101" spans="1:67">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C101" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D101" t="s">
         <v>29</v>
@@ -22788,7 +22182,7 @@
         <v>28</v>
       </c>
       <c r="F101" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G101">
         <v>2381000</v>
@@ -22968,27 +22362,21 @@
         <v>0</v>
       </c>
       <c r="BN101">
-        <v>289.2</v>
+        <v>18.64734299516908</v>
       </c>
       <c r="BO101">
-        <v>257.6</v>
-      </c>
-      <c r="BP101">
-        <v>18.64734299516908</v>
-      </c>
-      <c r="BQ101">
         <v>36.6183574879227</v>
       </c>
     </row>
-    <row r="102" spans="1:69">
+    <row r="102" spans="1:67">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C102" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D102" t="s">
         <v>29</v>
@@ -22997,7 +22385,7 @@
         <v>28</v>
       </c>
       <c r="F102" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G102">
         <v>2650000</v>
@@ -23177,27 +22565,21 @@
         <v>0</v>
       </c>
       <c r="BN102">
-        <v>246.2</v>
+        <v>31.78743961352657</v>
       </c>
       <c r="BO102">
-        <v>197.6</v>
-      </c>
-      <c r="BP102">
-        <v>31.78743961352657</v>
-      </c>
-      <c r="BQ102">
         <v>51.59420289855072</v>
       </c>
     </row>
-    <row r="103" spans="1:69">
+    <row r="103" spans="1:67">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C103" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D103" t="s">
         <v>29</v>
@@ -23206,7 +22588,7 @@
         <v>29</v>
       </c>
       <c r="F103" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G103">
         <v>9740000</v>
@@ -23386,36 +22768,30 @@
         <v>0</v>
       </c>
       <c r="BN103">
-        <v>50.2</v>
+        <v>83.18840579710144</v>
       </c>
       <c r="BO103">
-        <v>21.8</v>
-      </c>
-      <c r="BP103">
-        <v>83.18840579710144</v>
-      </c>
-      <c r="BQ103">
         <v>97.97101449275362</v>
       </c>
     </row>
-    <row r="104" spans="1:69">
+    <row r="104" spans="1:67">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D104" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E104">
         <v>24</v>
       </c>
       <c r="F104" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G104">
         <v>1762000</v>
@@ -23595,36 +22971,30 @@
         <v>0</v>
       </c>
       <c r="BN104">
-        <v>79.59999999999999</v>
+        <v>76.52173913043478</v>
       </c>
       <c r="BO104">
-        <v>219.2</v>
-      </c>
-      <c r="BP104">
-        <v>76.52173913043478</v>
-      </c>
-      <c r="BQ104">
         <v>45.70048309178743</v>
       </c>
     </row>
-    <row r="105" spans="1:69">
+    <row r="105" spans="1:67">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D105" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E105">
         <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G105">
         <v>1000000</v>
@@ -23804,36 +23174,30 @@
         <v>0</v>
       </c>
       <c r="BN105">
-        <v>315.4</v>
+        <v>10.82125603864734</v>
       </c>
       <c r="BO105">
-        <v>373.4</v>
-      </c>
-      <c r="BP105">
-        <v>10.82125603864734</v>
-      </c>
-      <c r="BQ105">
         <v>9.178743961352657</v>
       </c>
     </row>
-    <row r="106" spans="1:69">
+    <row r="106" spans="1:67">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C106" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D106" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E106">
         <v>23</v>
       </c>
       <c r="F106" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G106">
         <v>1092000</v>
@@ -24013,36 +23377,30 @@
         <v>0</v>
       </c>
       <c r="BN106">
-        <v>114</v>
+        <v>69.3719806763285</v>
       </c>
       <c r="BO106">
-        <v>163.4</v>
-      </c>
-      <c r="BP106">
-        <v>69.3719806763285</v>
-      </c>
-      <c r="BQ106">
         <v>61.25603864734299</v>
       </c>
     </row>
-    <row r="107" spans="1:69">
+    <row r="107" spans="1:67">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C107" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D107" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E107">
         <v>24</v>
       </c>
       <c r="F107" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G107">
         <v>2400000</v>
@@ -24222,36 +23580,30 @@
         <v>0</v>
       </c>
       <c r="BN107">
-        <v>200</v>
+        <v>42.02898550724638</v>
       </c>
       <c r="BO107">
-        <v>190.2</v>
-      </c>
-      <c r="BP107">
-        <v>42.02898550724638</v>
-      </c>
-      <c r="BQ107">
         <v>53.14009661835749</v>
       </c>
     </row>
-    <row r="108" spans="1:69">
+    <row r="108" spans="1:67">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C108" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D108" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E108">
         <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G108">
         <v>4610000</v>
@@ -24431,27 +23783,21 @@
         <v>0</v>
       </c>
       <c r="BN108">
-        <v>79</v>
+        <v>76.81159420289855</v>
       </c>
       <c r="BO108">
-        <v>115.8</v>
-      </c>
-      <c r="BP108">
-        <v>76.81159420289855</v>
-      </c>
-      <c r="BQ108">
         <v>73.2367149758454</v>
       </c>
     </row>
-    <row r="109" spans="1:69">
+    <row r="109" spans="1:67">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C109" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D109" t="s">
         <v>29</v>
@@ -24460,7 +23806,7 @@
         <v>29</v>
       </c>
       <c r="F109" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G109">
         <v>5360000</v>
@@ -24640,36 +23986,30 @@
         <v>0</v>
       </c>
       <c r="BN109">
-        <v>139.8</v>
+        <v>58.743961352657</v>
       </c>
       <c r="BO109">
-        <v>196.8</v>
-      </c>
-      <c r="BP109">
-        <v>58.743961352657</v>
-      </c>
-      <c r="BQ109">
         <v>50.91787439613527</v>
       </c>
     </row>
-    <row r="110" spans="1:69">
+    <row r="110" spans="1:67">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C110" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D110" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E110">
         <v>22</v>
       </c>
       <c r="F110" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G110">
         <v>2150000</v>
@@ -24849,36 +24189,30 @@
         <v>0</v>
       </c>
       <c r="BN110">
-        <v>110</v>
+        <v>65.89371980676329</v>
       </c>
       <c r="BO110">
-        <v>118.2</v>
-      </c>
-      <c r="BP110">
-        <v>65.89371980676329</v>
-      </c>
-      <c r="BQ110">
         <v>72.94685990338165</v>
       </c>
     </row>
-    <row r="111" spans="1:69">
+    <row r="111" spans="1:67">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D111" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E111">
         <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G111">
         <v>3068000</v>
@@ -25055,36 +24389,30 @@
         <v>0</v>
       </c>
       <c r="BN111">
-        <v>285.2</v>
+        <v>43.38164251207729</v>
       </c>
       <c r="BO111">
-        <v>380.2</v>
-      </c>
-      <c r="BP111">
-        <v>43.38164251207729</v>
-      </c>
-      <c r="BQ111">
         <v>8.212560386473431</v>
       </c>
     </row>
-    <row r="112" spans="1:69">
+    <row r="112" spans="1:67">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C112" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D112" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E112">
         <v>25</v>
       </c>
       <c r="F112" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G112">
         <v>350000</v>
@@ -25264,36 +24592,30 @@
         <v>0</v>
       </c>
       <c r="BN112">
-        <v>247</v>
+        <v>30.04830917874396</v>
       </c>
       <c r="BO112">
-        <v>346.2</v>
-      </c>
-      <c r="BP112">
-        <v>30.04830917874396</v>
-      </c>
-      <c r="BQ112">
         <v>15.84541062801932</v>
       </c>
     </row>
-    <row r="113" spans="1:69">
+    <row r="113" spans="1:67">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C113" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D113" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E113">
         <v>32</v>
       </c>
       <c r="F113" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G113">
         <v>1320000</v>
@@ -25473,36 +24795,30 @@
         <v>0</v>
       </c>
       <c r="BN113">
-        <v>317.2</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="BO113">
-        <v>300.6</v>
-      </c>
-      <c r="BP113">
-        <v>15.55555555555556</v>
-      </c>
-      <c r="BQ113">
         <v>25.79710144927536</v>
       </c>
     </row>
-    <row r="114" spans="1:69">
+    <row r="114" spans="1:67">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C114" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D114" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E114">
         <v>25</v>
       </c>
       <c r="F114" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G114">
         <v>2837000</v>
@@ -25682,36 +24998,30 @@
         <v>0</v>
       </c>
       <c r="BN114">
-        <v>292.6</v>
+        <v>21.93236714975845</v>
       </c>
       <c r="BO114">
-        <v>228.4</v>
-      </c>
-      <c r="BP114">
-        <v>21.93236714975845</v>
-      </c>
-      <c r="BQ114">
         <v>45.12077294685991</v>
       </c>
     </row>
-    <row r="115" spans="1:69">
+    <row r="115" spans="1:67">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C115" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D115" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E115">
         <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G115">
         <v>287500</v>
@@ -25888,27 +25198,21 @@
         <v>0</v>
       </c>
       <c r="BN115">
-        <v>228.8</v>
+        <v>59.61352657004831</v>
       </c>
       <c r="BO115">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="BP115">
-        <v>59.61352657004831</v>
-      </c>
-      <c r="BQ115">
         <v>80.28985507246377</v>
       </c>
     </row>
-    <row r="116" spans="1:69">
+    <row r="116" spans="1:67">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C116" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D116" t="s">
         <v>29</v>
@@ -25917,7 +25221,7 @@
         <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G116">
         <v>2977000</v>
@@ -26097,36 +25401,30 @@
         <v>0</v>
       </c>
       <c r="BN116">
-        <v>138</v>
+        <v>59.90338164251207</v>
       </c>
       <c r="BO116">
-        <v>117.2</v>
-      </c>
-      <c r="BP116">
-        <v>59.90338164251207</v>
-      </c>
-      <c r="BQ116">
         <v>75.07246376811595</v>
       </c>
     </row>
-    <row r="117" spans="1:69">
+    <row r="117" spans="1:67">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C117" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D117" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E117">
         <v>30</v>
       </c>
       <c r="F117" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G117">
         <v>4000000</v>
@@ -26303,36 +25601,30 @@
         <v>0</v>
       </c>
       <c r="BN117">
-        <v>254.4</v>
+        <v>48.30917874396135</v>
       </c>
       <c r="BO117">
-        <v>217</v>
-      </c>
-      <c r="BP117">
-        <v>48.30917874396135</v>
-      </c>
-      <c r="BQ117">
         <v>50.24154589371981</v>
       </c>
     </row>
-    <row r="118" spans="1:69">
+    <row r="118" spans="1:67">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C118" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D118" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E118">
         <v>21</v>
       </c>
       <c r="F118" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G118">
         <v>287500</v>
@@ -26512,36 +25804,30 @@
         <v>0</v>
       </c>
       <c r="BN118">
-        <v>295.4</v>
+        <v>19.03381642512077</v>
       </c>
       <c r="BO118">
-        <v>254.2</v>
-      </c>
-      <c r="BP118">
-        <v>19.03381642512077</v>
-      </c>
-      <c r="BQ118">
         <v>38.45410628019324</v>
       </c>
     </row>
-    <row r="119" spans="1:69">
+    <row r="119" spans="1:67">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C119" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D119" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E119">
         <v>28</v>
       </c>
       <c r="F119" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G119">
         <v>1000000</v>
@@ -26721,36 +26007,30 @@
         <v>0</v>
       </c>
       <c r="BN119">
-        <v>101</v>
+        <v>71.20772946859904</v>
       </c>
       <c r="BO119">
-        <v>218</v>
-      </c>
-      <c r="BP119">
-        <v>71.20772946859904</v>
-      </c>
-      <c r="BQ119">
         <v>46.95652173913044</v>
       </c>
     </row>
-    <row r="120" spans="1:69">
+    <row r="120" spans="1:67">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C120" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D120" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E120">
         <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G120">
         <v>3290000</v>
@@ -26930,27 +26210,21 @@
         <v>0</v>
       </c>
       <c r="BN120">
-        <v>172.2</v>
+        <v>50.6280193236715</v>
       </c>
       <c r="BO120">
-        <v>212.8</v>
-      </c>
-      <c r="BP120">
-        <v>50.6280193236715</v>
-      </c>
-      <c r="BQ120">
         <v>48.98550724637681</v>
       </c>
     </row>
-    <row r="121" spans="1:69">
+    <row r="121" spans="1:67">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C121" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D121" t="s">
         <v>29</v>
@@ -26959,7 +26233,7 @@
         <v>32</v>
       </c>
       <c r="F121" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G121">
         <v>6833000</v>
@@ -27139,36 +26413,30 @@
         <v>0</v>
       </c>
       <c r="BN121">
-        <v>121</v>
+        <v>63.76811594202898</v>
       </c>
       <c r="BO121">
-        <v>151.2</v>
-      </c>
-      <c r="BP121">
-        <v>63.76811594202898</v>
-      </c>
-      <c r="BQ121">
         <v>65.02415458937197</v>
       </c>
     </row>
-    <row r="122" spans="1:69">
+    <row r="122" spans="1:67">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C122" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D122" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E122">
         <v>25</v>
       </c>
       <c r="F122" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G122">
         <v>4370000</v>
@@ -27348,36 +26616,30 @@
         <v>0</v>
       </c>
       <c r="BN122">
-        <v>101.2</v>
+        <v>71.20772946859904</v>
       </c>
       <c r="BO122">
-        <v>133.4</v>
-      </c>
-      <c r="BP122">
-        <v>71.20772946859904</v>
-      </c>
-      <c r="BQ122">
         <v>69.08212560386472</v>
       </c>
     </row>
-    <row r="123" spans="1:69">
+    <row r="123" spans="1:67">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C123" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D123" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E123">
         <v>26</v>
       </c>
       <c r="F123" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G123">
         <v>5033000</v>
@@ -27557,36 +26819,30 @@
         <v>0</v>
       </c>
       <c r="BN123">
-        <v>137.6</v>
+        <v>62.80193236714976</v>
       </c>
       <c r="BO123">
-        <v>136.6</v>
-      </c>
-      <c r="BP123">
-        <v>62.80193236714976</v>
-      </c>
-      <c r="BQ123">
         <v>66.95652173913044</v>
       </c>
     </row>
-    <row r="124" spans="1:69">
+    <row r="124" spans="1:67">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C124" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D124" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E124">
         <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G124">
         <v>1000000</v>
@@ -27766,27 +27022,21 @@
         <v>0</v>
       </c>
       <c r="BN124">
-        <v>207.6</v>
+        <v>38.45410628019324</v>
       </c>
       <c r="BO124">
-        <v>208.2</v>
-      </c>
-      <c r="BP124">
-        <v>38.45410628019324</v>
-      </c>
-      <c r="BQ124">
         <v>50.91787439613527</v>
       </c>
     </row>
-    <row r="125" spans="1:69">
+    <row r="125" spans="1:67">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C125" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
@@ -27795,7 +27045,7 @@
         <v>24</v>
       </c>
       <c r="F125" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G125">
         <v>975000</v>
@@ -27975,36 +27225,30 @@
         <v>0</v>
       </c>
       <c r="BN125">
-        <v>171.6</v>
+        <v>49.17874396135266</v>
       </c>
       <c r="BO125">
-        <v>315</v>
-      </c>
-      <c r="BP125">
-        <v>49.17874396135266</v>
-      </c>
-      <c r="BQ125">
         <v>20.8695652173913</v>
       </c>
     </row>
-    <row r="126" spans="1:69">
+    <row r="126" spans="1:67">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C126" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D126" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E126">
         <v>31</v>
       </c>
       <c r="F126" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G126">
         <v>750000</v>
@@ -28184,36 +27428,30 @@
         <v>0</v>
       </c>
       <c r="BN126">
-        <v>154.8</v>
+        <v>52.65700483091788</v>
       </c>
       <c r="BO126">
-        <v>143.8</v>
-      </c>
-      <c r="BP126">
-        <v>52.65700483091788</v>
-      </c>
-      <c r="BQ126">
         <v>66.57004830917876</v>
       </c>
     </row>
-    <row r="127" spans="1:69">
+    <row r="127" spans="1:67">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C127" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D127" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E127">
         <v>24</v>
       </c>
       <c r="F127" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G127">
         <v>9000000</v>
@@ -28393,36 +27631,30 @@
         <v>0</v>
       </c>
       <c r="BN127">
-        <v>43</v>
+        <v>85.41062801932368</v>
       </c>
       <c r="BO127">
-        <v>90</v>
-      </c>
-      <c r="BP127">
-        <v>85.41062801932368</v>
-      </c>
-      <c r="BQ127">
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:69">
+    <row r="128" spans="1:67">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C128" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D128" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E128">
         <v>26</v>
       </c>
       <c r="F128" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G128">
         <v>4200000</v>
@@ -28599,36 +27831,30 @@
         <v>0</v>
       </c>
       <c r="BN128">
-        <v>254.4</v>
+        <v>53.23671497584541</v>
       </c>
       <c r="BO128">
-        <v>312.8</v>
-      </c>
-      <c r="BP128">
-        <v>53.23671497584541</v>
-      </c>
-      <c r="BQ128">
         <v>20.57971014492754</v>
       </c>
     </row>
-    <row r="129" spans="1:69">
+    <row r="129" spans="1:67">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C129" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D129" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E129">
         <v>24</v>
       </c>
       <c r="F129" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G129">
         <v>350000</v>
@@ -28808,36 +28034,30 @@
         <v>0</v>
       </c>
       <c r="BN129">
-        <v>280.4</v>
+        <v>22.41545893719806</v>
       </c>
       <c r="BO129">
-        <v>317</v>
-      </c>
-      <c r="BP129">
-        <v>22.41545893719806</v>
-      </c>
-      <c r="BQ129">
         <v>23.09178743961353</v>
       </c>
     </row>
-    <row r="130" spans="1:69">
+    <row r="130" spans="1:67">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C130" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D130" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E130">
         <v>26</v>
       </c>
       <c r="F130" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G130">
         <v>1430000</v>
@@ -29017,36 +28237,30 @@
         <v>0</v>
       </c>
       <c r="BN130">
-        <v>189</v>
+        <v>44.54106280193237</v>
       </c>
       <c r="BO130">
-        <v>259.8</v>
-      </c>
-      <c r="BP130">
-        <v>44.54106280193237</v>
-      </c>
-      <c r="BQ130">
         <v>33.91304347826087</v>
       </c>
     </row>
-    <row r="131" spans="1:69">
+    <row r="131" spans="1:67">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C131" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D131" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E131">
         <v>23</v>
       </c>
       <c r="F131" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G131">
         <v>740000</v>
@@ -29226,36 +28440,30 @@
         <v>0</v>
       </c>
       <c r="BN131">
-        <v>323</v>
+        <v>10.24154589371981</v>
       </c>
       <c r="BO131">
-        <v>280.2</v>
-      </c>
-      <c r="BP131">
-        <v>10.24154589371981</v>
-      </c>
-      <c r="BQ131">
         <v>31.40096618357488</v>
       </c>
     </row>
-    <row r="132" spans="1:69">
+    <row r="132" spans="1:67">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C132" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D132" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E132">
         <v>22</v>
       </c>
       <c r="F132" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G132">
         <v>2033000</v>
@@ -29435,36 +28643,30 @@
         <v>0</v>
       </c>
       <c r="BN132">
-        <v>89.8</v>
+        <v>71.40096618357489</v>
       </c>
       <c r="BO132">
-        <v>252.4</v>
-      </c>
-      <c r="BP132">
-        <v>71.40096618357489</v>
-      </c>
-      <c r="BQ132">
         <v>39.42028985507246</v>
       </c>
     </row>
-    <row r="133" spans="1:69">
+    <row r="133" spans="1:67">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C133" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D133" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E133">
         <v>29</v>
       </c>
       <c r="F133" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G133">
         <v>3600000</v>
@@ -29644,27 +28846,21 @@
         <v>0</v>
       </c>
       <c r="BN133">
-        <v>133.6</v>
+        <v>60.57971014492753</v>
       </c>
       <c r="BO133">
-        <v>194.2</v>
-      </c>
-      <c r="BP133">
-        <v>60.57971014492753</v>
-      </c>
-      <c r="BQ133">
         <v>52.85024154589373</v>
       </c>
     </row>
-    <row r="134" spans="1:69">
+    <row r="134" spans="1:67">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C134" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
@@ -29673,7 +28869,7 @@
         <v>31</v>
       </c>
       <c r="F134" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G134">
         <v>1145000</v>
@@ -29853,36 +29049,30 @@
         <v>0</v>
       </c>
       <c r="BN134">
-        <v>227.8</v>
+        <v>39.80676328502415</v>
       </c>
       <c r="BO134">
-        <v>269.4</v>
-      </c>
-      <c r="BP134">
-        <v>39.80676328502415</v>
-      </c>
-      <c r="BQ134">
         <v>32.94685990338164</v>
       </c>
     </row>
-    <row r="135" spans="1:69">
+    <row r="135" spans="1:67">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C135" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D135" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E135">
         <v>27</v>
       </c>
       <c r="F135" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G135">
         <v>2520000</v>
@@ -30062,36 +29252,30 @@
         <v>0</v>
       </c>
       <c r="BN135">
-        <v>256.8</v>
+        <v>27.82608695652174</v>
       </c>
       <c r="BO135">
-        <v>322.4</v>
-      </c>
-      <c r="BP135">
-        <v>27.82608695652174</v>
-      </c>
-      <c r="BQ135">
         <v>21.44927536231884</v>
       </c>
     </row>
-    <row r="136" spans="1:69">
+    <row r="136" spans="1:67">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C136" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D136" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E136">
         <v>23</v>
       </c>
       <c r="F136" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G136">
         <v>287500</v>
@@ -30271,36 +29455,30 @@
         <v>1</v>
       </c>
       <c r="BN136">
-        <v>141.2</v>
+        <v>58.64734299516908</v>
       </c>
       <c r="BO136">
-        <v>203.6</v>
-      </c>
-      <c r="BP136">
-        <v>58.64734299516908</v>
-      </c>
-      <c r="BQ136">
         <v>50.72463768115942</v>
       </c>
     </row>
-    <row r="137" spans="1:69">
+    <row r="137" spans="1:67">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C137" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D137" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E137">
         <v>27</v>
       </c>
       <c r="F137" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G137">
         <v>1760000</v>
@@ -30480,36 +29658,30 @@
         <v>0</v>
       </c>
       <c r="BN137">
-        <v>259</v>
+        <v>27.43961352657005</v>
       </c>
       <c r="BO137">
-        <v>257.4</v>
-      </c>
-      <c r="BP137">
-        <v>27.43961352657005</v>
-      </c>
-      <c r="BQ137">
         <v>35.84541062801932</v>
       </c>
     </row>
-    <row r="138" spans="1:69">
+    <row r="138" spans="1:67">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C138" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D138" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E138">
         <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G138">
         <v>1000000</v>
@@ -30689,36 +29861,30 @@
         <v>0</v>
       </c>
       <c r="BN138">
-        <v>256.8</v>
+        <v>26.76328502415459</v>
       </c>
       <c r="BO138">
-        <v>151.6</v>
-      </c>
-      <c r="BP138">
-        <v>26.76328502415459</v>
-      </c>
-      <c r="BQ138">
         <v>64.83091787439614</v>
       </c>
     </row>
-    <row r="139" spans="1:69">
+    <row r="139" spans="1:67">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C139" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D139" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E139">
         <v>30</v>
       </c>
       <c r="F139" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G139">
         <v>1750000</v>
@@ -30898,36 +30064,30 @@
         <v>0</v>
       </c>
       <c r="BN139">
-        <v>158.4</v>
+        <v>57.39130434782609</v>
       </c>
       <c r="BO139">
-        <v>283.8</v>
-      </c>
-      <c r="BP139">
-        <v>57.39130434782609</v>
-      </c>
-      <c r="BQ139">
         <v>29.7584541062802</v>
       </c>
     </row>
-    <row r="140" spans="1:69">
+    <row r="140" spans="1:67">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C140" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D140" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E140">
         <v>25</v>
       </c>
       <c r="F140" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G140">
         <v>3500000</v>
@@ -31107,36 +30267,30 @@
         <v>0</v>
       </c>
       <c r="BN140">
-        <v>120.4</v>
+        <v>65.1207729468599</v>
       </c>
       <c r="BO140">
-        <v>253</v>
-      </c>
-      <c r="BP140">
-        <v>65.1207729468599</v>
-      </c>
-      <c r="BQ140">
         <v>38.55072463768116</v>
       </c>
     </row>
-    <row r="141" spans="1:69">
+    <row r="141" spans="1:67">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C141" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D141" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E141">
         <v>27</v>
       </c>
       <c r="F141" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G141">
         <v>2380000</v>
@@ -31316,36 +30470,30 @@
         <v>0</v>
       </c>
       <c r="BN141">
-        <v>240</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="BO141">
-        <v>312.8</v>
-      </c>
-      <c r="BP141">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="BQ141">
         <v>25.02415458937198</v>
       </c>
     </row>
-    <row r="142" spans="1:69">
+    <row r="142" spans="1:67">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C142" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D142" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E142">
         <v>23</v>
       </c>
       <c r="F142" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G142">
         <v>287500</v>
@@ -31525,36 +30673,30 @@
         <v>0</v>
       </c>
       <c r="BN142">
-        <v>120</v>
+        <v>65.50724637681159</v>
       </c>
       <c r="BO142">
-        <v>122.2</v>
-      </c>
-      <c r="BP142">
-        <v>65.50724637681159</v>
-      </c>
-      <c r="BQ142">
         <v>74.68599033816425</v>
       </c>
     </row>
-    <row r="143" spans="1:69">
+    <row r="143" spans="1:67">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C143" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D143" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E143">
         <v>35</v>
       </c>
       <c r="F143" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G143">
         <v>1000000</v>
@@ -31734,27 +30876,21 @@
         <v>0</v>
       </c>
       <c r="BN143">
-        <v>246.8</v>
+        <v>27.72946859903381</v>
       </c>
       <c r="BO143">
-        <v>277</v>
-      </c>
-      <c r="BP143">
-        <v>27.72946859903381</v>
-      </c>
-      <c r="BQ143">
         <v>32.56038647342995</v>
       </c>
     </row>
-    <row r="144" spans="1:69">
+    <row r="144" spans="1:67">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C144" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D144" t="s">
         <v>29</v>
@@ -31763,7 +30899,7 @@
         <v>20</v>
       </c>
       <c r="F144" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G144">
         <v>1472640</v>
@@ -31943,36 +31079,30 @@
         <v>0</v>
       </c>
       <c r="BN144">
-        <v>171.4</v>
+        <v>48.79227053140097</v>
       </c>
       <c r="BO144">
-        <v>247.8</v>
-      </c>
-      <c r="BP144">
-        <v>48.79227053140097</v>
-      </c>
-      <c r="BQ144">
         <v>40.48309178743961</v>
       </c>
     </row>
-    <row r="145" spans="1:69">
+    <row r="145" spans="1:67">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C145" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D145" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E145">
         <v>23</v>
       </c>
       <c r="F145" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G145">
         <v>2700000</v>
@@ -32149,36 +31279,30 @@
         <v>1</v>
       </c>
       <c r="BN145">
-        <v>224</v>
+        <v>58.743961352657</v>
       </c>
       <c r="BO145">
-        <v>325.4</v>
-      </c>
-      <c r="BP145">
-        <v>58.743961352657</v>
-      </c>
-      <c r="BQ145">
         <v>20.96618357487923</v>
       </c>
     </row>
-    <row r="146" spans="1:69">
+    <row r="146" spans="1:67">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C146" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D146" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E146">
         <v>25</v>
       </c>
       <c r="F146" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G146">
         <v>4333000</v>
@@ -32355,27 +31479,21 @@
         <v>0</v>
       </c>
       <c r="BN146">
-        <v>236</v>
+        <v>58.26086956521739</v>
       </c>
       <c r="BO146">
-        <v>186.6</v>
-      </c>
-      <c r="BP146">
-        <v>58.26086956521739</v>
-      </c>
-      <c r="BQ146">
         <v>56.23188405797102</v>
       </c>
     </row>
-    <row r="147" spans="1:69">
+    <row r="147" spans="1:67">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C147" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D147" t="s">
         <v>29</v>
@@ -32384,7 +31502,7 @@
         <v>27</v>
       </c>
       <c r="F147" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G147">
         <v>1150000</v>
@@ -32564,36 +31682,30 @@
         <v>0</v>
       </c>
       <c r="BN147">
-        <v>94.40000000000001</v>
+        <v>69.56521739130434</v>
       </c>
       <c r="BO147">
-        <v>193.8</v>
-      </c>
-      <c r="BP147">
-        <v>69.56521739130434</v>
-      </c>
-      <c r="BQ147">
         <v>53.23671497584541</v>
       </c>
     </row>
-    <row r="148" spans="1:69">
+    <row r="148" spans="1:67">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C148" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D148" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E148">
         <v>29</v>
       </c>
       <c r="F148" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G148">
         <v>3780000</v>
@@ -32773,36 +31885,30 @@
         <v>0</v>
       </c>
       <c r="BN148">
-        <v>221.6</v>
+        <v>40.67632850241546</v>
       </c>
       <c r="BO148">
-        <v>164</v>
-      </c>
-      <c r="BP148">
-        <v>40.67632850241546</v>
-      </c>
-      <c r="BQ148">
         <v>62.1256038647343</v>
       </c>
     </row>
-    <row r="149" spans="1:69">
+    <row r="149" spans="1:67">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C149" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D149" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E149">
         <v>29</v>
       </c>
       <c r="F149" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G149">
         <v>2254000</v>
@@ -32982,36 +32088,30 @@
         <v>0</v>
       </c>
       <c r="BN149">
-        <v>135.2</v>
+        <v>61.06280193236715</v>
       </c>
       <c r="BO149">
-        <v>244.8</v>
-      </c>
-      <c r="BP149">
-        <v>61.06280193236715</v>
-      </c>
-      <c r="BQ149">
         <v>37.68115942028986</v>
       </c>
     </row>
-    <row r="150" spans="1:69">
+    <row r="150" spans="1:67">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C150" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D150" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E150">
         <v>27</v>
       </c>
       <c r="F150" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G150">
         <v>4200000</v>
@@ -33191,36 +32291,30 @@
         <v>0</v>
       </c>
       <c r="BN150">
-        <v>146.4</v>
+        <v>57.58454106280193</v>
       </c>
       <c r="BO150">
-        <v>153.2</v>
-      </c>
-      <c r="BP150">
-        <v>57.58454106280193</v>
-      </c>
-      <c r="BQ150">
         <v>64.83091787439614</v>
       </c>
     </row>
-    <row r="151" spans="1:69">
+    <row r="151" spans="1:67">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C151" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D151" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E151">
         <v>28</v>
       </c>
       <c r="F151" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G151">
         <v>1650000</v>
@@ -33400,36 +32494,30 @@
         <v>0</v>
       </c>
       <c r="BN151">
-        <v>190.8</v>
+        <v>44.34782608695652</v>
       </c>
       <c r="BO151">
-        <v>150.6</v>
-      </c>
-      <c r="BP151">
-        <v>44.34782608695652</v>
-      </c>
-      <c r="BQ151">
         <v>65.50724637681159</v>
       </c>
     </row>
-    <row r="152" spans="1:69">
+    <row r="152" spans="1:67">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C152" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D152" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E152">
         <v>21</v>
       </c>
       <c r="F152" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G152">
         <v>1165000</v>
@@ -33609,36 +32697,30 @@
         <v>0</v>
       </c>
       <c r="BN152">
-        <v>51</v>
+        <v>83.47826086956522</v>
       </c>
       <c r="BO152">
-        <v>66</v>
-      </c>
-      <c r="BP152">
-        <v>83.47826086956522</v>
-      </c>
-      <c r="BQ152">
         <v>88.30917874396135</v>
       </c>
     </row>
-    <row r="153" spans="1:69">
+    <row r="153" spans="1:67">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C153" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D153" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E153">
         <v>23</v>
       </c>
       <c r="F153" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G153">
         <v>350000</v>
@@ -33815,36 +32897,30 @@
         <v>0</v>
       </c>
       <c r="BN153">
-        <v>273.8</v>
+        <v>46.3768115942029</v>
       </c>
       <c r="BO153">
-        <v>139</v>
-      </c>
-      <c r="BP153">
-        <v>46.3768115942029</v>
-      </c>
-      <c r="BQ153">
         <v>67.34299516908213</v>
       </c>
     </row>
-    <row r="154" spans="1:69">
+    <row r="154" spans="1:67">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C154" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D154" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E154">
         <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G154">
         <v>1000000</v>
@@ -34024,36 +33100,30 @@
         <v>0</v>
       </c>
       <c r="BN154">
-        <v>145.4</v>
+        <v>57.39130434782609</v>
       </c>
       <c r="BO154">
-        <v>83</v>
-      </c>
-      <c r="BP154">
-        <v>57.39130434782609</v>
-      </c>
-      <c r="BQ154">
         <v>83.28502415458937</v>
       </c>
     </row>
-    <row r="155" spans="1:69">
+    <row r="155" spans="1:67">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C155" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D155" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E155">
         <v>30</v>
       </c>
       <c r="F155" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G155">
         <v>2240000</v>
@@ -34233,27 +33303,21 @@
         <v>0</v>
       </c>
       <c r="BN155">
-        <v>211.6</v>
+        <v>39.90338164251207</v>
       </c>
       <c r="BO155">
-        <v>132.6</v>
-      </c>
-      <c r="BP155">
-        <v>39.90338164251207</v>
-      </c>
-      <c r="BQ155">
         <v>68.88888888888889</v>
       </c>
     </row>
-    <row r="156" spans="1:69">
+    <row r="156" spans="1:67">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C156" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D156" t="s">
         <v>29</v>
@@ -34262,7 +33326,7 @@
         <v>25</v>
       </c>
       <c r="F156" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G156">
         <v>6000000</v>
@@ -34439,36 +33503,30 @@
         <v>0</v>
       </c>
       <c r="BN156">
-        <v>199.8</v>
+        <v>67.2463768115942</v>
       </c>
       <c r="BO156">
-        <v>115.6</v>
-      </c>
-      <c r="BP156">
-        <v>67.2463768115942</v>
-      </c>
-      <c r="BQ156">
         <v>75.36231884057972</v>
       </c>
     </row>
-    <row r="157" spans="1:69">
+    <row r="157" spans="1:67">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C157" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D157" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E157">
         <v>26</v>
       </c>
       <c r="F157" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G157">
         <v>475000</v>
@@ -34648,27 +33706,21 @@
         <v>0</v>
       </c>
       <c r="BN157">
-        <v>314.8</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="BO157">
-        <v>331.8</v>
-      </c>
-      <c r="BP157">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="BQ157">
         <v>17.68115942028986</v>
       </c>
     </row>
-    <row r="158" spans="1:69">
+    <row r="158" spans="1:67">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C158" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D158" t="s">
         <v>29</v>
@@ -34677,7 +33729,7 @@
         <v>25</v>
       </c>
       <c r="F158" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G158">
         <v>800000</v>
@@ -34854,36 +33906,30 @@
         <v>0</v>
       </c>
       <c r="BN158">
-        <v>248</v>
+        <v>53.81642512077295</v>
       </c>
       <c r="BO158">
-        <v>165.8</v>
-      </c>
-      <c r="BP158">
-        <v>53.81642512077295</v>
-      </c>
-      <c r="BQ158">
         <v>60.57971014492753</v>
       </c>
     </row>
-    <row r="159" spans="1:69">
+    <row r="159" spans="1:67">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C159" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D159" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E159">
         <v>31</v>
       </c>
       <c r="F159" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G159">
         <v>5248000</v>
@@ -35063,36 +34109,30 @@
         <v>0</v>
       </c>
       <c r="BN159">
-        <v>148.6</v>
+        <v>58.64734299516908</v>
       </c>
       <c r="BO159">
-        <v>128.6</v>
-      </c>
-      <c r="BP159">
-        <v>58.64734299516908</v>
-      </c>
-      <c r="BQ159">
         <v>70.24154589371982</v>
       </c>
     </row>
-    <row r="160" spans="1:69">
+    <row r="160" spans="1:67">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C160" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D160" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E160">
         <v>32</v>
       </c>
       <c r="F160" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G160">
         <v>3030000</v>
@@ -35272,36 +34312,30 @@
         <v>0</v>
       </c>
       <c r="BN160">
-        <v>279.2</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="BO160">
-        <v>347.4</v>
-      </c>
-      <c r="BP160">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="BQ160">
         <v>14.78260869565217</v>
       </c>
     </row>
-    <row r="161" spans="1:69">
+    <row r="161" spans="1:67">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C161" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D161" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E161">
         <v>32</v>
       </c>
       <c r="F161" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G161">
         <v>3500000</v>
@@ -35481,36 +34515,30 @@
         <v>0</v>
       </c>
       <c r="BN161">
-        <v>57.4</v>
+        <v>81.06280193236715</v>
       </c>
       <c r="BO161">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="BP161">
-        <v>81.06280193236715</v>
-      </c>
-      <c r="BQ161">
         <v>88.1159420289855</v>
       </c>
     </row>
-    <row r="162" spans="1:69">
+    <row r="162" spans="1:67">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C162" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D162" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E162">
         <v>26</v>
       </c>
       <c r="F162" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G162">
         <v>6380000</v>
@@ -35690,36 +34718,30 @@
         <v>0</v>
       </c>
       <c r="BN162">
-        <v>72</v>
+        <v>77.58454106280193</v>
       </c>
       <c r="BO162">
-        <v>81.2</v>
-      </c>
-      <c r="BP162">
-        <v>77.58454106280193</v>
-      </c>
-      <c r="BQ162">
         <v>83.28502415458937</v>
       </c>
     </row>
-    <row r="163" spans="1:69">
+    <row r="163" spans="1:67">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C163" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D163" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E163">
         <v>27</v>
       </c>
       <c r="F163" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G163">
         <v>3000000</v>
@@ -35899,36 +34921,30 @@
         <v>0</v>
       </c>
       <c r="BN163">
-        <v>137.8</v>
+        <v>59.32367149758454</v>
       </c>
       <c r="BO163">
-        <v>185.2</v>
-      </c>
-      <c r="BP163">
-        <v>59.32367149758454</v>
-      </c>
-      <c r="BQ163">
         <v>54.87922705314009</v>
       </c>
     </row>
-    <row r="164" spans="1:69">
+    <row r="164" spans="1:67">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C164" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D164" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E164">
         <v>28</v>
       </c>
       <c r="F164" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G164">
         <v>3428000</v>
@@ -36108,36 +35124,30 @@
         <v>0</v>
       </c>
       <c r="BN164">
-        <v>108.2</v>
+        <v>67.43961352657004</v>
       </c>
       <c r="BO164">
-        <v>117.6</v>
-      </c>
-      <c r="BP164">
-        <v>67.43961352657004</v>
-      </c>
-      <c r="BQ164">
         <v>74.00966183574879</v>
       </c>
     </row>
-    <row r="165" spans="1:69">
+    <row r="165" spans="1:67">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C165" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D165" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E165">
         <v>28</v>
       </c>
       <c r="F165" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G165">
         <v>1000000</v>
@@ -36317,36 +35327,30 @@
         <v>0</v>
       </c>
       <c r="BN165">
-        <v>178</v>
+        <v>47.92270531400966</v>
       </c>
       <c r="BO165">
-        <v>264</v>
-      </c>
-      <c r="BP165">
-        <v>47.92270531400966</v>
-      </c>
-      <c r="BQ165">
         <v>33.33333333333333</v>
       </c>
     </row>
-    <row r="166" spans="1:69">
+    <row r="166" spans="1:67">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C166" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D166" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E166">
         <v>24</v>
       </c>
       <c r="F166" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G166">
         <v>287500</v>
@@ -36526,27 +35530,21 @@
         <v>0</v>
       </c>
       <c r="BN166">
-        <v>326</v>
+        <v>10.91787439613527</v>
       </c>
       <c r="BO166">
-        <v>310.6</v>
-      </c>
-      <c r="BP166">
-        <v>10.91787439613527</v>
-      </c>
-      <c r="BQ166">
         <v>22.99516908212561</v>
       </c>
     </row>
-    <row r="167" spans="1:69">
+    <row r="167" spans="1:67">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C167" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D167" t="s">
         <v>29</v>
@@ -36555,7 +35553,7 @@
         <v>22</v>
       </c>
       <c r="F167" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G167">
         <v>653500</v>
@@ -36732,36 +35730,30 @@
         <v>0</v>
       </c>
       <c r="BN167">
-        <v>289</v>
+        <v>45.99033816425121</v>
       </c>
       <c r="BO167">
-        <v>277.4</v>
-      </c>
-      <c r="BP167">
-        <v>45.99033816425121</v>
-      </c>
-      <c r="BQ167">
         <v>33.91304347826087</v>
       </c>
     </row>
-    <row r="168" spans="1:69">
+    <row r="168" spans="1:67">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C168" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D168" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E168">
         <v>23</v>
       </c>
       <c r="F168" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G168">
         <v>677080</v>
@@ -36941,36 +35933,30 @@
         <v>0</v>
       </c>
       <c r="BN168">
-        <v>239.6</v>
+        <v>30.82125603864734</v>
       </c>
       <c r="BO168">
-        <v>357.8</v>
-      </c>
-      <c r="BP168">
-        <v>30.82125603864734</v>
-      </c>
-      <c r="BQ168">
         <v>15.07246376811594</v>
       </c>
     </row>
-    <row r="169" spans="1:69">
+    <row r="169" spans="1:67">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C169" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D169" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E169">
         <v>23</v>
       </c>
       <c r="F169" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G169">
         <v>1750000</v>
@@ -37150,36 +36136,30 @@
         <v>0</v>
       </c>
       <c r="BN169">
-        <v>95.40000000000001</v>
+        <v>71.69082125603865</v>
       </c>
       <c r="BO169">
-        <v>143.4</v>
-      </c>
-      <c r="BP169">
-        <v>71.69082125603865</v>
-      </c>
-      <c r="BQ169">
         <v>66.28019323671496</v>
       </c>
     </row>
-    <row r="170" spans="1:69">
+    <row r="170" spans="1:67">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C170" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D170" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E170">
         <v>29</v>
       </c>
       <c r="F170" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G170">
         <v>6300000</v>
@@ -37359,36 +36339,30 @@
         <v>0</v>
       </c>
       <c r="BN170">
-        <v>96.2</v>
+        <v>70.33816425120773</v>
       </c>
       <c r="BO170">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="BP170">
-        <v>70.33816425120773</v>
-      </c>
-      <c r="BQ170">
         <v>86.85990338164252</v>
       </c>
     </row>
-    <row r="171" spans="1:69">
+    <row r="171" spans="1:67">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C171" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D171" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E171">
         <v>25</v>
       </c>
       <c r="F171" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G171">
         <v>846300</v>
@@ -37568,36 +36542,30 @@
         <v>0</v>
       </c>
       <c r="BN171">
-        <v>141.8</v>
+        <v>61.35265700483091</v>
       </c>
       <c r="BO171">
-        <v>207.8</v>
-      </c>
-      <c r="BP171">
-        <v>61.35265700483091</v>
-      </c>
-      <c r="BQ171">
         <v>50.04830917874396</v>
       </c>
     </row>
-    <row r="172" spans="1:69">
+    <row r="172" spans="1:67">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C172" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D172" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E172">
         <v>28</v>
       </c>
       <c r="F172" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G172">
         <v>8300000</v>
@@ -37777,27 +36745,21 @@
         <v>0</v>
       </c>
       <c r="BN172">
-        <v>125.8</v>
+        <v>64.6376811594203</v>
       </c>
       <c r="BO172">
-        <v>111</v>
-      </c>
-      <c r="BP172">
-        <v>64.6376811594203</v>
-      </c>
-      <c r="BQ172">
         <v>74.29951690821257</v>
       </c>
     </row>
-    <row r="173" spans="1:69">
+    <row r="173" spans="1:67">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C173" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D173" t="s">
         <v>29</v>
@@ -37806,7 +36768,7 @@
         <v>23</v>
       </c>
       <c r="F173" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G173">
         <v>287500</v>
@@ -37983,36 +36945,30 @@
         <v>0</v>
       </c>
       <c r="BN173">
-        <v>312.6</v>
+        <v>40.28985507246377</v>
       </c>
       <c r="BO173">
-        <v>259.8</v>
-      </c>
-      <c r="BP173">
-        <v>40.28985507246377</v>
-      </c>
-      <c r="BQ173">
         <v>34.68599033816425</v>
       </c>
     </row>
-    <row r="174" spans="1:69">
+    <row r="174" spans="1:67">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C174" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D174" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E174">
         <v>24</v>
       </c>
       <c r="F174" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G174">
         <v>3887000</v>
@@ -38192,36 +37148,30 @@
         <v>0</v>
       </c>
       <c r="BN174">
-        <v>124.4</v>
+        <v>62.51207729468599</v>
       </c>
       <c r="BO174">
-        <v>160.2</v>
-      </c>
-      <c r="BP174">
-        <v>62.51207729468599</v>
-      </c>
-      <c r="BQ174">
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:69">
+    <row r="175" spans="1:67">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C175" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D175" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E175">
         <v>33</v>
       </c>
       <c r="F175" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G175">
         <v>4000000</v>
@@ -38401,36 +37351,30 @@
         <v>0</v>
       </c>
       <c r="BN175">
-        <v>122.6</v>
+        <v>66.76328502415458</v>
       </c>
       <c r="BO175">
-        <v>179.2</v>
-      </c>
-      <c r="BP175">
-        <v>66.76328502415458</v>
-      </c>
-      <c r="BQ175">
         <v>56.42512077294685</v>
       </c>
     </row>
-    <row r="176" spans="1:69">
+    <row r="176" spans="1:67">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C176" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D176" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E176">
         <v>28</v>
       </c>
       <c r="F176" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G176">
         <v>4666000</v>
@@ -38610,36 +37554,30 @@
         <v>0</v>
       </c>
       <c r="BN176">
-        <v>194</v>
+        <v>41.93236714975846</v>
       </c>
       <c r="BO176">
-        <v>316.8</v>
-      </c>
-      <c r="BP176">
-        <v>41.93236714975846</v>
-      </c>
-      <c r="BQ176">
         <v>21.25603864734299</v>
       </c>
     </row>
-    <row r="177" spans="1:69">
+    <row r="177" spans="1:67">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C177" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D177" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E177">
         <v>25</v>
       </c>
       <c r="F177" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G177">
         <v>1920000</v>
@@ -38819,27 +37757,21 @@
         <v>0</v>
       </c>
       <c r="BN177">
-        <v>177.2</v>
+        <v>49.08212560386473</v>
       </c>
       <c r="BO177">
-        <v>129.6</v>
-      </c>
-      <c r="BP177">
-        <v>49.08212560386473</v>
-      </c>
-      <c r="BQ177">
         <v>70.14492753623188</v>
       </c>
     </row>
-    <row r="178" spans="1:69">
+    <row r="178" spans="1:67">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C178" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D178" t="s">
         <v>29</v>
@@ -38848,7 +37780,7 @@
         <v>28</v>
       </c>
       <c r="F178" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G178">
         <v>2100000</v>
@@ -39028,27 +37960,21 @@
         <v>0</v>
       </c>
       <c r="BN178">
-        <v>275.8</v>
+        <v>21.44927536231884</v>
       </c>
       <c r="BO178">
-        <v>171.6</v>
-      </c>
-      <c r="BP178">
-        <v>21.44927536231884</v>
-      </c>
-      <c r="BQ178">
         <v>59.51690821256039</v>
       </c>
     </row>
-    <row r="179" spans="1:69">
+    <row r="179" spans="1:67">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C179" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D179" t="s">
         <v>29</v>
@@ -39057,7 +37983,7 @@
         <v>30</v>
       </c>
       <c r="F179" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G179">
         <v>3000000</v>
@@ -39237,36 +38163,30 @@
         <v>0</v>
       </c>
       <c r="BN179">
-        <v>250.8</v>
+        <v>28.21256038647343</v>
       </c>
       <c r="BO179">
-        <v>258.6</v>
-      </c>
-      <c r="BP179">
-        <v>28.21256038647343</v>
-      </c>
-      <c r="BQ179">
         <v>39.80676328502415</v>
       </c>
     </row>
-    <row r="180" spans="1:69">
+    <row r="180" spans="1:67">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C180" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D180" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E180">
         <v>25</v>
       </c>
       <c r="F180" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G180">
         <v>3133000</v>
@@ -39446,36 +38366,30 @@
         <v>0</v>
       </c>
       <c r="BN180">
-        <v>175</v>
+        <v>45.60386473429952</v>
       </c>
       <c r="BO180">
-        <v>290.6</v>
-      </c>
-      <c r="BP180">
-        <v>45.60386473429952</v>
-      </c>
-      <c r="BQ180">
         <v>27.05314009661836</v>
       </c>
     </row>
-    <row r="181" spans="1:69">
+    <row r="181" spans="1:67">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C181" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D181" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E181">
         <v>24</v>
       </c>
       <c r="F181" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G181">
         <v>1037000</v>
@@ -39655,27 +38569,21 @@
         <v>0</v>
       </c>
       <c r="BN181">
-        <v>196.6</v>
+        <v>43.96135265700483</v>
       </c>
       <c r="BO181">
-        <v>309.6</v>
-      </c>
-      <c r="BP181">
-        <v>43.96135265700483</v>
-      </c>
-      <c r="BQ181">
         <v>24.63768115942029</v>
       </c>
     </row>
-    <row r="182" spans="1:69">
+    <row r="182" spans="1:67">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C182" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D182" t="s">
         <v>29</v>
@@ -39684,7 +38592,7 @@
         <v>22</v>
       </c>
       <c r="F182" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G182">
         <v>1209000</v>
@@ -39864,27 +38772,21 @@
         <v>0</v>
       </c>
       <c r="BN182">
-        <v>142.2</v>
+        <v>59.61352657004831</v>
       </c>
       <c r="BO182">
-        <v>226.2</v>
-      </c>
-      <c r="BP182">
-        <v>59.61352657004831</v>
-      </c>
-      <c r="BQ182">
         <v>45.79710144927536</v>
       </c>
     </row>
-    <row r="183" spans="1:69">
+    <row r="183" spans="1:67">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C183" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D183" t="s">
         <v>29</v>
@@ -39893,7 +38795,7 @@
         <v>26</v>
       </c>
       <c r="F183" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G183">
         <v>1750000</v>
@@ -40073,27 +38975,21 @@
         <v>0</v>
       </c>
       <c r="BN183">
-        <v>149.4</v>
+        <v>54.29951690821257</v>
       </c>
       <c r="BO183">
-        <v>189</v>
-      </c>
-      <c r="BP183">
-        <v>54.29951690821257</v>
-      </c>
-      <c r="BQ183">
         <v>54.20289855072464</v>
       </c>
     </row>
-    <row r="184" spans="1:69">
+    <row r="184" spans="1:67">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C184" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D184" t="s">
         <v>29</v>
@@ -40102,7 +38998,7 @@
         <v>36</v>
       </c>
       <c r="F184" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G184">
         <v>4400000</v>
@@ -40282,36 +39178,30 @@
         <v>0</v>
       </c>
       <c r="BN184">
-        <v>108.2</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="BO184">
-        <v>130.6</v>
-      </c>
-      <c r="BP184">
-        <v>68.88888888888889</v>
-      </c>
-      <c r="BQ184">
         <v>70.33816425120773</v>
       </c>
     </row>
-    <row r="185" spans="1:69">
+    <row r="185" spans="1:67">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C185" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D185" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E185">
         <v>21</v>
       </c>
       <c r="F185" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G185">
         <v>1590000</v>
@@ -40491,27 +39381,21 @@
         <v>0</v>
       </c>
       <c r="BN185">
-        <v>156.6</v>
+        <v>52.56038647342996</v>
       </c>
       <c r="BO185">
-        <v>116.6</v>
-      </c>
-      <c r="BP185">
-        <v>52.56038647342996</v>
-      </c>
-      <c r="BQ185">
         <v>75.26570048309179</v>
       </c>
     </row>
-    <row r="186" spans="1:69">
+    <row r="186" spans="1:67">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C186" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D186" t="s">
         <v>29</v>
@@ -40520,7 +39404,7 @@
         <v>24</v>
       </c>
       <c r="F186" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G186">
         <v>1000000</v>
@@ -40700,36 +39584,30 @@
         <v>0</v>
       </c>
       <c r="BN186">
-        <v>122</v>
+        <v>65.41062801932367</v>
       </c>
       <c r="BO186">
-        <v>86.2</v>
-      </c>
-      <c r="BP186">
-        <v>65.41062801932367</v>
-      </c>
-      <c r="BQ186">
         <v>80.38647342995169</v>
       </c>
     </row>
-    <row r="187" spans="1:69">
+    <row r="187" spans="1:67">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C187" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D187" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E187">
         <v>27</v>
       </c>
       <c r="F187" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G187">
         <v>1900000</v>
@@ -40909,27 +39787,21 @@
         <v>0</v>
       </c>
       <c r="BN187">
-        <v>150.8</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="BO187">
-        <v>184.6</v>
-      </c>
-      <c r="BP187">
-        <v>56.52173913043478</v>
-      </c>
-      <c r="BQ187">
         <v>55.55555555555556</v>
       </c>
     </row>
-    <row r="188" spans="1:69">
+    <row r="188" spans="1:67">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C188" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D188" t="s">
         <v>29</v>
@@ -40938,7 +39810,7 @@
         <v>23</v>
       </c>
       <c r="F188" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G188">
         <v>3054000</v>
@@ -41118,27 +39990,21 @@
         <v>0</v>
       </c>
       <c r="BN188">
-        <v>66</v>
+        <v>77.8743961352657</v>
       </c>
       <c r="BO188">
-        <v>97.8</v>
-      </c>
-      <c r="BP188">
-        <v>77.8743961352657</v>
-      </c>
-      <c r="BQ188">
         <v>77.97101449275362</v>
       </c>
     </row>
-    <row r="189" spans="1:69">
+    <row r="189" spans="1:67">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C189" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D189" t="s">
         <v>29</v>
@@ -41147,7 +40013,7 @@
         <v>25</v>
       </c>
       <c r="F189" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G189">
         <v>450000</v>
@@ -41324,27 +40190,21 @@
         <v>0</v>
       </c>
       <c r="BN189">
-        <v>284</v>
+        <v>48.79227053140097</v>
       </c>
       <c r="BO189">
-        <v>205.2</v>
-      </c>
-      <c r="BP189">
-        <v>48.79227053140097</v>
-      </c>
-      <c r="BQ189">
         <v>51.78743961352657</v>
       </c>
     </row>
-    <row r="190" spans="1:69">
+    <row r="190" spans="1:67">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C190" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D190" t="s">
         <v>29</v>
@@ -41353,7 +40213,7 @@
         <v>30</v>
       </c>
       <c r="F190" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G190">
         <v>3830000</v>
@@ -41533,27 +40393,21 @@
         <v>0</v>
       </c>
       <c r="BN190">
-        <v>266.6</v>
+        <v>25.50724637681159</v>
       </c>
       <c r="BO190">
-        <v>336.6</v>
-      </c>
-      <c r="BP190">
-        <v>25.50724637681159</v>
-      </c>
-      <c r="BQ190">
         <v>18.84057971014493</v>
       </c>
     </row>
-    <row r="191" spans="1:69">
+    <row r="191" spans="1:67">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C191" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D191" t="s">
         <v>29</v>
@@ -41562,7 +40416,7 @@
         <v>22</v>
       </c>
       <c r="F191" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G191">
         <v>2107000</v>
@@ -41742,27 +40596,21 @@
         <v>0</v>
       </c>
       <c r="BN191">
-        <v>48.8</v>
+        <v>85.50724637681159</v>
       </c>
       <c r="BO191">
-        <v>138.2</v>
-      </c>
-      <c r="BP191">
-        <v>85.50724637681159</v>
-      </c>
-      <c r="BQ191">
         <v>66.76328502415458</v>
       </c>
     </row>
-    <row r="192" spans="1:69">
+    <row r="192" spans="1:67">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C192" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D192" t="s">
         <v>29</v>
@@ -41771,7 +40619,7 @@
         <v>22</v>
       </c>
       <c r="F192" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G192">
         <v>1619880</v>
@@ -41951,36 +40799,30 @@
         <v>0</v>
       </c>
       <c r="BN192">
-        <v>248.6</v>
+        <v>32.3671497584541</v>
       </c>
       <c r="BO192">
-        <v>264.4</v>
-      </c>
-      <c r="BP192">
-        <v>32.3671497584541</v>
-      </c>
-      <c r="BQ192">
         <v>36.6183574879227</v>
       </c>
     </row>
-    <row r="193" spans="1:69">
+    <row r="193" spans="1:67">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C193" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D193" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E193">
         <v>24</v>
       </c>
       <c r="F193" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G193">
         <v>800000</v>
@@ -42157,36 +40999,30 @@
         <v>0</v>
       </c>
       <c r="BN193">
-        <v>218.6</v>
+        <v>63.8647342995169</v>
       </c>
       <c r="BO193">
-        <v>153.8</v>
-      </c>
-      <c r="BP193">
-        <v>63.8647342995169</v>
-      </c>
-      <c r="BQ193">
         <v>66.28019323671496</v>
       </c>
     </row>
-    <row r="194" spans="1:69">
+    <row r="194" spans="1:67">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C194" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D194" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E194">
         <v>28</v>
       </c>
       <c r="F194" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G194">
         <v>537500</v>
@@ -42366,36 +41202,30 @@
         <v>0</v>
       </c>
       <c r="BN194">
-        <v>272.4</v>
+        <v>24.92753623188406</v>
       </c>
       <c r="BO194">
-        <v>334.6</v>
-      </c>
-      <c r="BP194">
-        <v>24.92753623188406</v>
-      </c>
-      <c r="BQ194">
         <v>17.58454106280193</v>
       </c>
     </row>
-    <row r="195" spans="1:69">
+    <row r="195" spans="1:67">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C195" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D195" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E195">
         <v>28</v>
       </c>
       <c r="F195" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G195">
         <v>1221000</v>
@@ -42575,36 +41405,30 @@
         <v>0</v>
       </c>
       <c r="BN195">
-        <v>126.8</v>
+        <v>65.1207729468599</v>
       </c>
       <c r="BO195">
-        <v>187.4</v>
-      </c>
-      <c r="BP195">
-        <v>65.1207729468599</v>
-      </c>
-      <c r="BQ195">
         <v>55.55555555555556</v>
       </c>
     </row>
-    <row r="196" spans="1:69">
+    <row r="196" spans="1:67">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C196" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D196" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E196">
         <v>24</v>
       </c>
       <c r="F196" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G196">
         <v>520000</v>
@@ -42784,27 +41608,21 @@
         <v>0</v>
       </c>
       <c r="BN196">
-        <v>208</v>
+        <v>40.28985507246377</v>
       </c>
       <c r="BO196">
-        <v>278.6</v>
-      </c>
-      <c r="BP196">
-        <v>40.28985507246377</v>
-      </c>
-      <c r="BQ196">
         <v>28.88888888888889</v>
       </c>
     </row>
-    <row r="197" spans="1:69">
+    <row r="197" spans="1:67">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C197" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D197" t="s">
         <v>29</v>
@@ -42813,7 +41631,7 @@
         <v>25</v>
       </c>
       <c r="F197" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G197">
         <v>10000000</v>
@@ -42993,36 +41811,30 @@
         <v>0</v>
       </c>
       <c r="BN197">
-        <v>21</v>
+        <v>91.49758454106281</v>
       </c>
       <c r="BO197">
-        <v>106.8</v>
-      </c>
-      <c r="BP197">
-        <v>91.49758454106281</v>
-      </c>
-      <c r="BQ197">
         <v>75.84541062801932</v>
       </c>
     </row>
-    <row r="198" spans="1:69">
+    <row r="198" spans="1:67">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C198" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D198" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E198">
         <v>35</v>
       </c>
       <c r="F198" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G198">
         <v>1000000</v>
@@ -43202,36 +42014,30 @@
         <v>0</v>
       </c>
       <c r="BN198">
-        <v>266.8</v>
+        <v>22.41545893719806</v>
       </c>
       <c r="BO198">
-        <v>346.6</v>
-      </c>
-      <c r="BP198">
-        <v>22.41545893719806</v>
-      </c>
-      <c r="BQ198">
         <v>17.0048309178744</v>
       </c>
     </row>
-    <row r="199" spans="1:69">
+    <row r="199" spans="1:67">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C199" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D199" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E199">
         <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G199">
         <v>1000000</v>
@@ -43408,36 +42214,30 @@
         <v>0</v>
       </c>
       <c r="BN199">
-        <v>339</v>
+        <v>32.56038647342995</v>
       </c>
       <c r="BO199">
-        <v>333.6</v>
-      </c>
-      <c r="BP199">
-        <v>32.56038647342995</v>
-      </c>
-      <c r="BQ199">
         <v>15.26570048309179</v>
       </c>
     </row>
-    <row r="200" spans="1:69">
+    <row r="200" spans="1:67">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C200" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D200" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E200">
         <v>27</v>
       </c>
       <c r="F200" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G200">
         <v>1440000</v>
@@ -43617,36 +42417,30 @@
         <v>0</v>
       </c>
       <c r="BN200">
-        <v>253.4</v>
+        <v>23.86473429951691</v>
       </c>
       <c r="BO200">
-        <v>131.4</v>
-      </c>
-      <c r="BP200">
-        <v>23.86473429951691</v>
-      </c>
-      <c r="BQ200">
         <v>69.95169082125604</v>
       </c>
     </row>
-    <row r="201" spans="1:69">
+    <row r="201" spans="1:67">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C201" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D201" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E201">
         <v>26</v>
       </c>
       <c r="F201" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G201">
         <v>2780000</v>
@@ -43826,36 +42620,30 @@
         <v>0</v>
       </c>
       <c r="BN201">
-        <v>223.6</v>
+        <v>37.68115942028986</v>
       </c>
       <c r="BO201">
-        <v>302</v>
-      </c>
-      <c r="BP201">
-        <v>37.68115942028986</v>
-      </c>
-      <c r="BQ201">
         <v>27.53623188405797</v>
       </c>
     </row>
-    <row r="202" spans="1:69">
+    <row r="202" spans="1:67">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C202" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D202" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E202">
         <v>36</v>
       </c>
       <c r="F202" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G202">
         <v>1750000</v>
@@ -44032,36 +42820,30 @@
         <v>0</v>
       </c>
       <c r="BN202">
-        <v>290.4</v>
+        <v>47.34299516908212</v>
       </c>
       <c r="BO202">
-        <v>333.2</v>
-      </c>
-      <c r="BP202">
-        <v>47.34299516908212</v>
-      </c>
-      <c r="BQ202">
         <v>16.90821256038647</v>
       </c>
     </row>
-    <row r="203" spans="1:69">
+    <row r="203" spans="1:67">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C203" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D203" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E203">
         <v>23</v>
       </c>
       <c r="F203" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G203">
         <v>1460000</v>
@@ -44241,36 +43023,30 @@
         <v>0</v>
       </c>
       <c r="BN203">
-        <v>129</v>
+        <v>64.83091787439614</v>
       </c>
       <c r="BO203">
-        <v>218.6</v>
-      </c>
-      <c r="BP203">
-        <v>64.83091787439614</v>
-      </c>
-      <c r="BQ203">
         <v>46.28019323671497</v>
       </c>
     </row>
-    <row r="204" spans="1:69">
+    <row r="204" spans="1:67">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C204" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D204" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E204">
         <v>30</v>
       </c>
       <c r="F204" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G204">
         <v>11000000</v>
@@ -44450,27 +43226,21 @@
         <v>0</v>
       </c>
       <c r="BN204">
-        <v>109</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="BO204">
-        <v>221.6</v>
-      </c>
-      <c r="BP204">
-        <v>65.21739130434783</v>
-      </c>
-      <c r="BQ204">
         <v>45.12077294685991</v>
       </c>
     </row>
-    <row r="205" spans="1:69">
+    <row r="205" spans="1:67">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C205" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D205" t="s">
         <v>29</v>
@@ -44479,7 +43249,7 @@
         <v>25</v>
       </c>
       <c r="F205" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G205">
         <v>737880</v>
@@ -44656,36 +43426,30 @@
         <v>0</v>
       </c>
       <c r="BN205">
-        <v>286.6</v>
+        <v>46.76328502415459</v>
       </c>
       <c r="BO205">
-        <v>113.8</v>
-      </c>
-      <c r="BP205">
-        <v>46.76328502415459</v>
-      </c>
-      <c r="BQ205">
         <v>75.84541062801932</v>
       </c>
     </row>
-    <row r="206" spans="1:69">
+    <row r="206" spans="1:67">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C206" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D206" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E206">
         <v>25</v>
       </c>
       <c r="F206" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G206">
         <v>500000</v>
@@ -44865,36 +43629,30 @@
         <v>0</v>
       </c>
       <c r="BN206">
-        <v>175</v>
+        <v>49.95169082125604</v>
       </c>
       <c r="BO206">
-        <v>204.6</v>
-      </c>
-      <c r="BP206">
-        <v>49.95169082125604</v>
-      </c>
-      <c r="BQ206">
         <v>52.85024154589373</v>
       </c>
     </row>
-    <row r="207" spans="1:69">
+    <row r="207" spans="1:67">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C207" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D207" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E207">
         <v>33</v>
       </c>
       <c r="F207" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G207">
         <v>600000</v>
@@ -45074,36 +43832,30 @@
         <v>0</v>
       </c>
       <c r="BN207">
-        <v>158.2</v>
+        <v>54.29951690821257</v>
       </c>
       <c r="BO207">
-        <v>201.4</v>
-      </c>
-      <c r="BP207">
-        <v>54.29951690821257</v>
-      </c>
-      <c r="BQ207">
         <v>51.4975845410628</v>
       </c>
     </row>
-    <row r="208" spans="1:69">
+    <row r="208" spans="1:67">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C208" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D208" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E208">
         <v>23</v>
       </c>
       <c r="F208" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G208">
         <v>1923000</v>
@@ -45283,15 +44035,9 @@
         <v>0</v>
       </c>
       <c r="BN208">
-        <v>168</v>
+        <v>50.14492753623189</v>
       </c>
       <c r="BO208">
-        <v>212</v>
-      </c>
-      <c r="BP208">
-        <v>50.14492753623189</v>
-      </c>
-      <c r="BQ208">
         <v>47.43961352657005</v>
       </c>
     </row>
